--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -74,6 +74,18 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>HIBIOTIC N 457MG/5ML SUSP. 60ML</t>
   </si>
   <si>
@@ -98,7 +110,7 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 9:29 AM</t>
+    <t>Thursday, 14 August, 2025 9:33 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -805,7 +817,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -815,11 +827,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -831,14 +843,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -855,42 +867,75 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" ht="25.5" customHeight="1">
-      <c r="P11" s="13">
-        <v>141</v>
-      </c>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c t="s" r="A12" s="14">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
         <v>29</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c t="s" r="G12" s="15">
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>13</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
         <v>30</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c t="s" r="K12" s="17">
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
         <v>31</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
+      <c t="s" r="Q11" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="P12" s="13">
+        <v>163</v>
+      </c>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
+        <v>33</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
+        <v>34</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
+        <v>35</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -919,10 +964,15 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -44,22 +44,46 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>BETADERM 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
     <t>8:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>31.00</t>
   </si>
   <si>
     <t>31.0000</t>
   </si>
   <si>
-    <t>1:0</t>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
   </si>
   <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
@@ -95,6 +119,15 @@
     <t>80.0000</t>
   </si>
   <si>
+    <t>HIDERM TOPICAL LOTION 100ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -110,7 +143,7 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 9:33 AM</t>
+    <t>Thursday, 14 August, 2025 10:01 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -834,7 +867,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -850,7 +883,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -860,11 +893,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -876,14 +909,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -893,49 +926,148 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>163</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
         <v>33</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>16</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
         <v>34</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
         <v>35</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c t="s" r="Q12" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>36</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>30</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>37</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>39</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>40</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>13</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>41</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="P15" s="13">
+        <v>261</v>
+      </c>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c t="s" r="A16" s="14">
+        <v>44</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c t="s" r="G16" s="15">
+        <v>45</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c t="s" r="K16" s="17">
+        <v>46</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="52">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -969,10 +1101,25 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="K16:Q16"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -143,7 +143,7 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 10:01 AM</t>
+    <t>Thursday, 14 August, 2025 10:02 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -128,6 +128,18 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>OTAL EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -143,7 +155,7 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 10:02 AM</t>
+    <t>Thursday, 14 August, 2025 10:15 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1032,42 +1044,75 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" ht="24.75" customHeight="1">
-      <c r="P15" s="13">
-        <v>261</v>
-      </c>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="14">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
         <v>44</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c t="s" r="G16" s="15">
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>13</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
         <v>45</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c t="s" r="K16" s="17">
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
         <v>46</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+      <c t="s" r="Q15" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="P16" s="13">
+        <v>280</v>
+      </c>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c t="s" r="A17" s="14">
+        <v>48</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c t="s" r="G17" s="15">
+        <v>49</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c t="s" r="K17" s="17">
+        <v>50</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="57">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1116,10 +1161,15 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K17:Q17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -86,6 +86,15 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>ELBAVIT WITH IRON SYRUP 60 ML</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
@@ -155,7 +164,7 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 10:15 AM</t>
+    <t>Thursday, 14 August, 2025 10:16 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -895,7 +904,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -905,11 +914,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -921,14 +930,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -938,11 +947,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -954,14 +963,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -994,7 +1003,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1027,7 +1036,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1037,11 +1046,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1053,14 +1062,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1070,49 +1079,82 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
         <v>46</v>
       </c>
-      <c t="s" r="Q15" s="12">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" ht="25.5" customHeight="1">
-      <c r="P16" s="13">
-        <v>280</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="14">
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>13</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
         <v>48</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c t="s" r="G17" s="15">
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
         <v>49</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c t="s" r="K17" s="17">
+      <c t="s" r="Q16" s="12">
         <v>50</v>
       </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="P17" s="13">
+        <v>320</v>
+      </c>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="14">
+        <v>51</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c t="s" r="G18" s="15">
+        <v>52</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c t="s" r="K18" s="17">
+        <v>53</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="62">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1166,10 +1208,15 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:Q18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -164,7 +164,22 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 10:16 AM</t>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>Thursday, 14 August, 2025 10:26 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1123,38 +1138,71 @@
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
-      <c r="P17" s="13">
-        <v>320</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
         <v>51</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
         <v>52</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
         <v>53</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>54</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="P18" s="13">
+        <v>344</v>
+      </c>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1">
+      <c t="s" r="A19" s="14">
+        <v>56</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c t="s" r="G19" s="15">
+        <v>57</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c t="s" r="K19" s="17">
+        <v>58</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="67">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1213,10 +1261,15 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="K19:Q19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -86,6 +86,15 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>DIOSED-C 20 TABS.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>ELBAVIT WITH IRON SYRUP 60 ML</t>
   </si>
   <si>
@@ -119,6 +128,15 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>HERO BABY 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>256.00</t>
+  </si>
+  <si>
+    <t>256.0000</t>
+  </si>
+  <si>
     <t>HIBIOTIC N 457MG/5ML SUSP. 60ML</t>
   </si>
   <si>
@@ -179,7 +197,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 10:26 AM</t>
+    <t>Thursday, 14 August, 2025 10:39 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -919,7 +937,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -936,7 +954,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -952,7 +970,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -962,11 +980,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -978,14 +996,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -995,11 +1013,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1011,14 +1029,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1051,7 +1069,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1084,7 +1102,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1094,11 +1112,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1110,14 +1128,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1127,14 +1145,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1143,66 +1161,132 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
-      <c r="P18" s="13">
-        <v>344</v>
-      </c>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c t="s" r="A19" s="14">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>52</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>53</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>13</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>54</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>56</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c t="s" r="G19" s="15">
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
         <v>57</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c t="s" r="K19" s="17">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
         <v>58</v>
       </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>59</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>60</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="P20" s="13">
+        <v>638</v>
+      </c>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1">
+      <c t="s" r="A21" s="14">
+        <v>62</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c t="s" r="G21" s="15">
+        <v>63</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c t="s" r="K21" s="17">
+        <v>64</v>
+      </c>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="77">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1266,10 +1350,20 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="K21:Q21"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -197,7 +197,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 10:39 AM</t>
+    <t>Thursday, 14 August, 2025 10:40 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>19.0000</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
@@ -1201,7 +1204,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1211,14 +1214,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1227,66 +1230,99 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>58</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>59</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>60</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
         <v>61</v>
       </c>
-      <c t="s" r="Q19" s="12">
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="20" ht="24.75" customHeight="1">
-      <c r="P20" s="13">
-        <v>638</v>
-      </c>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c t="s" r="A21" s="14">
-        <v>62</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c t="s" r="G21" s="15">
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="P21" s="13">
+        <v>664</v>
+      </c>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c t="s" r="A22" s="14">
         <v>63</v>
       </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c t="s" r="K21" s="17">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c t="s" r="G22" s="15">
         <v>64</v>
       </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c t="s" r="K22" s="17">
+        <v>65</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="82">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1360,10 +1396,15 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="K22:Q22"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -77,9 +92,6 @@
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>50.00</t>
   </si>
   <si>
@@ -155,6 +167,15 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>72.5000</t>
+  </si>
+  <si>
     <t>OTAL EAR DROPS 5 ML</t>
   </si>
   <si>
@@ -200,7 +221,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 10:40 AM</t>
+    <t>Thursday, 14 August, 2025 10:44 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -891,7 +912,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -900,14 +921,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -917,14 +938,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -933,14 +954,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -950,14 +971,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -966,14 +987,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -983,14 +1004,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -999,14 +1020,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1072,7 +1093,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1082,11 +1103,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1098,14 +1119,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1115,11 +1136,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1131,14 +1152,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1148,11 +1169,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1164,14 +1185,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1204,7 +1225,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1214,14 +1235,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1230,14 +1251,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1247,14 +1268,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1263,66 +1284,132 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
-      <c r="P21" s="13">
-        <v>664</v>
-      </c>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c t="s" r="A22" s="14">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>60</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>61</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>13</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>62</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
         <v>63</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c t="s" r="G22" s="15">
+      <c t="s" r="Q21" s="12">
         <v>64</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c t="s" r="K22" s="17">
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
         <v>65</v>
       </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>66</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>67</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>68</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="P23" s="13">
+        <v>763.5</v>
+      </c>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c t="s" r="A24" s="14">
+        <v>70</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c t="s" r="G24" s="15">
+        <v>71</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c t="s" r="K24" s="17">
+        <v>72</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="92">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1401,10 +1488,20 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="K24:Q24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -44,24 +44,48 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ARBATEG 2% SUSP. 100ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>ATOMOXAPEX 18MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
     <t>BETADERM 0.1% CREAM 15 GM</t>
   </si>
   <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>18.00</t>
   </si>
   <si>
     <t>18.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
   </si>
   <si>
@@ -131,9 +155,6 @@
     <t>GARAMYCIN 0.1% OINT. 15 GM</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>22.00</t>
   </si>
   <si>
@@ -188,6 +209,15 @@
     <t>19.0000</t>
   </si>
   <si>
+    <t>RISPADEX 1MG/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -221,7 +251,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 10:44 AM</t>
+    <t>Thursday, 14 August, 2025 10:54 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -912,7 +942,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -921,14 +951,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -938,11 +968,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -954,14 +984,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -978,7 +1008,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -987,14 +1017,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1004,14 +1034,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1020,14 +1050,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1037,14 +1067,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1053,14 +1083,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1070,14 +1100,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1086,14 +1116,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1126,7 +1156,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1136,11 +1166,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1152,14 +1182,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1169,11 +1199,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1185,14 +1215,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1202,11 +1232,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1218,7 +1248,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1235,14 +1265,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1251,14 +1281,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1291,7 +1321,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1301,14 +1331,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1317,14 +1347,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1334,14 +1364,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1350,66 +1380,165 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
         <v>69</v>
       </c>
-      <c t="s" r="Q22" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" ht="24.75" customHeight="1">
-      <c r="P23" s="13">
-        <v>763.5</v>
-      </c>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c t="s" r="A24" s="14">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>63</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>13</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>45</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
         <v>70</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c t="s" r="G24" s="15">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
         <v>71</v>
       </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c t="s" r="K24" s="17">
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>13</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
         <v>72</v>
       </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>75</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>76</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>77</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>78</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="P26" s="13">
+        <v>951.5</v>
+      </c>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
+      <c t="s" r="A27" s="14">
+        <v>80</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c t="s" r="G27" s="15">
+        <v>81</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c t="s" r="K27" s="17">
+        <v>82</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="107">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1498,10 +1627,25 @@
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:Q27"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ADOLOR 30 MG 3 AMPS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ARBATEG 2% SUSP. 100ML</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>35.00</t>
   </si>
   <si>
     <t>35.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>ATOMOXAPEX 18MG 30 CAPS.</t>
   </si>
   <si>
@@ -89,9 +101,6 @@
     <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>54.00</t>
   </si>
   <si>
@@ -236,22 +245,31 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
     <t>16:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>24.00</t>
   </si>
   <si>
     <t>24.0000</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 10:54 AM</t>
+    <t>Thursday, 14 August, 2025 11:06 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1008,7 +1026,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1017,14 +1035,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1034,14 +1052,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1050,14 +1068,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1074,7 +1092,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1090,7 +1108,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1107,7 +1125,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1123,7 +1141,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1140,7 +1158,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1156,7 +1174,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1166,11 +1184,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1182,14 +1200,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1222,7 +1240,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1255,7 +1273,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1288,7 +1306,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1321,7 +1339,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1338,7 +1356,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1354,7 +1372,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1364,14 +1382,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1380,14 +1398,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1420,7 +1438,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1430,11 +1448,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1446,14 +1464,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1463,14 +1481,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1479,66 +1497,132 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>78</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>18</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
         <v>79</v>
       </c>
-      <c t="s" r="Q25" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" ht="25.5" customHeight="1">
-      <c r="P26" s="13">
-        <v>951.5</v>
-      </c>
-      <c r="Q26" s="13"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c t="s" r="A27" s="14">
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>75</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
         <v>80</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c t="s" r="G27" s="15">
+      <c t="s" r="Q26" s="12">
         <v>81</v>
       </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c t="s" r="K27" s="17">
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
         <v>82</v>
       </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>83</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>79</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>84</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="P28" s="13">
+        <v>993.5</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
+        <v>86</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
+        <v>87</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>88</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1642,10 +1726,20 @@
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -269,7 +269,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 11:06 AM</t>
+    <t>Thursday, 14 August, 2025 11:10 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -47,69 +47,72 @@
     <t>ADOLOR 30 MG 3 AMPS.</t>
   </si>
   <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>ARBATEG 2% SUSP. 100ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>ATOMOXAPEX 18MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>BETADERM 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+  </si>
+  <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>ARBATEG 2% SUSP. 100ML</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>ATOMOXAPEX 18MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>BETADERM 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
-  </si>
-  <si>
     <t>54.00</t>
   </si>
   <si>
     <t>27.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -242,19 +245,13 @@
     <t>4.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>3:0</t>
+    <t>2.0000</t>
   </si>
   <si>
     <t>محلول ملح</t>
@@ -269,7 +266,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 11:10 AM</t>
+    <t>Thursday, 14 August, 2025 11:15 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -960,7 +957,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -969,14 +966,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -986,14 +983,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1002,14 +999,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1019,14 +1016,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1035,14 +1032,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1052,14 +1049,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1068,14 +1065,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1085,14 +1082,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1101,14 +1098,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1118,14 +1115,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1134,14 +1131,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1151,14 +1148,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1167,14 +1164,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1184,14 +1181,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1200,14 +1197,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1217,14 +1214,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1233,7 +1230,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1250,14 +1247,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1266,7 +1263,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1283,14 +1280,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1299,14 +1296,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1316,14 +1313,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1332,7 +1329,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1349,14 +1346,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1365,14 +1362,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1382,14 +1379,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1398,14 +1395,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1415,14 +1412,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1431,7 +1428,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1448,14 +1445,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1464,14 +1461,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1481,14 +1478,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1497,14 +1494,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1514,14 +1511,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>77</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1547,14 +1544,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>81</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1563,14 +1560,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1580,25 +1577,25 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
       <c r="P28" s="13">
-        <v>993.5</v>
+        <v>965.38</v>
       </c>
       <c r="Q28" s="13"/>
     </row>
     <row r="29" ht="16.5" customHeight="1">
       <c t="s" r="A29" s="14">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -1606,13 +1603,13 @@
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c t="s" r="G29" s="15">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
       <c r="J29" s="16"/>
       <c t="s" r="K29" s="17">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L29" s="17"/>
       <c r="M29" s="17"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -134,6 +134,12 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
     <t>DIOSED-C 20 TABS.</t>
   </si>
   <si>
@@ -251,9 +257,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>2.0000</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -266,7 +269,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 11:15 AM</t>
+    <t>Thursday, 14 August, 2025 11:20 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1138,7 +1141,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1148,11 +1151,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1164,14 +1167,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1181,14 +1184,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1197,14 +1200,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1214,11 +1217,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1230,14 +1233,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1247,11 +1250,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1263,7 +1266,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1280,11 +1283,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1296,14 +1299,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1313,11 +1316,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1329,14 +1332,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1346,11 +1349,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1362,14 +1365,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1379,14 +1382,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1395,14 +1398,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1412,14 +1415,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1428,14 +1431,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1445,11 +1448,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1461,14 +1464,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1478,11 +1481,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1494,14 +1497,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1511,14 +1514,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1527,31 +1530,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1560,66 +1563,99 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>82</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>83</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>81</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
         <v>84</v>
       </c>
-      <c t="s" r="Q27" s="12">
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="28" ht="24.75" customHeight="1">
-      <c r="P28" s="13">
-        <v>965.38</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c t="s" r="A29" s="14">
-        <v>85</v>
-      </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c t="s" r="G29" s="15">
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="P29" s="13">
+        <v>979.25999999999999</v>
+      </c>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" ht="16.5" customHeight="1">
+      <c t="s" r="A30" s="14">
         <v>86</v>
       </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c t="s" r="K29" s="17">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c t="s" r="G30" s="15">
         <v>87</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c t="s" r="K30" s="17">
+        <v>88</v>
+      </c>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="122">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1733,10 +1769,15 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="K30:Q30"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ALBENDAZOLE 400MG 6 TABS</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ARBATEG 2% SUSP. 100ML</t>
   </si>
   <si>
@@ -74,9 +89,6 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>ATOMOXAPEX 18MG 30 CAPS.</t>
   </si>
   <si>
@@ -113,6 +125,15 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>CETAFEN PLUS 30 TAB.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -251,6 +272,15 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>ZIAWET SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -269,7 +299,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 11:20 AM</t>
+    <t>Thursday, 14 August, 2025 11:22 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1059,7 +1089,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1092,7 +1122,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1108,7 +1138,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1151,14 +1181,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1167,7 +1197,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1184,11 +1214,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1200,14 +1230,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1217,14 +1247,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1233,14 +1263,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1257,7 +1287,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1273,7 +1303,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1306,7 +1336,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1316,11 +1346,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1332,14 +1362,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1349,11 +1379,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1365,14 +1395,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1382,11 +1412,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1398,7 +1428,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1415,14 +1445,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1431,14 +1461,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1471,7 +1501,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1488,7 +1518,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1504,7 +1534,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1514,11 +1544,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1530,14 +1560,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1547,14 +1577,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1563,31 +1593,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1596,66 +1626,165 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>87</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>23</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>13</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>88</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>90</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>23</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>91</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
         <v>85</v>
       </c>
-      <c t="s" r="Q28" s="12">
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>92</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>93</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>91</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>94</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="29" ht="25.5" customHeight="1">
-      <c r="P29" s="13">
-        <v>979.25999999999999</v>
-      </c>
-      <c r="Q29" s="13"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c t="s" r="A30" s="14">
-        <v>86</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c t="s" r="G30" s="15">
-        <v>87</v>
-      </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c t="s" r="K30" s="17">
-        <v>88</v>
-      </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>1099.99</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
+        <v>96</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>97</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>98</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1774,10 +1903,25 @@
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -299,7 +299,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 11:22 AM</t>
+    <t>Thursday, 14 August, 2025 11:26 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -257,6 +257,18 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>VIBRAMYCIN 100MG 10 CAPS.</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -299,7 +311,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 11:26 AM</t>
+    <t>Thursday, 14 August, 2025 11:28 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1600,7 +1612,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1610,11 +1622,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1633,7 +1645,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1643,14 +1655,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1659,14 +1671,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1676,11 +1688,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1692,28 +1704,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1725,66 +1737,132 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>94</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>23</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
         <v>95</v>
       </c>
-      <c t="s" r="Q31" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>1099.99</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>89</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
         <v>96</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
         <v>97</v>
       </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>95</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
         <v>98</v>
       </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="P34" s="13">
+        <v>1195.99</v>
+      </c>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="1">
+      <c t="s" r="A35" s="14">
+        <v>100</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c t="s" r="G35" s="15">
+        <v>101</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c t="s" r="K35" s="17">
+        <v>102</v>
+      </c>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="147">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1918,10 +1996,20 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="K35:Q35"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -248,6 +248,15 @@
     <t>19.0000</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>RISPADEX 1MG/ML SYRUP 100ML</t>
   </si>
   <si>
@@ -311,7 +320,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 11:28 AM</t>
+    <t>Thursday, 14 August, 2025 11:29 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1579,7 +1588,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1596,7 +1605,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1612,7 +1621,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1622,11 +1631,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1638,14 +1647,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1655,11 +1664,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1678,7 +1687,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1688,11 +1697,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1704,14 +1713,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1721,14 +1730,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1737,14 +1746,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1761,7 +1770,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1783,18 +1792,18 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1803,66 +1812,99 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
         <v>99</v>
       </c>
-      <c t="s" r="Q33" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" ht="25.5" customHeight="1">
-      <c r="P34" s="13">
-        <v>1195.99</v>
-      </c>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c t="s" r="A35" s="14">
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
         <v>100</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c t="s" r="G35" s="15">
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>98</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
         <v>101</v>
       </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c t="s" r="K35" s="17">
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
         <v>102</v>
       </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
+      <c t="s" r="Q34" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>1218.99</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>103</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>104</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>105</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2006,10 +2048,15 @@
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -179,6 +179,21 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
@@ -305,9 +320,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -320,7 +332,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 11:29 AM</t>
+    <t>Thursday, 14 August, 2025 11:33 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1363,18 +1375,18 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1383,14 +1395,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1400,11 +1412,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1416,7 +1428,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1433,11 +1445,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1449,14 +1461,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1466,11 +1478,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1482,14 +1494,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1499,11 +1511,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1515,14 +1527,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1532,14 +1544,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1548,14 +1560,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1565,14 +1577,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1581,14 +1593,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1598,14 +1610,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1614,14 +1626,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1631,14 +1643,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1647,14 +1659,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1664,11 +1676,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1680,14 +1692,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1697,11 +1709,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1713,14 +1725,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1730,11 +1742,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1746,14 +1758,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1763,14 +1775,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1779,14 +1791,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1796,14 +1808,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1812,7 +1824,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1825,18 +1837,18 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1845,66 +1857,99 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q34" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>103</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>104</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>58</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>105</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q35" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>1218.99</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
-        <v>103</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
-        <v>104</v>
-      </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
-        <v>105</v>
-      </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="P36" s="13">
+        <v>1266.51</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
+        <v>107</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>108</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>109</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2053,10 +2098,15 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -332,7 +332,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 11:33 AM</t>
+    <t>Thursday, 14 August, 2025 11:35 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -125,6 +125,12 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>19.2000</t>
+  </si>
+  <si>
     <t>CETAFEN PLUS 30 TAB.</t>
   </si>
   <si>
@@ -320,6 +326,9 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>6.0000</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -332,7 +341,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 11:35 AM</t>
+    <t>Thursday, 14 August, 2025 11:36 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1171,7 +1180,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1181,11 +1190,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1197,14 +1206,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1214,14 +1223,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1230,14 +1239,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1247,14 +1256,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1263,14 +1272,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1280,11 +1289,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1303,7 +1312,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1313,11 +1322,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1329,14 +1338,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1346,14 +1355,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1362,31 +1371,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1395,31 +1404,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1428,14 +1437,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1445,11 +1454,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1461,7 +1470,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1478,11 +1487,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1494,14 +1503,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1511,11 +1520,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1527,14 +1536,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1544,11 +1553,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1560,14 +1569,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1577,14 +1586,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1593,14 +1602,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1610,14 +1619,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1626,14 +1635,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1643,14 +1652,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1659,14 +1668,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1676,14 +1685,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1692,14 +1701,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1709,11 +1718,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1725,14 +1734,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1742,11 +1751,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1758,14 +1767,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1775,11 +1784,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1791,14 +1800,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1808,14 +1817,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1824,14 +1833,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1841,14 +1850,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1857,7 +1866,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1870,18 +1879,18 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1890,66 +1899,99 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
         <v>106</v>
       </c>
-      <c t="s" r="Q35" s="12">
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>107</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>60</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>108</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>1266.51</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
-        <v>107</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
-        <v>108</v>
-      </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
-        <v>109</v>
-      </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="P37" s="13">
+        <v>1287.71</v>
+      </c>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="14">
+        <v>110</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c t="s" r="G38" s="15">
+        <v>111</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c t="s" r="K38" s="17">
+        <v>112</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="162">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2103,10 +2145,15 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K38:Q38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -125,6 +125,15 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>BIVATRACIN 150MG POWDER SPRAY</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -161,12 +170,6 @@
     <t>25.0000</t>
   </si>
   <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>6:1</t>
-  </si>
-  <si>
     <t>DIOSED-C 20 TABS.</t>
   </si>
   <si>
@@ -302,6 +305,18 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -341,7 +356,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 11:36 AM</t>
+    <t>Thursday, 14 August, 2025 11:40 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1180,7 +1195,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1190,14 +1205,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1206,14 +1221,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1223,7 +1238,7 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
@@ -1246,7 +1261,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1256,14 +1271,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1272,14 +1287,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1296,7 +1311,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1312,7 +1327,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1322,11 +1337,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1338,7 +1353,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1355,11 +1370,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1371,7 +1386,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1388,11 +1403,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1404,31 +1419,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1437,14 +1452,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1454,11 +1469,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1470,7 +1485,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1487,11 +1502,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1503,7 +1518,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1520,11 +1535,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1536,7 +1551,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1553,11 +1568,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1569,7 +1584,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1586,11 +1601,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1602,7 +1617,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1619,11 +1634,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1635,14 +1650,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1652,11 +1667,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1668,7 +1683,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1685,11 +1700,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1701,7 +1716,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1718,11 +1733,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1734,14 +1749,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1751,11 +1766,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1767,7 +1782,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1784,11 +1799,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1800,14 +1815,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1817,11 +1832,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -1833,14 +1848,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1850,14 +1865,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1866,14 +1881,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1883,14 +1898,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1899,7 +1914,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -1912,18 +1927,18 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1932,66 +1947,99 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
-      <c r="P37" s="13">
-        <v>1287.71</v>
-      </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c t="s" r="A38" s="14">
-        <v>110</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c t="s" r="G38" s="15">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
         <v>111</v>
       </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c t="s" r="K38" s="17">
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
         <v>112</v>
       </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>61</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>113</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>114</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="P38" s="13">
+        <v>1375.6600000000001</v>
+      </c>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
+        <v>115</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
+        <v>116</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>117</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2150,10 +2198,15 @@
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -113,6 +113,15 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>BETASERC 16MG 60 TAB</t>
+  </si>
+  <si>
+    <t>219.00</t>
+  </si>
+  <si>
+    <t>72.2700</t>
+  </si>
+  <si>
     <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
   </si>
   <si>
@@ -281,6 +290,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>RHINEX 0.05% INFANTILE NASAL DROPS 10 ML</t>
+  </si>
+  <si>
     <t>RISPADEX 1MG/ML SYRUP 100ML</t>
   </si>
   <si>
@@ -356,7 +374,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 11:40 AM</t>
+    <t>Thursday, 14 August, 2025 11:44 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1162,7 +1180,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1172,11 +1190,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1188,14 +1206,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1212,7 +1230,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1228,7 +1246,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1238,14 +1256,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1254,14 +1272,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1271,7 +1289,7 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
@@ -1294,7 +1312,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1304,14 +1322,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1320,14 +1338,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1344,7 +1362,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1393,7 +1411,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1410,7 +1428,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1426,24 +1444,24 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1452,31 +1470,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1485,14 +1503,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1558,7 +1576,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1591,7 +1609,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1624,7 +1642,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1641,7 +1659,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1657,7 +1675,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1667,14 +1685,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1683,14 +1701,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1707,7 +1725,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1723,7 +1741,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1740,7 +1758,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1756,24 +1774,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1782,14 +1800,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1799,11 +1817,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1815,14 +1833,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1832,11 +1850,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -1848,14 +1866,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1865,14 +1883,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1881,14 +1899,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1898,14 +1916,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1914,14 +1932,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1931,11 +1949,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -1947,31 +1965,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1980,66 +1998,165 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>112</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>23</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>13</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>113</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
         <v>114</v>
       </c>
-      <c t="s" r="Q37" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>1375.6600000000001</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
+      <c t="s" r="Q38" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
         <v>115</v>
       </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>23</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>64</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>110</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
         <v>116</v>
       </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
+      <c t="s" r="Q39" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
         <v>117</v>
       </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>118</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>64</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>119</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>1492.9300000000001</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
+        <v>121</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
+        <v>122</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>123</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2203,10 +2320,25 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -113,6 +113,15 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>BETADINE ANTISEPTIC SOLN. 10% 120 ML</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>BETASERC 16MG 60 TAB</t>
   </si>
   <si>
@@ -245,12 +254,6 @@
     <t>HIBIOTIC N 457MG/5ML SUSP. 60ML</t>
   </si>
   <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
     <t>HIDERM TOPICAL LOTION 100ML</t>
   </si>
   <si>
@@ -374,7 +377,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 11:44 AM</t>
+    <t>Thursday, 14 August, 2025 11:48 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1180,7 +1183,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1197,7 +1200,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1213,7 +1216,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1223,11 +1226,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1239,14 +1242,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1263,7 +1266,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1279,7 +1282,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1289,14 +1292,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1305,14 +1308,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1322,7 +1325,7 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
@@ -1345,7 +1348,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1355,14 +1358,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1371,14 +1374,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1395,7 +1398,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1444,7 +1447,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1461,7 +1464,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1477,24 +1480,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>63</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1503,31 +1506,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1536,14 +1539,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1609,7 +1612,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1642,7 +1645,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1652,11 +1655,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1668,14 +1671,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1685,14 +1688,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1701,14 +1704,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1718,14 +1721,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1734,14 +1737,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1751,14 +1754,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1767,7 +1770,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1780,15 +1783,15 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1800,31 +1803,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1840,7 +1843,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1850,11 +1853,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -1866,14 +1869,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1883,11 +1886,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -1906,7 +1909,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1916,11 +1919,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -1932,14 +1935,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1949,11 +1952,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -1972,7 +1975,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1982,14 +1985,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1998,14 +2001,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2015,14 +2018,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2031,14 +2034,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2048,14 +2051,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2064,7 +2067,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2077,18 +2080,18 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2097,66 +2100,99 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>118</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>119</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>67</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
         <v>120</v>
       </c>
-      <c t="s" r="Q40" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>1492.9300000000001</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
         <v>121</v>
       </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
+      <c t="s" r="Q41" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="P42" s="13">
+        <v>1572.9300000000001</v>
+      </c>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c t="s" r="A43" s="14">
         <v>122</v>
       </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c t="s" r="G43" s="15">
         <v>123</v>
       </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c t="s" r="K43" s="17">
+        <v>124</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="187">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2335,10 +2371,15 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="K43:Q43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -143,15 +143,6 @@
     <t>27.0000</t>
   </si>
   <si>
-    <t>BIVATRACIN 150MG POWDER SPRAY</t>
-  </si>
-  <si>
-    <t>83.00</t>
-  </si>
-  <si>
-    <t>83.0000</t>
-  </si>
-  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -377,7 +368,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 11:48 AM</t>
+    <t>Thursday, 14 August, 2025 11:50 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1183,7 +1174,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1282,7 +1273,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1292,14 +1283,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1308,14 +1299,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1325,7 +1316,7 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
@@ -1348,7 +1339,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1358,14 +1349,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1374,14 +1365,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1398,7 +1389,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1447,7 +1438,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1464,7 +1455,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1480,24 +1471,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1506,31 +1497,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1539,14 +1530,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1612,7 +1603,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1622,11 +1613,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1638,14 +1629,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1655,11 +1646,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1678,7 +1669,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1695,7 +1686,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1711,7 +1702,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1721,14 +1712,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1737,14 +1728,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1761,7 +1752,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1783,7 +1774,7 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1791,7 +1782,7 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1803,31 +1794,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1836,14 +1827,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1853,11 +1844,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -1876,7 +1867,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1886,11 +1877,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -1902,14 +1893,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1919,11 +1910,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -1942,7 +1933,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1952,11 +1943,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -1968,14 +1959,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1985,14 +1976,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2001,14 +1992,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2018,14 +2009,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2034,14 +2025,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2058,7 +2049,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2080,18 +2071,18 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2100,99 +2091,66 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
-      <c r="A41" s="7">
-        <v>35</v>
-      </c>
-      <c r="B41" s="7"/>
-      <c t="s" r="C41" s="8">
-        <v>118</v>
-      </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c t="s" r="H41" s="9">
+      <c r="P41" s="13">
+        <v>1489.9300000000001</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
         <v>119</v>
       </c>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c t="s" r="L41" s="10">
-        <v>67</v>
-      </c>
-      <c r="M41" s="10"/>
-      <c t="s" r="N41" s="8">
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
         <v>120</v>
       </c>
-      <c r="O41" s="8"/>
-      <c t="s" r="P41" s="11">
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
         <v>121</v>
       </c>
-      <c t="s" r="Q41" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" ht="25.5" customHeight="1">
-      <c r="P42" s="13">
-        <v>1572.9300000000001</v>
-      </c>
-      <c r="Q42" s="13"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c t="s" r="A43" s="14">
-        <v>122</v>
-      </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c t="s" r="G43" s="15">
-        <v>123</v>
-      </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-      <c t="s" r="K43" s="17">
-        <v>124</v>
-      </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="187">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2371,15 +2329,10 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -368,7 +368,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 11:50 AM</t>
+    <t>Thursday, 14 August, 2025 11:51 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -212,6 +212,15 @@
     <t>47.5200</t>
   </si>
   <si>
+    <t>FERROTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>91.0800</t>
+  </si>
+  <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
@@ -368,7 +377,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 11:51 AM</t>
+    <t>Thursday, 14 August, 2025 11:53 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1504,7 +1513,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1514,14 +1523,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1530,14 +1539,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1603,7 +1612,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1613,11 +1622,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1629,14 +1638,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1646,11 +1655,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1669,7 +1678,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1686,7 +1695,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1702,7 +1711,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1712,14 +1721,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1728,14 +1737,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1752,7 +1761,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1774,7 +1783,7 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1782,7 +1791,7 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1794,31 +1803,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1827,14 +1836,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1844,11 +1853,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -1867,7 +1876,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1877,11 +1886,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -1893,14 +1902,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1910,11 +1919,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -1933,7 +1942,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1943,11 +1952,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -1959,14 +1968,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1976,14 +1985,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1992,14 +2001,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2009,14 +2018,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2025,14 +2034,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2049,7 +2058,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2071,18 +2080,18 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2091,14 +2100,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2108,49 +2117,82 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
         <v>118</v>
       </c>
-      <c t="s" r="Q40" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>1489.9300000000001</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
         <v>119</v>
       </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>64</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
         <v>120</v>
       </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
         <v>121</v>
       </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c t="s" r="Q41" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="P42" s="13">
+        <v>1581.01</v>
+      </c>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c t="s" r="A43" s="14">
+        <v>122</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c t="s" r="G43" s="15">
+        <v>123</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c t="s" r="K43" s="17">
+        <v>124</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="187">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2329,10 +2371,15 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="K43:Q43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -77,6 +77,24 @@
     <t>1:0</t>
   </si>
   <si>
+    <t xml:space="preserve">ANTODINE20    6 AMP</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>ARBATEG 2% SUSP. 100ML</t>
   </si>
   <si>
@@ -170,6 +188,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>COLONA 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
@@ -179,6 +206,18 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>DIOSED-C 20 TABS.</t>
   </si>
   <si>
@@ -188,6 +227,18 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>5:3</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>ELBAVIT WITH IRON SYRUP 60 ML</t>
   </si>
   <si>
@@ -203,9 +254,6 @@
     <t>0:2</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>72.00</t>
   </si>
   <si>
@@ -299,18 +347,21 @@
     <t>108.00</t>
   </si>
   <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
     <t>RHINEX 0.05% INFANTILE NASAL DROPS 10 ML</t>
   </si>
   <si>
     <t>RISPADEX 1MG/ML SYRUP 100ML</t>
   </si>
   <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -350,19 +401,61 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>XORIN 1GM VIAL</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
     <t>ZIAWET SYRUP 120ML</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>48.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>51:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>محلول جلوكوز 5%</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>81.0000</t>
   </si>
   <si>
     <t>محلول ملح</t>
@@ -377,7 +470,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 11:53 AM</t>
+    <t>Thursday, 14 August, 2025 12:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1090,18 +1183,18 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1110,14 +1203,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1127,11 +1220,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>21</v>
@@ -1143,14 +1236,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1160,11 +1253,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>21</v>
@@ -1176,14 +1269,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1193,11 +1286,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>21</v>
@@ -1209,14 +1302,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1226,14 +1319,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1242,14 +1335,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1259,11 +1352,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1275,14 +1368,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1292,11 +1385,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1308,14 +1401,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1325,11 +1418,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1341,14 +1434,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1358,14 +1451,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1374,14 +1467,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1391,14 +1484,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1407,14 +1500,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1424,11 +1517,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1440,14 +1533,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1457,14 +1550,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1473,31 +1566,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>63</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1506,14 +1599,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1523,14 +1616,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1539,14 +1632,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1556,14 +1649,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1572,14 +1665,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1589,11 +1682,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1605,31 +1698,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1638,14 +1731,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1655,14 +1748,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1671,14 +1764,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1688,11 +1781,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1704,14 +1797,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1721,14 +1814,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1737,14 +1830,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1754,11 +1847,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1770,14 +1863,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1787,14 +1880,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1803,31 +1896,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1836,14 +1929,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1853,14 +1946,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1869,14 +1962,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1886,11 +1979,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -1902,14 +1995,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1919,14 +2012,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1935,31 +2028,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1968,14 +2061,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1985,14 +2078,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2001,14 +2094,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2018,14 +2111,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>108</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2034,14 +2127,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2051,14 +2144,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2067,14 +2160,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2084,11 +2177,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2100,31 +2193,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2133,66 +2226,396 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
-      <c r="P42" s="13">
-        <v>1581.01</v>
-      </c>
-      <c r="Q42" s="13"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c t="s" r="A43" s="14">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
         <v>122</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c t="s" r="G43" s="15">
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
         <v>123</v>
       </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-      <c t="s" r="K43" s="17">
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>13</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
         <v>124</v>
       </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>126</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>127</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>13</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>128</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>130</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>18</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>13</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>74</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>132</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>29</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>13</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>74</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>134</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>135</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>24</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>136</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>137</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>138</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>29</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>24</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>128</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>139</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>140</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>29</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>24</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>141</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>143</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>29</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>24</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>144</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>146</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>104</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>24</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>147</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>149</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>150</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>24</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>151</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="P52" s="13">
+        <v>2013.6199999999999</v>
+      </c>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" ht="16.5" customHeight="1">
+      <c t="s" r="A53" s="14">
+        <v>153</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c t="s" r="G53" s="15">
+        <v>154</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
+      <c t="s" r="K53" s="17">
+        <v>155</v>
+      </c>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="187">
+  <mergeCells count="237">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2376,10 +2799,60 @@
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="K53:Q53"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -131,7 +131,175 @@
     <t>18.0000</t>
   </si>
   <si>
-    <t>BETADINE ANTISEPTIC SOLN. 10% 120 ML</t>
+    <t>BETADINE ANTISEPTIC SOLN. 10% 60 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>BETASERC 16MG 60 TAB</t>
+  </si>
+  <si>
+    <t>219.00</t>
+  </si>
+  <si>
+    <t>72.2700</t>
+  </si>
+  <si>
+    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>19.2000</t>
+  </si>
+  <si>
+    <t>CETAFEN PLUS 30 TAB.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>COLONA 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>DIOSED-C 20 TABS.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>5:3</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>ELBAVIT WITH IRON SYRUP 60 ML</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>FERROTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>91.0800</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>HERO BABY 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>256.00</t>
+  </si>
+  <si>
+    <t>256.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC N 457MG/5ML SUSP. 60ML</t>
   </si>
   <si>
     <t>80.00</t>
@@ -140,177 +308,9 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>BETASERC 16MG 60 TAB</t>
-  </si>
-  <si>
-    <t>219.00</t>
-  </si>
-  <si>
-    <t>72.2700</t>
-  </si>
-  <si>
-    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>19.2000</t>
-  </si>
-  <si>
-    <t>CETAFEN PLUS 30 TAB.</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
-    <t>CETAL 250MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>COLONA 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t>CONGESTAL 20 TABS</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>DIOSED-C 20 TABS.</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>5:3</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>ELBAVIT WITH IRON SYRUP 60 ML</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>FERROTRON 30 CAPS</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>91.0800</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>HERO BABY 2 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>256.00</t>
-  </si>
-  <si>
-    <t>256.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC N 457MG/5ML SUSP. 60ML</t>
-  </si>
-  <si>
     <t>HIDERM TOPICAL LOTION 100ML</t>
   </si>
   <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
     <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
   </si>
   <si>
@@ -470,7 +470,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 12:02 PM</t>
+    <t>Thursday, 14 August, 2025 12:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1309,7 +1309,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1880,11 +1880,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1913,11 +1913,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2585,7 +2585,7 @@
     </row>
     <row r="52" ht="25.5" customHeight="1">
       <c r="P52" s="13">
-        <v>2013.6199999999999</v>
+        <v>1988.6199999999999</v>
       </c>
       <c r="Q52" s="13"/>
     </row>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -365,6 +365,9 @@
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
+    <t>VAPOZOL SOL. FOR INH. 30 ML</t>
+  </si>
+  <si>
     <t>VIBRAMYCIN 100MG 10 CAPS.</t>
   </si>
   <si>
@@ -470,7 +473,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 12:03 PM</t>
+    <t>Thursday, 14 August, 2025 12:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2200,7 +2203,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2210,11 +2213,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2226,14 +2229,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2243,11 +2246,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2266,7 +2269,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2276,14 +2279,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2292,14 +2295,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2309,14 +2312,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2325,14 +2328,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2342,14 +2345,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2358,14 +2361,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2379,10 +2382,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2391,28 +2394,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2424,14 +2427,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>29</v>
+        <v>136</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2441,14 +2444,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2457,7 +2460,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2474,14 +2477,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2490,7 +2493,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2507,14 +2510,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2523,14 +2526,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2540,14 +2543,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2556,14 +2559,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2573,49 +2576,82 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>150</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>151</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>24</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
         <v>152</v>
       </c>
-      <c t="s" r="Q51" s="12">
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q52" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="52" ht="25.5" customHeight="1">
-      <c r="P52" s="13">
-        <v>1988.6199999999999</v>
-      </c>
-      <c r="Q52" s="13"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c t="s" r="A53" s="14">
-        <v>153</v>
-      </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c t="s" r="G53" s="15">
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>2019.6199999999999</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
         <v>154</v>
       </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="16"/>
-      <c t="s" r="K53" s="17">
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
         <v>155</v>
       </c>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>156</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="237">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2849,10 +2885,15 @@
     <mergeCell ref="H51:K51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -119,6 +119,15 @@
     <t>120.0000</t>
   </si>
   <si>
+    <t>BEPRA 20MG 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>154.50</t>
+  </si>
+  <si>
+    <t>50.9850</t>
+  </si>
+  <si>
     <t>BETADERM 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -188,6 +197,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>COLI-URINAL EFF. GR. 60 GM</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>COLONA 30 F.C.TAB</t>
   </si>
   <si>
@@ -242,12 +260,6 @@
     <t>ELBAVIT WITH IRON SYRUP 60 ML</t>
   </si>
   <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
     <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
   </si>
   <si>
@@ -260,6 +272,18 @@
     <t>47.5200</t>
   </si>
   <si>
+    <t>FEBURIC 80MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>139.50</t>
+  </si>
+  <si>
+    <t>46.0350</t>
+  </si>
+  <si>
     <t>FERROTRON 30 CAPS</t>
   </si>
   <si>
@@ -362,6 +386,21 @@
     <t>RISPADEX 1MG/ML SYRUP 100ML</t>
   </si>
   <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>TEKLO 30 TABS.</t>
+  </si>
+  <si>
+    <t>53.4600</t>
+  </si>
+  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -383,9 +422,6 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>3:1</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
@@ -428,6 +464,18 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>حلمة ببرونه</t>
+  </si>
+  <si>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -473,7 +521,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 12:05 PM</t>
+    <t>Thursday, 14 August, 2025 12:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1279,7 +1327,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1289,14 +1337,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1305,14 +1353,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1345,7 +1393,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1362,7 +1410,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1378,7 +1426,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1388,11 +1436,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1404,14 +1452,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1421,11 +1469,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1437,14 +1485,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1454,7 +1502,7 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
@@ -1477,7 +1525,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1487,14 +1535,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1503,14 +1551,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1527,7 +1575,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1543,7 +1591,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1560,7 +1608,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1576,7 +1624,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1586,14 +1634,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1602,7 +1650,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1619,11 +1667,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1635,14 +1683,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1652,14 +1700,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1668,14 +1716,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1685,14 +1733,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1701,31 +1749,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1734,14 +1782,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1751,14 +1799,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1767,31 +1815,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1800,14 +1848,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1817,14 +1865,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1833,14 +1881,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1850,14 +1898,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1866,14 +1914,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1883,11 +1931,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1899,7 +1947,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1916,11 +1964,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1932,14 +1980,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1949,14 +1997,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1965,14 +2013,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2005,7 +2053,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2015,14 +2063,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2031,28 +2079,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2064,14 +2112,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2088,7 +2136,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2104,7 +2152,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2114,14 +2162,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2130,31 +2178,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2163,14 +2211,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2180,14 +2228,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2196,14 +2244,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2213,11 +2261,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2229,14 +2277,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2246,11 +2294,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2262,14 +2310,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2279,14 +2327,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2295,14 +2343,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2312,14 +2360,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2328,14 +2376,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2345,14 +2393,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2368,7 +2416,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2378,14 +2426,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2394,14 +2442,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2411,7 +2459,7 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -2434,21 +2482,21 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2460,31 +2508,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2493,31 +2541,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2526,31 +2574,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2559,31 +2607,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2592,14 +2640,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2609,49 +2657,247 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>2019.6199999999999</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>151</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>152</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>24</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>153</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
         <v>154</v>
       </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
+      <c t="s" r="Q53" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
         <v>155</v>
       </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>29</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>24</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>141</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
         <v>156</v>
       </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c t="s" r="Q54" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>157</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>29</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>24</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>158</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>159</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>160</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>29</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>24</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>161</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>162</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>163</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>112</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>24</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>164</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>165</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>166</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>167</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>24</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>168</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>169</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="P59" s="13">
+        <v>2245.8400000000001</v>
+      </c>
+      <c r="Q59" s="13"/>
+    </row>
+    <row r="60" ht="16.5" customHeight="1">
+      <c t="s" r="A60" s="14">
+        <v>170</v>
+      </c>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c t="s" r="G60" s="15">
+        <v>171</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="16"/>
+      <c t="s" r="K60" s="17">
+        <v>172</v>
+      </c>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="272">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2890,10 +3136,40 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="K60:Q60"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -260,12 +260,21 @@
     <t>ELBAVIT WITH IRON SYRUP 60 ML</t>
   </si>
   <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>23.0400</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>72.00</t>
   </si>
   <si>
@@ -314,6 +323,15 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>GLIMEPIRIDE PLUS 4/30 MG 30 SCORED TAB.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>123.0000</t>
+  </si>
+  <si>
     <t>HERO BABY 2 MILK 400 GM</t>
   </si>
   <si>
@@ -395,6 +413,15 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>136.5000</t>
+  </si>
+  <si>
     <t>TEKLO 30 TABS.</t>
   </si>
   <si>
@@ -521,7 +548,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 12:14 PM</t>
+    <t>Thursday, 14 August, 2025 12:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1822,24 +1849,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>86</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>84</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1855,24 +1882,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1881,14 +1908,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1905,7 +1932,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1921,7 +1948,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1931,14 +1958,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1947,14 +1974,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2020,7 +2047,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2063,11 +2090,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2079,7 +2106,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2096,14 +2123,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2112,14 +2139,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2129,11 +2156,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2145,14 +2172,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2162,11 +2189,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2178,20 +2205,20 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2199,10 +2226,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2211,14 +2238,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2228,11 +2255,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2244,31 +2271,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2277,14 +2304,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2294,14 +2321,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>73</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2310,14 +2337,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2327,14 +2354,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2343,7 +2370,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2360,14 +2387,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>84</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2376,14 +2403,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2393,14 +2420,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2409,14 +2436,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2426,11 +2453,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2442,14 +2469,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2459,14 +2486,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>133</v>
+        <v>56</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2475,14 +2502,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2492,11 +2519,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2508,14 +2535,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>126</v>
+        <v>29</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2525,14 +2552,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>137</v>
+        <v>60</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>138</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2541,14 +2568,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2558,14 +2585,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2574,14 +2601,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2591,14 +2618,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2614,7 +2641,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>29</v>
+        <v>132</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2624,14 +2651,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2640,31 +2667,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2673,31 +2700,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>153</v>
+        <v>80</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2706,7 +2733,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2719,18 +2746,18 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2739,14 +2766,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>29</v>
+        <v>157</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2763,7 +2790,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2779,7 +2806,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2789,11 +2816,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -2805,14 +2832,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2822,14 +2849,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>165</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2845,7 +2872,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>167</v>
+        <v>29</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2855,49 +2882,148 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
+        <v>168</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
         <v>169</v>
       </c>
-      <c t="s" r="Q58" s="12">
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>29</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>24</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>170</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>171</v>
+      </c>
+      <c t="s" r="Q59" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="59" ht="25.5" customHeight="1">
-      <c r="P59" s="13">
-        <v>2245.8400000000001</v>
-      </c>
-      <c r="Q59" s="13"/>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
-      <c t="s" r="A60" s="14">
-        <v>170</v>
-      </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c t="s" r="G60" s="15">
-        <v>171</v>
-      </c>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="16"/>
-      <c t="s" r="K60" s="17">
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
         <v>172</v>
       </c>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>118</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>24</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>173</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>175</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>176</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>24</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>177</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="P62" s="13">
+        <v>2528.3800000000001</v>
+      </c>
+      <c r="Q62" s="13"/>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c t="s" r="A63" s="14">
+        <v>179</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c t="s" r="G63" s="15">
+        <v>180</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c t="s" r="K63" s="17">
+        <v>181</v>
+      </c>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="272">
+  <mergeCells count="287">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3166,10 +3292,25 @@
     <mergeCell ref="H58:K58"/>
     <mergeCell ref="L58:M58"/>
     <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="K60:Q60"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="K63:Q63"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -185,12 +185,21 @@
     <t>26.7300</t>
   </si>
   <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>31.00</t>
   </si>
   <si>
@@ -380,9 +389,6 @@
     <t>92.00</t>
   </si>
   <si>
-    <t>23.0000</t>
-  </si>
-  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -548,7 +554,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 12:16 PM</t>
+    <t>Thursday, 14 August, 2025 12:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1618,7 +1624,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1651,7 +1657,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1668,7 +1674,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1684,7 +1690,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1717,7 +1723,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1727,14 +1733,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1743,14 +1749,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1767,7 +1773,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1783,7 +1789,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1793,11 +1799,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1809,14 +1815,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1826,14 +1832,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1842,14 +1848,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1859,14 +1865,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>86</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1875,31 +1881,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>89</v>
-      </c>
-      <c t="s" r="Q28" s="12">
-        <v>86</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1915,24 +1921,24 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1941,14 +1947,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1965,7 +1971,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1981,7 +1987,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1991,14 +1997,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2007,14 +2013,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2113,7 +2119,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2146,7 +2152,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2156,11 +2162,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2172,14 +2178,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2189,14 +2195,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2212,7 +2218,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2222,14 +2228,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2238,14 +2244,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2262,7 +2268,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2284,7 +2290,7 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2292,7 +2298,7 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2311,13 +2317,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2325,7 +2331,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2337,14 +2343,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2354,14 +2360,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2370,14 +2376,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2387,11 +2393,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2403,14 +2409,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2420,14 +2426,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2436,14 +2442,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2453,14 +2459,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2469,14 +2475,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2486,14 +2492,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>86</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2509,7 +2515,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2519,14 +2525,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>61</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2535,14 +2541,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2552,11 +2558,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2568,14 +2574,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2585,11 +2591,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2601,14 +2607,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2618,11 +2624,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2634,14 +2640,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2651,14 +2657,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2667,14 +2673,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2684,14 +2690,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2700,14 +2706,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2717,14 +2723,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>153</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2740,7 +2746,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2750,14 +2756,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>155</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2773,21 +2779,21 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -2799,14 +2805,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2816,11 +2822,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -2832,14 +2838,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2849,14 +2855,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>165</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2882,14 +2888,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2898,7 +2904,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2915,14 +2921,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2931,14 +2937,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2948,14 +2954,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2964,14 +2970,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>176</v>
+        <v>121</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -2981,49 +2987,82 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
+        <v>176</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>177</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
         <v>178</v>
       </c>
-      <c t="s" r="Q61" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="62" ht="25.5" customHeight="1">
-      <c r="P62" s="13">
-        <v>2528.3800000000001</v>
-      </c>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="14">
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>24</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
         <v>179</v>
       </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c t="s" r="G63" s="15">
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
         <v>180</v>
       </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
-      <c t="s" r="K63" s="17">
+      <c t="s" r="Q62" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="P63" s="13">
+        <v>2551.3800000000001</v>
+      </c>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c t="s" r="A64" s="14">
         <v>181</v>
       </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c t="s" r="G64" s="15">
+        <v>182</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c t="s" r="K64" s="17">
+        <v>183</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="292">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3307,10 +3346,15 @@
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -554,7 +554,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 12:26 PM</t>
+    <t>Thursday, 14 August, 2025 12:28 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -554,7 +554,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 12:28 PM</t>
+    <t>Thursday, 14 August, 2025 12:29 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -485,6 +485,18 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>31:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -527,12 +539,6 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>محلول جلوكوز 5%</t>
   </si>
   <si>
@@ -554,7 +560,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 12:29 PM</t>
+    <t>Thursday, 14 August, 2025 12:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2878,7 +2884,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>29</v>
+        <v>167</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2888,14 +2894,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2904,7 +2910,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2921,14 +2927,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2937,7 +2943,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -2954,14 +2960,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2970,14 +2976,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -2987,14 +2993,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3003,14 +3009,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>178</v>
+        <v>121</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3020,49 +3026,82 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>179</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
         <v>180</v>
       </c>
-      <c t="s" r="Q62" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="63" ht="24.75" customHeight="1">
-      <c r="P63" s="13">
-        <v>2551.3800000000001</v>
-      </c>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c t="s" r="A64" s="14">
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>24</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
         <v>181</v>
       </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c t="s" r="G64" s="15">
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
         <v>182</v>
       </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c t="s" r="K64" s="17">
+      <c t="s" r="Q63" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="P64" s="13">
+        <v>2566.3800000000001</v>
+      </c>
+      <c r="Q64" s="13"/>
+    </row>
+    <row r="65" ht="16.5" customHeight="1">
+      <c t="s" r="A65" s="14">
         <v>183</v>
       </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c t="s" r="G65" s="15">
+        <v>184</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
+      <c t="s" r="K65" s="17">
+        <v>185</v>
+      </c>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
+  <mergeCells count="297">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3351,10 +3390,15 @@
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="K65:Q65"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -371,6 +371,15 @@
     <t>72.5000</t>
   </si>
   <si>
+    <t>MELOCAM 15MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>34.50</t>
+  </si>
+  <si>
+    <t>11.3850</t>
+  </si>
+  <si>
     <t>OTAL EAR DROPS 5 ML</t>
   </si>
   <si>
@@ -560,7 +569,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 12:33 PM</t>
+    <t>Thursday, 14 August, 2025 12:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2257,7 +2266,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2267,14 +2276,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2283,14 +2292,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2304,10 +2313,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2316,7 +2325,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2329,15 +2338,15 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2349,28 +2358,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2389,7 +2398,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2399,14 +2408,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2415,14 +2424,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2432,11 +2441,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2448,14 +2457,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2465,14 +2474,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2488,7 +2497,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2498,14 +2507,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>25</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2521,7 +2530,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2531,14 +2540,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>89</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2547,14 +2556,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2564,14 +2573,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2580,14 +2589,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2613,14 +2622,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2630,11 +2639,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>144</v>
+        <v>63</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>145</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2653,7 +2662,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2663,11 +2672,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2679,14 +2688,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2696,14 +2705,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2719,7 +2728,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2729,14 +2738,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2745,14 +2754,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2762,14 +2771,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2778,14 +2787,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2799,10 +2808,10 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2811,28 +2820,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>159</v>
+        <v>29</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>160</v>
+        <v>83</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -2844,14 +2853,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2861,11 +2870,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -2877,14 +2886,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2894,11 +2903,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -2910,14 +2919,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>29</v>
+        <v>170</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2927,14 +2936,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2943,7 +2952,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -2960,14 +2969,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2993,14 +3002,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3009,14 +3018,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3026,14 +3035,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3049,7 +3058,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3059,49 +3068,82 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
         <v>182</v>
       </c>
-      <c t="s" r="Q63" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="64" ht="25.5" customHeight="1">
-      <c r="P64" s="13">
-        <v>2566.3800000000001</v>
-      </c>
-      <c r="Q64" s="13"/>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c t="s" r="A65" s="14">
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
         <v>183</v>
       </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c t="s" r="G65" s="15">
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>24</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
         <v>184</v>
       </c>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="16"/>
-      <c t="s" r="K65" s="17">
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
         <v>185</v>
       </c>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
+      <c t="s" r="Q64" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="P65" s="13">
+        <v>2577.7649999999999</v>
+      </c>
+      <c r="Q65" s="13"/>
+    </row>
+    <row r="66" ht="16.5" customHeight="1">
+      <c t="s" r="A66" s="14">
+        <v>186</v>
+      </c>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c t="s" r="G66" s="15">
+        <v>187</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="16"/>
+      <c t="s" r="K66" s="17">
+        <v>188</v>
+      </c>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="297">
+  <mergeCells count="302">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3395,10 +3437,15 @@
     <mergeCell ref="H63:K63"/>
     <mergeCell ref="L63:M63"/>
     <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="K66:Q66"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -359,6 +359,15 @@
     <t>80.0000</t>
   </si>
   <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
     <t>HIDERM TOPICAL LOTION 100ML</t>
   </si>
   <si>
@@ -395,9 +404,6 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>92.00</t>
-  </si>
-  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -473,78 +479,84 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8403:0</t>
+    <t>8401:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>XORIN 1GM VIAL</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>ZIAWET SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>31:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>51:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>حلمة ببرونه</t>
+  </si>
+  <si>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
     <t>4.0000</t>
   </si>
   <si>
-    <t>XORIN 1GM VIAL</t>
-  </si>
-  <si>
-    <t>144.0000</t>
-  </si>
-  <si>
-    <t>ZIAWET SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>31:0</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>51:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>حلمة ببرونه</t>
-  </si>
-  <si>
-    <t>21:0</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>9.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -569,7 +581,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 12:35 PM</t>
+    <t>Thursday, 14 August, 2025 12:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2200,7 +2212,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2210,11 +2222,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2226,14 +2238,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2243,14 +2255,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2266,7 +2278,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2299,7 +2311,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2309,14 +2321,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2325,14 +2337,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2346,10 +2358,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2358,7 +2370,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2371,15 +2383,15 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2398,13 +2410,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2412,7 +2424,7 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2424,14 +2436,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2441,14 +2453,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2457,14 +2469,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2474,11 +2486,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2490,14 +2502,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2507,14 +2519,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2523,14 +2535,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2540,14 +2552,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2556,14 +2568,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2573,14 +2585,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>56</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>89</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2596,7 +2608,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2606,14 +2618,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>64</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2622,14 +2634,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2655,14 +2667,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2672,11 +2684,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>147</v>
+        <v>63</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>148</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2688,14 +2700,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2705,11 +2717,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2721,14 +2733,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2738,14 +2750,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2754,14 +2766,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2771,14 +2783,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2787,14 +2799,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2804,14 +2816,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>83</v>
+        <v>157</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>158</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2827,7 +2839,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2844,7 +2856,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2860,21 +2872,21 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>162</v>
+        <v>29</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>163</v>
+        <v>83</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -2886,14 +2898,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2903,11 +2915,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -2919,14 +2931,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2936,11 +2948,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -2952,14 +2964,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2969,14 +2981,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3002,14 +3014,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3018,7 +3030,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3035,14 +3047,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3058,7 +3070,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3075,7 +3087,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3091,7 +3103,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3101,49 +3113,115 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>183</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>127</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>24</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>184</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
         <v>185</v>
       </c>
-      <c t="s" r="Q64" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="65" ht="24.75" customHeight="1">
-      <c r="P65" s="13">
-        <v>2577.7649999999999</v>
-      </c>
-      <c r="Q65" s="13"/>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c t="s" r="A66" s="14">
+      <c t="s" r="Q65" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
         <v>186</v>
       </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c t="s" r="G66" s="15">
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
         <v>187</v>
       </c>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="16"/>
-      <c t="s" r="K66" s="17">
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>24</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
         <v>188</v>
       </c>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>189</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="P67" s="13">
+        <v>2677.7649999999999</v>
+      </c>
+      <c r="Q67" s="13"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c t="s" r="A68" s="14">
+        <v>190</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c t="s" r="G68" s="15">
+        <v>191</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c t="s" r="K68" s="17">
+        <v>192</v>
+      </c>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="302">
+  <mergeCells count="312">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3442,10 +3520,20 @@
     <mergeCell ref="H64:K64"/>
     <mergeCell ref="L64:M64"/>
     <mergeCell ref="N64:O64"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="K68:Q68"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -548,6 +548,18 @@
     <t>9.0000</t>
   </si>
   <si>
+    <t>سرنجات انسولين</t>
+  </si>
+  <si>
+    <t>23:0</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
     <t>سرنجه دواء</t>
   </si>
   <si>
@@ -557,6 +569,12 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>صابون ديتول العنايه بالبشره</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -581,7 +599,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 12:39 PM</t>
+    <t>Thursday, 14 August, 2025 1:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3070,7 +3088,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>29</v>
+        <v>180</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3080,11 +3098,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3096,7 +3114,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3113,11 +3131,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3129,14 +3147,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3146,14 +3164,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3162,14 +3180,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>187</v>
+        <v>29</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3179,49 +3197,115 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
         <v>189</v>
       </c>
-      <c t="s" r="Q66" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="67" ht="25.5" customHeight="1">
-      <c r="P67" s="13">
-        <v>2677.7649999999999</v>
-      </c>
-      <c r="Q67" s="13"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c t="s" r="A68" s="14">
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>127</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>24</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
         <v>190</v>
       </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c t="s" r="G68" s="15">
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
         <v>191</v>
       </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="16"/>
-      <c t="s" r="K68" s="17">
+      <c t="s" r="Q67" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
         <v>192</v>
       </c>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>193</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>24</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>194</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="P69" s="13">
+        <v>2754.7649999999999</v>
+      </c>
+      <c r="Q69" s="13"/>
+    </row>
+    <row r="70" ht="16.5" customHeight="1">
+      <c t="s" r="A70" s="14">
+        <v>196</v>
+      </c>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c t="s" r="G70" s="15">
+        <v>197</v>
+      </c>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
+      <c t="s" r="K70" s="17">
+        <v>198</v>
+      </c>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="312">
+  <mergeCells count="322">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3530,10 +3614,20 @@
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="K70:Q70"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -599,7 +599,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 1:28 PM</t>
+    <t>Thursday, 14 August, 2025 1:38 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -512,6 +512,18 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>بودره نلج اكياس</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -599,7 +611,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 1:38 PM</t>
+    <t>Thursday, 14 August, 2025 2:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3022,7 +3034,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3032,14 +3044,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3048,7 +3060,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3065,14 +3077,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3081,14 +3093,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>180</v>
+        <v>29</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3105,7 +3117,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3121,7 +3133,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>29</v>
+        <v>184</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3131,11 +3143,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3147,14 +3159,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3164,14 +3176,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>30</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3180,14 +3192,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3197,14 +3209,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>165</v>
+        <v>30</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3213,14 +3225,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3230,14 +3242,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3246,14 +3258,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>193</v>
+        <v>127</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3270,42 +3282,75 @@
         <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
-      <c r="P69" s="13">
-        <v>2754.7649999999999</v>
-      </c>
-      <c r="Q69" s="13"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c t="s" r="A70" s="14">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
         <v>196</v>
       </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c t="s" r="G70" s="15">
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
         <v>197</v>
       </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="16"/>
-      <c t="s" r="K70" s="17">
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>24</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
         <v>198</v>
       </c>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>199</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="P70" s="13">
+        <v>2759.7649999999999</v>
+      </c>
+      <c r="Q70" s="13"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c t="s" r="A71" s="14">
+        <v>200</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c t="s" r="G71" s="15">
+        <v>201</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c t="s" r="K71" s="17">
+        <v>202</v>
+      </c>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="322">
+  <mergeCells count="327">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3624,10 +3669,15 @@
     <mergeCell ref="H68:K68"/>
     <mergeCell ref="L68:M68"/>
     <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="K71:Q71"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -269,6 +269,15 @@
     <t>ELBAVIT WITH IRON SYRUP 60 ML</t>
   </si>
   <si>
+    <t>EMPIR G CAPS</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>109.0000</t>
+  </si>
+  <si>
     <t>EREC 100MG 12 F.C. TABLETS</t>
   </si>
   <si>
@@ -419,6 +428,15 @@
     <t>51.0000</t>
   </si>
   <si>
+    <t>REPARIL-GEL N 40 GM</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
     <t>RHINEX 0.05% INFANTILE NASAL DROPS 10 ML</t>
   </si>
   <si>
@@ -455,6 +473,12 @@
     <t>VAPOZOL SOL. FOR INH. 30 ML</t>
   </si>
   <si>
+    <t>VECOVARTEC PLUS 40/12.5MG 21 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>VIBRAMYCIN 100MG 10 CAPS.</t>
   </si>
   <si>
@@ -611,7 +635,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 2:29 PM</t>
+    <t>Thursday, 14 August, 2025 2:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1945,13 +1969,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1962,7 +1986,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>89</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1971,31 +1995,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>92</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>89</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2011,24 +2035,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2037,14 +2061,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2061,7 +2085,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2077,7 +2101,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2087,14 +2111,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2103,14 +2127,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2209,7 +2233,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2275,7 +2299,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2285,11 +2309,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2301,14 +2325,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2318,14 +2342,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2341,7 +2365,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2374,7 +2398,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2384,14 +2408,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2400,14 +2424,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2417,14 +2441,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2433,7 +2457,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2446,15 +2470,15 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2466,28 +2490,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2506,7 +2530,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2516,14 +2540,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2532,14 +2556,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2549,11 +2573,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2565,14 +2589,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2582,14 +2606,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2598,14 +2622,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2615,11 +2639,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2638,7 +2662,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2648,14 +2672,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2664,14 +2688,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2681,11 +2705,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>64</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2697,7 +2721,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2714,14 +2738,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>64</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2730,14 +2754,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2747,11 +2771,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>149</v>
+        <v>63</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2763,14 +2787,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2780,11 +2804,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2796,14 +2820,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2813,14 +2837,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2829,14 +2853,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2853,7 +2877,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2869,7 +2893,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2879,14 +2903,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2895,14 +2919,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>29</v>
+        <v>145</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2912,14 +2936,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>83</v>
+        <v>161</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2941,7 +2965,7 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -2952,7 +2976,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2968,24 +2992,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>168</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>169</v>
+        <v>83</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2994,28 +3018,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>172</v>
+        <v>29</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>173</v>
+        <v>83</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3027,14 +3051,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3044,11 +3068,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3060,14 +3084,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3077,14 +3101,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3093,14 +3117,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>29</v>
+        <v>180</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3117,7 +3141,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3176,14 +3200,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3192,14 +3216,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3209,14 +3233,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>30</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3225,14 +3249,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>29</v>
+        <v>192</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3242,11 +3266,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3258,14 +3282,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>127</v>
+        <v>29</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3275,14 +3299,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3291,14 +3315,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>197</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3308,49 +3332,148 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>198</v>
+        <v>30</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
-      <c r="P70" s="13">
-        <v>2759.7649999999999</v>
-      </c>
-      <c r="Q70" s="13"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c t="s" r="A71" s="14">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
         <v>200</v>
       </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c t="s" r="G71" s="15">
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>29</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>24</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>173</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
         <v>201</v>
       </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
-      <c t="s" r="K71" s="17">
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>130</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>24</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
         <v>202</v>
       </c>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>203</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>204</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>205</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>24</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>206</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>207</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="P73" s="13">
+        <v>3002.7649999999999</v>
+      </c>
+      <c r="Q73" s="13"/>
+    </row>
+    <row r="74" ht="16.5" customHeight="1">
+      <c t="s" r="A74" s="14">
+        <v>208</v>
+      </c>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c t="s" r="G74" s="15">
+        <v>209</v>
+      </c>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16"/>
+      <c t="s" r="K74" s="17">
+        <v>210</v>
+      </c>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="327">
+  <mergeCells count="342">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3674,10 +3797,25 @@
     <mergeCell ref="H69:K69"/>
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="K74:Q74"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -398,6 +398,9 @@
     <t>11.3850</t>
   </si>
   <si>
+    <t>MOOV MASSAGE CREAM 40 GM</t>
+  </si>
+  <si>
     <t>OTAL EAR DROPS 5 ML</t>
   </si>
   <si>
@@ -428,15 +431,6 @@
     <t>51.0000</t>
   </si>
   <si>
-    <t>REPARIL-GEL N 40 GM</t>
-  </si>
-  <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>58.0000</t>
-  </si>
-  <si>
     <t>RHINEX 0.05% INFANTILE NASAL DROPS 10 ML</t>
   </si>
   <si>
@@ -635,7 +629,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 2:31 PM</t>
+    <t>Thursday, 14 August, 2025 2:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2431,7 +2425,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2441,11 +2435,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2457,14 +2451,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2474,14 +2468,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2503,15 +2497,15 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2523,28 +2517,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2556,14 +2550,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2573,14 +2567,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2589,7 +2583,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2622,7 +2616,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2655,14 +2649,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2676,7 +2670,7 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2688,7 +2682,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2705,11 +2699,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2721,7 +2715,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2742,7 +2736,7 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>92</v>
@@ -2754,7 +2748,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2787,7 +2781,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2820,7 +2814,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2841,7 +2835,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -2853,7 +2847,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2870,11 +2864,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -2886,14 +2880,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2919,14 +2913,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2936,11 +2930,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2952,14 +2946,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2969,11 +2963,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>40</v>
@@ -2985,7 +2979,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3006,7 +3000,7 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>18</v>
@@ -3018,7 +3012,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3039,7 +3033,7 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3051,14 +3045,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3068,11 +3062,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3084,14 +3078,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3101,11 +3095,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3117,14 +3111,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3134,11 +3128,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3150,14 +3144,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3167,11 +3161,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3183,7 +3177,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3200,11 +3194,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>40</v>
@@ -3216,7 +3210,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3233,11 +3227,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>18</v>
@@ -3249,14 +3243,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3266,11 +3260,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3282,7 +3276,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3299,11 +3293,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3315,7 +3309,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3336,7 +3330,7 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3348,7 +3342,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3365,11 +3359,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3381,14 +3375,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3398,11 +3392,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>18</v>
@@ -3414,14 +3408,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3431,11 +3425,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3443,13 +3437,13 @@
     </row>
     <row r="73" ht="24.75" customHeight="1">
       <c r="P73" s="13">
-        <v>3002.7649999999999</v>
+        <v>2967.7649999999999</v>
       </c>
       <c r="Q73" s="13"/>
     </row>
     <row r="74" ht="16.5" customHeight="1">
       <c t="s" r="A74" s="14">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
@@ -3457,13 +3451,13 @@
       <c r="E74" s="14"/>
       <c r="F74" s="14"/>
       <c t="s" r="G74" s="15">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H74" s="15"/>
       <c r="I74" s="15"/>
       <c r="J74" s="16"/>
       <c t="s" r="K74" s="17">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L74" s="17"/>
       <c r="M74" s="17"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -170,6 +170,18 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>CALAMYL LOTION 100 ML</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -332,6 +344,15 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>FLAVICEF 100MG/5ML PD. FOR ORAL SUSP. 30ML</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% OINT. 15 GM</t>
   </si>
   <si>
@@ -398,6 +419,9 @@
     <t>11.3850</t>
   </si>
   <si>
+    <t>MOMENTA CREAM 30 GM</t>
+  </si>
+  <si>
     <t>MOOV MASSAGE CREAM 40 GM</t>
   </si>
   <si>
@@ -497,78 +521,84 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8401:0</t>
+    <t>8399:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>XORIN 1GM VIAL</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>ZIAWET SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>31:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>بودره نلج اكياس</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>51:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>حلمة ببرونه</t>
+  </si>
+  <si>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
     <t>8.0000</t>
   </si>
   <si>
-    <t>XORIN 1GM VIAL</t>
-  </si>
-  <si>
-    <t>144.0000</t>
-  </si>
-  <si>
-    <t>ZIAWET SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>31:0</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>بودره نلج اكياس</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>5.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>51:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>حلمة ببرونه</t>
-  </si>
-  <si>
-    <t>21:0</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -629,7 +659,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 2:38 PM</t>
+    <t>Thursday, 14 August, 2025 3:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1600,7 +1630,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1610,14 +1640,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1626,14 +1656,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1643,11 +1673,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1659,14 +1689,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1683,7 +1713,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1699,7 +1729,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1709,11 +1739,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1725,14 +1755,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1742,11 +1772,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1758,14 +1788,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1775,14 +1805,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1791,14 +1821,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1808,11 +1838,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1824,14 +1854,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1848,7 +1878,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1864,7 +1894,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1874,14 +1904,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1890,14 +1920,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1930,7 +1960,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1940,14 +1970,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1956,28 +1986,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1989,31 +2019,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>92</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2029,13 +2059,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2046,7 +2076,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2055,20 +2085,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2079,7 +2109,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2095,7 +2125,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2105,14 +2135,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>92</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2121,14 +2151,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2145,7 +2175,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2161,7 +2191,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2171,11 +2201,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2187,14 +2217,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2204,11 +2234,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2220,7 +2250,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2237,11 +2267,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2253,14 +2283,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2270,11 +2300,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2286,14 +2316,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2303,11 +2333,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2319,14 +2349,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2336,11 +2366,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2352,7 +2382,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2369,14 +2399,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2385,14 +2415,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2402,14 +2432,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2418,7 +2448,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2435,14 +2465,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>61</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2451,14 +2481,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2468,14 +2498,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2484,14 +2514,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2501,14 +2531,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2517,31 +2547,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2550,14 +2580,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2567,14 +2597,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2583,14 +2613,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2600,14 +2630,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2616,31 +2646,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2649,14 +2679,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>143</v>
+        <v>50</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2666,11 +2696,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>25</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2682,14 +2712,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2699,11 +2729,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>41</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2715,7 +2745,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2732,14 +2762,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>92</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2755,7 +2785,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2765,14 +2795,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2781,14 +2811,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2798,11 +2828,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>63</v>
+        <v>154</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>64</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2814,7 +2844,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2831,14 +2861,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2847,14 +2877,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2864,11 +2894,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>155</v>
+        <v>67</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>156</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -2880,14 +2910,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2897,11 +2927,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -2913,14 +2943,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>143</v>
+        <v>29</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2930,14 +2960,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>159</v>
+        <v>83</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2946,14 +2976,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2970,7 +3000,7 @@
         <v>164</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2986,7 +3016,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2996,14 +3026,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3012,14 +3042,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>29</v>
+        <v>151</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3029,14 +3059,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>83</v>
+        <v>167</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3058,7 +3088,7 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3069,7 +3099,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3078,31 +3108,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3111,28 +3141,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>178</v>
+        <v>29</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>179</v>
+        <v>87</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3144,14 +3174,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3161,11 +3191,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3177,14 +3207,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3194,14 +3224,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3217,7 +3247,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>29</v>
+        <v>187</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3227,14 +3257,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3243,14 +3273,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3260,11 +3290,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3276,7 +3306,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3293,14 +3323,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3316,7 +3346,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3326,14 +3356,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>30</v>
+        <v>197</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3342,14 +3372,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>29</v>
+        <v>200</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3359,11 +3389,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>172</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3375,14 +3405,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3392,14 +3422,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3408,14 +3438,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>203</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3425,49 +3455,148 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>204</v>
+        <v>30</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
-      <c r="P73" s="13">
-        <v>2967.7649999999999</v>
-      </c>
-      <c r="Q73" s="13"/>
-    </row>
-    <row r="74" ht="16.5" customHeight="1">
-      <c t="s" r="A74" s="14">
-        <v>206</v>
-      </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c t="s" r="G74" s="15">
-        <v>207</v>
-      </c>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="16"/>
-      <c t="s" r="K74" s="17">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
         <v>208</v>
       </c>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="17"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>29</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>24</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>180</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>209</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>139</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>24</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>210</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>211</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>212</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>213</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>24</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>214</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="P76" s="13">
+        <v>3118.7649999999999</v>
+      </c>
+      <c r="Q76" s="13"/>
+    </row>
+    <row r="77" ht="16.5" customHeight="1">
+      <c t="s" r="A77" s="14">
+        <v>216</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c t="s" r="G77" s="15">
+        <v>217</v>
+      </c>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+      <c t="s" r="K77" s="17">
+        <v>218</v>
+      </c>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="342">
+  <mergeCells count="357">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3806,10 +3935,25 @@
     <mergeCell ref="H72:K72"/>
     <mergeCell ref="L72:M72"/>
     <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="K74:Q74"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="K77:Q77"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -659,7 +659,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 3:06 PM</t>
+    <t>Thursday, 14 August, 2025 3:47 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -266,6 +266,15 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>DOGMATIL 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -353,15 +362,18 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% OINT. 15 GM</t>
   </si>
   <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
     <t>GLIMEPIRIDE PLUS 4/30 MG 30 SCORED TAB.</t>
   </si>
   <si>
@@ -401,6 +413,15 @@
     <t>HIDERM TOPICAL LOTION 100ML</t>
   </si>
   <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
     <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
   </si>
   <si>
@@ -425,6 +446,15 @@
     <t>MOOV MASSAGE CREAM 40 GM</t>
   </si>
   <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>OTAL EAR DROPS 5 ML</t>
   </si>
   <si>
@@ -575,12 +605,6 @@
     <t>51:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>حلمة ببرونه</t>
   </si>
   <si>
@@ -596,9 +620,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>8.0000</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -659,7 +680,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 3:47 PM</t>
+    <t>Thursday, 14 August, 2025 4:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1960,7 +1981,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1970,11 +1991,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1986,14 +2007,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2003,14 +2024,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2019,28 +2040,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -2059,13 +2080,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2076,7 +2097,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>96</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2085,31 +2106,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>99</v>
-      </c>
-      <c t="s" r="Q31" s="12">
-        <v>96</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2125,24 +2146,24 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2151,14 +2172,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2175,7 +2196,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2191,7 +2212,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2201,14 +2222,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2217,14 +2238,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2257,7 +2278,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2290,7 +2311,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2333,11 +2354,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2349,14 +2370,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2366,11 +2387,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2382,14 +2403,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2399,11 +2420,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2415,14 +2436,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2432,11 +2453,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2472,7 +2493,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2488,7 +2509,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2498,14 +2519,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2514,14 +2535,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2531,11 +2552,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2547,14 +2568,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2564,14 +2585,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2580,14 +2601,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2597,14 +2618,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2613,14 +2634,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2630,11 +2651,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>65</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2653,24 +2674,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2679,14 +2700,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2696,14 +2717,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2712,14 +2733,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2729,11 +2750,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2745,14 +2766,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>29</v>
+        <v>149</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2762,11 +2783,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2778,14 +2799,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2795,11 +2816,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2818,13 +2839,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -2832,10 +2853,10 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>155</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2844,14 +2865,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2861,14 +2882,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>60</v>
+        <v>156</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2884,7 +2905,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2894,11 +2915,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -2927,11 +2948,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -2950,7 +2971,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2960,14 +2981,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2976,7 +2997,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2993,11 +3014,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3009,14 +3030,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3026,14 +3047,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3042,14 +3063,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3059,14 +3080,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>168</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3082,7 +3103,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>170</v>
+        <v>29</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3092,14 +3113,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>171</v>
+        <v>67</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>172</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>173</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3108,14 +3129,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3125,14 +3146,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3141,14 +3162,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3158,11 +3179,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>87</v>
+        <v>173</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3174,28 +3195,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>180</v>
+        <v>112</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>181</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3207,31 +3228,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3240,31 +3261,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>183</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3273,31 +3294,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>191</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>90</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3306,7 +3327,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3319,18 +3340,18 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>171</v>
+        <v>90</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3339,14 +3360,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>29</v>
+        <v>189</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3356,14 +3377,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3372,14 +3393,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3389,11 +3410,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3405,14 +3426,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>29</v>
+        <v>197</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3422,11 +3443,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3438,14 +3459,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>199</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3455,14 +3476,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3471,7 +3492,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3488,14 +3509,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3504,14 +3525,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3521,11 +3542,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>18</v>
@@ -3537,14 +3558,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3554,49 +3575,214 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>210</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>29</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>24</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>211</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>212</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>213</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>21</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>24</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>30</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>214</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
         <v>215</v>
       </c>
-      <c t="s" r="Q75" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="76" ht="25.5" customHeight="1">
-      <c r="P76" s="13">
-        <v>3118.7649999999999</v>
-      </c>
-      <c r="Q76" s="13"/>
-    </row>
-    <row r="77" ht="16.5" customHeight="1">
-      <c t="s" r="A77" s="14">
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>29</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>24</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>190</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>191</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
         <v>216</v>
       </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c t="s" r="G77" s="15">
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>149</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>24</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
         <v>217</v>
       </c>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="16"/>
-      <c t="s" r="K77" s="17">
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
         <v>218</v>
       </c>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
+      <c t="s" r="Q79" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>219</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>220</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>24</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>221</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>222</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="P81" s="13">
+        <v>3238.395</v>
+      </c>
+      <c r="Q81" s="13"/>
+    </row>
+    <row r="82" ht="16.5" customHeight="1">
+      <c t="s" r="A82" s="14">
+        <v>223</v>
+      </c>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c t="s" r="G82" s="15">
+        <v>224</v>
+      </c>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="16"/>
+      <c t="s" r="K82" s="17">
+        <v>225</v>
+      </c>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="357">
+  <mergeCells count="382">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3950,10 +4136,35 @@
     <mergeCell ref="H75:K75"/>
     <mergeCell ref="L75:M75"/>
     <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="K82:Q82"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -446,6 +446,18 @@
     <t>MOOV MASSAGE CREAM 40 GM</t>
   </si>
   <si>
+    <t>NEUROVIT 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>54.7800</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
     <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
   </si>
   <si>
@@ -668,19 +680,22 @@
     <t>81.0000</t>
   </si>
   <si>
+    <t>محلول رينجر</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>16:0</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>Thursday, 14 August, 2025 4:18 PM</t>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>Thursday, 14 August, 2025 4:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2740,7 +2755,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2757,7 +2772,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2766,14 +2781,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>149</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2806,7 +2821,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>33</v>
+        <v>153</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2816,14 +2831,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2832,7 +2847,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2845,15 +2860,15 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2865,28 +2880,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>157</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2898,14 +2913,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2915,14 +2930,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>42</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2931,14 +2946,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2948,11 +2963,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -2964,14 +2979,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>161</v>
+        <v>29</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2981,14 +2996,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2997,14 +3012,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>165</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3014,14 +3029,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3030,14 +3045,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3047,14 +3062,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>60</v>
+        <v>168</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>99</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3063,14 +3078,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3080,14 +3095,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>68</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3096,14 +3111,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3129,7 +3144,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3146,11 +3161,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>171</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3162,14 +3177,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3179,11 +3194,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>173</v>
+        <v>83</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3195,14 +3210,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3212,11 +3227,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>112</v>
+        <v>177</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3228,14 +3243,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3245,14 +3260,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>177</v>
+        <v>112</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>178</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3261,14 +3276,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3285,7 +3300,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>183</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3294,14 +3309,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>184</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3311,14 +3326,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>18</v>
+        <v>187</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3327,14 +3342,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3348,10 +3363,10 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3360,24 +3375,24 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>189</v>
+        <v>29</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
@@ -3443,11 +3458,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>147</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3459,14 +3474,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3476,11 +3491,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3499,7 +3514,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>29</v>
+        <v>203</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3509,14 +3524,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>149</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3525,7 +3540,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3542,14 +3557,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>205</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>18</v>
+        <v>153</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3558,14 +3573,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>207</v>
+        <v>29</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3582,7 +3597,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3598,7 +3613,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>29</v>
+        <v>211</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3608,11 +3623,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3624,14 +3639,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3641,14 +3656,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>30</v>
+        <v>215</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3657,14 +3672,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3674,14 +3689,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>190</v>
+        <v>30</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3690,14 +3705,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>149</v>
+        <v>29</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3707,14 +3722,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3723,14 +3738,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3747,42 +3762,108 @@
         <v>222</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
-      <c r="P81" s="13">
-        <v>3238.395</v>
-      </c>
-      <c r="Q81" s="13"/>
-    </row>
-    <row r="82" ht="16.5" customHeight="1">
-      <c t="s" r="A82" s="14">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
         <v>223</v>
       </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c t="s" r="G82" s="15">
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>18</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>24</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
         <v>224</v>
       </c>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="16"/>
-      <c t="s" r="K82" s="17">
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
         <v>225</v>
       </c>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17"/>
-      <c r="P82" s="17"/>
-      <c r="Q82" s="17"/>
+      <c t="s" r="Q81" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>226</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>227</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>24</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>224</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>191</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="P83" s="13">
+        <v>3341.1750000000002</v>
+      </c>
+      <c r="Q83" s="13"/>
+    </row>
+    <row r="84" ht="16.5" customHeight="1">
+      <c t="s" r="A84" s="14">
+        <v>228</v>
+      </c>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c t="s" r="G84" s="15">
+        <v>229</v>
+      </c>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="16"/>
+      <c t="s" r="K84" s="17">
+        <v>230</v>
+      </c>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="382">
+  <mergeCells count="392">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4161,10 +4242,20 @@
     <mergeCell ref="H80:K80"/>
     <mergeCell ref="L80:M80"/>
     <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="K82:Q82"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="K84:Q84"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -218,6 +218,12 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>COBAL F 500/200MCG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
     <t>COLI-URINAL EFF. GR. 60 GM</t>
   </si>
   <si>
@@ -695,7 +701,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 4:29 PM</t>
+    <t>Thursday, 14 August, 2025 4:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1831,7 +1837,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1841,14 +1847,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1857,14 +1863,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1874,14 +1880,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1890,14 +1896,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1907,11 +1913,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1923,14 +1929,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1940,14 +1946,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1956,14 +1962,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1973,14 +1979,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1989,14 +1995,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2006,11 +2012,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2022,14 +2028,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2039,11 +2045,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2055,14 +2061,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2072,14 +2078,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2088,28 +2094,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -2121,31 +2127,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>99</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2154,31 +2160,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2187,31 +2193,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2220,14 +2226,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2237,14 +2243,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2253,14 +2259,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2270,14 +2276,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2286,14 +2292,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2303,11 +2309,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2319,14 +2325,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2336,11 +2342,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2352,14 +2358,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2369,11 +2375,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2385,7 +2391,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2402,11 +2408,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2418,7 +2424,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2435,11 +2441,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2451,14 +2457,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2468,11 +2474,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2484,7 +2490,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2501,11 +2507,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2517,14 +2523,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2534,11 +2540,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2550,14 +2556,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2567,11 +2573,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2590,7 +2596,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2600,14 +2606,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2616,14 +2622,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2633,11 +2639,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2649,14 +2655,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2666,11 +2672,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2682,14 +2688,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2699,14 +2705,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2715,14 +2721,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2732,11 +2738,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2748,14 +2754,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2765,14 +2771,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>148</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2781,14 +2787,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2798,14 +2804,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2814,14 +2820,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>153</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2831,11 +2837,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2847,14 +2853,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>33</v>
+        <v>155</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2864,14 +2870,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2880,7 +2886,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2893,15 +2899,15 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2920,13 +2926,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -2934,7 +2940,7 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2946,14 +2952,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2963,14 +2969,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>42</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2979,14 +2985,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2996,11 +3002,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3012,14 +3018,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3029,14 +3035,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>166</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3045,14 +3051,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3062,14 +3068,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>168</v>
+        <v>25</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3078,14 +3084,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3095,14 +3101,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>171</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>99</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3118,7 +3124,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3128,14 +3134,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>68</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3144,14 +3150,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3177,7 +3183,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3194,11 +3200,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>175</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3217,7 +3223,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3227,11 +3233,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>177</v>
+        <v>85</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3243,14 +3249,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>153</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3260,11 +3266,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>112</v>
+        <v>179</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3276,14 +3282,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3293,14 +3299,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>181</v>
+        <v>114</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>182</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3309,14 +3315,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3326,14 +3332,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>187</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3342,14 +3348,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>186</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3359,14 +3365,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>90</v>
+        <v>187</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
+        <v>188</v>
+      </c>
+      <c t="s" r="Q68" s="12">
         <v>189</v>
-      </c>
-      <c t="s" r="Q68" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3382,7 +3388,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3392,14 +3398,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3415,21 +3421,21 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>193</v>
+        <v>29</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>194</v>
+        <v>92</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3441,14 +3447,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3458,11 +3464,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3474,14 +3480,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3491,11 +3497,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3524,11 +3530,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>204</v>
+        <v>152</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>205</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3540,14 +3546,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3557,14 +3563,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>153</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3573,7 +3579,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3590,14 +3596,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>155</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3606,14 +3612,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>211</v>
+        <v>29</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3623,14 +3629,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3639,14 +3645,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>29</v>
+        <v>213</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3656,11 +3662,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3672,14 +3678,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3689,14 +3695,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>30</v>
+        <v>217</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>218</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3712,7 +3718,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3722,14 +3728,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>194</v>
+        <v>30</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3738,14 +3744,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>153</v>
+        <v>29</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3755,14 +3761,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3771,14 +3777,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3788,14 +3794,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3804,14 +3810,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>227</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3821,49 +3827,82 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q82" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>228</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>229</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>24</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>226</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>193</v>
+      </c>
+      <c t="s" r="Q83" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="83" ht="24.75" customHeight="1">
-      <c r="P83" s="13">
-        <v>3341.1750000000002</v>
-      </c>
-      <c r="Q83" s="13"/>
-    </row>
-    <row r="84" ht="16.5" customHeight="1">
-      <c t="s" r="A84" s="14">
-        <v>228</v>
-      </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c t="s" r="G84" s="15">
-        <v>229</v>
-      </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="16"/>
-      <c t="s" r="K84" s="17">
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="P84" s="13">
+        <v>3358.9949999999999</v>
+      </c>
+      <c r="Q84" s="13"/>
+    </row>
+    <row r="85" ht="16.5" customHeight="1">
+      <c t="s" r="A85" s="14">
         <v>230</v>
       </c>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c t="s" r="G85" s="15">
+        <v>231</v>
+      </c>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="16"/>
+      <c t="s" r="K85" s="17">
+        <v>232</v>
+      </c>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="392">
+  <mergeCells count="397">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4252,10 +4291,15 @@
     <mergeCell ref="H82:K82"/>
     <mergeCell ref="L82:M82"/>
     <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="K85:Q85"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -701,7 +701,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 4:46 PM</t>
+    <t>Thursday, 14 August, 2025 4:47 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -539,6 +539,9 @@
     <t>VAPOZOL SOL. FOR INH. 30 ML</t>
   </si>
   <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
     <t>VECOVARTEC PLUS 40/12.5MG 21 F.C.TAB.</t>
   </si>
   <si>
@@ -701,7 +704,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 4:47 PM</t>
+    <t>Thursday, 14 August, 2025 4:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3233,14 +3236,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>177</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3249,14 +3252,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3266,11 +3269,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>179</v>
+        <v>85</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3282,14 +3285,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3299,11 +3302,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>114</v>
+        <v>180</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3322,7 +3325,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3332,14 +3335,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>183</v>
+        <v>114</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>184</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3348,14 +3351,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3365,14 +3368,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>189</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3381,14 +3384,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>187</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3398,14 +3401,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>92</v>
+        <v>188</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>190</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3414,14 +3417,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3435,10 +3438,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3447,28 +3450,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>195</v>
+        <v>29</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>196</v>
+        <v>92</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3480,14 +3483,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3497,11 +3500,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3513,14 +3516,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3530,11 +3533,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>152</v>
+        <v>201</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>153</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3546,14 +3549,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3563,11 +3566,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>206</v>
+        <v>152</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>207</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3579,14 +3582,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>29</v>
+        <v>206</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3596,14 +3599,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>155</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3629,14 +3632,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>155</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3645,14 +3648,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>213</v>
+        <v>29</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3662,14 +3665,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3678,14 +3681,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>29</v>
+        <v>214</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3695,11 +3698,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3711,14 +3714,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3728,14 +3731,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>30</v>
+        <v>218</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3744,14 +3747,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3761,14 +3764,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>196</v>
+        <v>30</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3784,7 +3787,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>155</v>
+        <v>29</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3794,14 +3797,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3810,14 +3813,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3827,14 +3830,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3843,14 +3846,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>229</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3860,49 +3863,82 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q83" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>229</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>230</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>24</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>227</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>194</v>
+      </c>
+      <c t="s" r="Q84" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="84" ht="25.5" customHeight="1">
-      <c r="P84" s="13">
-        <v>3358.9949999999999</v>
-      </c>
-      <c r="Q84" s="13"/>
-    </row>
-    <row r="85" ht="16.5" customHeight="1">
-      <c t="s" r="A85" s="14">
-        <v>230</v>
-      </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c t="s" r="G85" s="15">
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="P85" s="13">
+        <v>3376.9949999999999</v>
+      </c>
+      <c r="Q85" s="13"/>
+    </row>
+    <row r="86" ht="16.5" customHeight="1">
+      <c t="s" r="A86" s="14">
         <v>231</v>
       </c>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="16"/>
-      <c t="s" r="K85" s="17">
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c t="s" r="G86" s="15">
         <v>232</v>
       </c>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17"/>
-      <c r="Q85" s="17"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="16"/>
+      <c t="s" r="K86" s="17">
+        <v>233</v>
+      </c>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="397">
+  <mergeCells count="402">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4296,10 +4332,15 @@
     <mergeCell ref="H83:K83"/>
     <mergeCell ref="L83:M83"/>
     <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="K85:Q85"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="K86:Q86"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -455,13 +455,13 @@
     <t>NEUROVIT 6 I.M. AMPS</t>
   </si>
   <si>
+    <t>1:4</t>
+  </si>
+  <si>
     <t>66.00</t>
   </si>
   <si>
-    <t>54.7800</t>
-  </si>
-  <si>
-    <t>0:5</t>
+    <t>21.7800</t>
   </si>
   <si>
     <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
@@ -686,7 +686,7 @@
     <t>27.00</t>
   </si>
   <si>
-    <t>81.0000</t>
+    <t>108.0000</t>
   </si>
   <si>
     <t>محلول رينجر</t>
@@ -704,7 +704,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 4:51 PM</t>
+    <t>Thursday, 14 August, 2025 4:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2797,7 +2797,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>50</v>
+        <v>148</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2807,14 +2807,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>150</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3820,7 +3820,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3837,7 +3837,7 @@
         <v>225</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3908,7 +3908,7 @@
     </row>
     <row r="85" ht="24.75" customHeight="1">
       <c r="P85" s="13">
-        <v>3376.9949999999999</v>
+        <v>3370.9949999999999</v>
       </c>
       <c r="Q85" s="13"/>
     </row>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -305,6 +305,15 @@
     <t>109.0000</t>
   </si>
   <si>
+    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
     <t>EREC 100MG 12 F.C. TABLETS</t>
   </si>
   <si>
@@ -704,7 +713,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 4:53 PM</t>
+    <t>Thursday, 14 August, 2025 4:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2170,7 +2179,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2187,7 +2196,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>101</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2196,31 +2205,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>104</v>
-      </c>
-      <c t="s" r="Q33" s="12">
-        <v>101</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2236,24 +2245,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2262,14 +2271,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2286,7 +2295,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>101</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2302,7 +2311,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2312,14 +2321,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2328,14 +2337,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2368,7 +2377,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2401,7 +2410,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2411,11 +2420,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2427,7 +2436,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2444,11 +2453,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2500,7 +2509,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2566,7 +2575,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2576,11 +2585,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2592,14 +2601,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2609,11 +2618,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>44</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2625,14 +2634,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2642,14 +2651,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2658,14 +2667,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2675,11 +2684,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2698,7 +2707,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2731,7 +2740,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2741,14 +2750,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2757,14 +2766,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2774,11 +2783,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2790,14 +2799,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2807,14 +2816,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>64</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>101</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2823,14 +2832,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2847,7 +2856,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2863,7 +2872,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>155</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2873,11 +2882,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2889,14 +2898,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>33</v>
+        <v>158</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2906,14 +2915,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2922,7 +2931,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2935,15 +2944,15 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2955,28 +2964,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2995,7 +3004,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3005,14 +3014,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>41</v>
+        <v>165</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>42</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3021,14 +3030,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3038,11 +3047,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3054,14 +3063,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>167</v>
+        <v>29</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3071,14 +3080,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>168</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3094,7 +3103,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>170</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3104,14 +3113,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>170</v>
+        <v>25</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>171</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3127,7 +3136,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3137,14 +3146,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>60</v>
+        <v>173</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>101</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3153,14 +3162,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3170,14 +3179,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>68</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3186,14 +3195,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3219,7 +3228,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3236,14 +3245,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3252,7 +3261,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3269,14 +3278,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>178</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3285,14 +3294,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3302,7 +3311,7 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>180</v>
+        <v>85</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3325,7 +3334,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3335,11 +3344,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>115</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3351,14 +3360,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3368,14 +3377,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>184</v>
+        <v>117</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>185</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3391,7 +3400,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3401,14 +3410,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>190</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3417,14 +3426,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>190</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3434,14 +3443,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>92</v>
+        <v>191</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>192</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>18</v>
+        <v>193</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3450,14 +3459,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3471,10 +3480,10 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3483,28 +3492,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>196</v>
+        <v>29</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>197</v>
+        <v>92</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3516,14 +3525,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3533,11 +3542,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3549,14 +3558,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3566,11 +3575,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>152</v>
+        <v>204</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>153</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3582,14 +3591,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3599,11 +3608,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3615,14 +3624,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>29</v>
+        <v>209</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3632,14 +3641,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>155</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3648,7 +3657,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3665,14 +3674,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>18</v>
+        <v>158</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3688,7 +3697,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>214</v>
+        <v>29</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3698,14 +3707,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3714,14 +3723,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>29</v>
+        <v>217</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3754,7 +3763,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3764,14 +3773,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>30</v>
+        <v>221</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3780,14 +3789,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3797,14 +3806,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>197</v>
+        <v>30</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3813,14 +3822,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3830,14 +3839,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3853,7 +3862,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3870,7 +3879,7 @@
         <v>228</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3886,7 +3895,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>230</v>
+        <v>18</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3896,49 +3905,82 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q84" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>232</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>233</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>24</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>230</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q85" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="85" ht="24.75" customHeight="1">
-      <c r="P85" s="13">
-        <v>3370.9949999999999</v>
-      </c>
-      <c r="Q85" s="13"/>
-    </row>
-    <row r="86" ht="16.5" customHeight="1">
-      <c t="s" r="A86" s="14">
-        <v>231</v>
-      </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c t="s" r="G86" s="15">
-        <v>232</v>
-      </c>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="16"/>
-      <c t="s" r="K86" s="17">
-        <v>233</v>
-      </c>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="P86" s="13">
+        <v>3484.9949999999999</v>
+      </c>
+      <c r="Q86" s="13"/>
+    </row>
+    <row r="87" ht="16.5" customHeight="1">
+      <c t="s" r="A87" s="14">
+        <v>234</v>
+      </c>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c t="s" r="G87" s="15">
+        <v>235</v>
+      </c>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="16"/>
+      <c t="s" r="K87" s="17">
+        <v>236</v>
+      </c>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="17"/>
+      <c r="P87" s="17"/>
+      <c r="Q87" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="402">
+  <mergeCells count="407">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4337,10 +4379,15 @@
     <mergeCell ref="H84:K84"/>
     <mergeCell ref="L84:M84"/>
     <mergeCell ref="N84:O84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="K86:Q86"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="K87:Q87"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -368,6 +368,15 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
     <t>FLAVICEF 100MG/5ML PD. FOR ORAL SUSP. 30ML</t>
   </si>
   <si>
@@ -455,6 +464,9 @@
     <t>11.3850</t>
   </si>
   <si>
+    <t>MINALAX 10 TABLETS</t>
+  </si>
+  <si>
     <t>MOMENTA CREAM 30 GM</t>
   </si>
   <si>
@@ -713,7 +725,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 4:54 PM</t>
+    <t>Thursday, 14 August, 2025 5:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2311,7 +2323,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2377,7 +2389,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2394,7 +2406,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2410,7 +2422,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2443,7 +2455,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2453,11 +2465,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2469,7 +2481,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2486,11 +2498,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2542,7 +2554,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2608,7 +2620,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2618,11 +2630,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2634,14 +2646,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2651,11 +2663,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2667,14 +2679,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2684,14 +2696,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2700,14 +2712,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2717,11 +2729,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>92</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2740,7 +2752,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2773,7 +2785,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2783,14 +2795,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2799,14 +2811,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2816,11 +2828,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2832,14 +2844,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>151</v>
+        <v>29</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2849,14 +2861,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>104</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2865,7 +2877,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2882,11 +2894,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>64</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2898,14 +2910,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2915,14 +2927,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2931,14 +2943,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2948,14 +2960,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2964,20 +2976,20 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2985,10 +2997,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>52</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2997,14 +3009,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3014,11 +3026,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3030,31 +3042,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>41</v>
+        <v>167</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3070,7 +3082,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3080,14 +3092,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>83</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3096,14 +3108,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3113,14 +3125,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>171</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3136,7 +3148,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3146,11 +3158,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>173</v>
+        <v>82</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>174</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3162,14 +3174,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3179,14 +3191,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>104</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3195,14 +3207,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3212,11 +3224,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>67</v>
+        <v>177</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>68</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3228,7 +3240,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3245,14 +3257,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>68</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3261,14 +3273,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3278,14 +3290,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3294,7 +3306,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3311,11 +3323,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>181</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3327,14 +3339,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3344,14 +3356,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>184</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3360,14 +3372,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>158</v>
+        <v>29</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3377,11 +3389,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>118</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3400,7 +3412,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>170</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3417,7 +3429,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3433,7 +3445,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3443,14 +3455,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>191</v>
+        <v>117</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>192</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>193</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3459,14 +3471,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>18</v>
+        <v>174</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3476,14 +3488,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>92</v>
+        <v>191</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3492,14 +3504,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>29</v>
+        <v>194</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3509,14 +3521,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>92</v>
+        <v>195</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
+        <v>196</v>
+      </c>
+      <c t="s" r="Q72" s="12">
         <v>197</v>
-      </c>
-      <c t="s" r="Q72" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3532,24 +3544,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>199</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>200</v>
+        <v>92</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3558,28 +3570,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>203</v>
+        <v>29</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>204</v>
+        <v>92</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3591,14 +3603,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3608,11 +3620,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>155</v>
+        <v>204</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>156</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3624,14 +3636,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3641,11 +3653,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3657,14 +3669,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>29</v>
+        <v>211</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3674,14 +3686,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>211</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>158</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3690,14 +3702,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>29</v>
+        <v>213</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3714,7 +3726,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3730,7 +3742,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>217</v>
+        <v>29</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3740,14 +3752,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>162</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3756,7 +3768,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3773,14 +3785,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3789,14 +3801,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>21</v>
+        <v>221</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3806,14 +3818,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>30</v>
+        <v>222</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3822,7 +3834,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3839,11 +3851,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -3855,14 +3867,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3872,14 +3884,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>227</v>
+        <v>30</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>228</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3895,7 +3907,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3905,11 +3917,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -3921,14 +3933,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>233</v>
+        <v>40</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3938,49 +3950,115 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q85" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>233</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>18</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>24</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>234</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>235</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>236</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>237</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>24</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>234</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>201</v>
+      </c>
+      <c t="s" r="Q87" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="86" ht="25.5" customHeight="1">
-      <c r="P86" s="13">
-        <v>3484.9949999999999</v>
-      </c>
-      <c r="Q86" s="13"/>
-    </row>
-    <row r="87" ht="16.5" customHeight="1">
-      <c t="s" r="A87" s="14">
-        <v>234</v>
-      </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c t="s" r="G87" s="15">
-        <v>235</v>
-      </c>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="16"/>
-      <c t="s" r="K87" s="17">
-        <v>236</v>
-      </c>
-      <c r="L87" s="17"/>
-      <c r="M87" s="17"/>
-      <c r="N87" s="17"/>
-      <c r="O87" s="17"/>
-      <c r="P87" s="17"/>
-      <c r="Q87" s="17"/>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="P88" s="13">
+        <v>3519.9949999999999</v>
+      </c>
+      <c r="Q88" s="13"/>
+    </row>
+    <row r="89" ht="16.5" customHeight="1">
+      <c t="s" r="A89" s="14">
+        <v>238</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c t="s" r="G89" s="15">
+        <v>239</v>
+      </c>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c t="s" r="K89" s="17">
+        <v>240</v>
+      </c>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="407">
+  <mergeCells count="417">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4384,10 +4462,20 @@
     <mergeCell ref="H85:K85"/>
     <mergeCell ref="L85:M85"/>
     <mergeCell ref="N85:O85"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="K87:Q87"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="K89:Q89"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -524,12 +524,36 @@
     <t>51.0000</t>
   </si>
   <si>
+    <t>PK-MERZ 100MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
+    <t>RAMIXOLE 1 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>159.0000</t>
+  </si>
+  <si>
     <t>RHINEX 0.05% INFANTILE NASAL DROPS 10 ML</t>
   </si>
   <si>
     <t>RISPADEX 1MG/ML SYRUP 100ML</t>
   </si>
   <si>
+    <t>SINEMET 25/250 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
@@ -725,7 +749,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 5:12 PM</t>
+    <t>Thursday, 14 August, 2025 5:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3115,7 +3139,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3125,11 +3149,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>42</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3141,14 +3165,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3158,11 +3182,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>83</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3174,14 +3198,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>174</v>
+        <v>40</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3191,14 +3215,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>175</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3207,14 +3231,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3224,11 +3248,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>177</v>
+        <v>82</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>178</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3240,14 +3264,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3257,14 +3281,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>60</v>
+        <v>179</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>180</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>104</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3280,7 +3304,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>116</v>
+        <v>182</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3290,14 +3314,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>68</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3306,14 +3330,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3323,11 +3347,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>67</v>
+        <v>185</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>68</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3339,7 +3363,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3356,14 +3380,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>42</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3372,14 +3396,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3389,11 +3413,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3405,14 +3429,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3422,11 +3446,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>187</v>
+        <v>67</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>188</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3438,14 +3462,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>162</v>
+        <v>29</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3455,14 +3479,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3471,14 +3495,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>174</v>
+        <v>29</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3488,14 +3512,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>191</v>
+        <v>85</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3504,14 +3528,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>194</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3528,7 +3552,7 @@
         <v>196</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>197</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3537,14 +3561,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3554,14 +3578,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>199</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3570,14 +3594,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3587,14 +3611,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>92</v>
+        <v>199</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3603,31 +3627,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
+        <v>204</v>
+      </c>
+      <c t="s" r="Q75" s="12">
         <v>205</v>
-      </c>
-      <c t="s" r="Q75" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3643,24 +3667,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>207</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>208</v>
+        <v>92</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3669,28 +3693,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>211</v>
+        <v>29</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>159</v>
+        <v>92</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>160</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3702,14 +3726,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3719,11 +3743,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3735,14 +3759,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>29</v>
+        <v>215</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3752,14 +3776,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>162</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3768,14 +3792,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>29</v>
+        <v>219</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3785,14 +3809,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>218</v>
+        <v>159</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>219</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3851,14 +3875,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>162</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3867,14 +3891,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3884,14 +3908,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>30</v>
+        <v>226</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3900,14 +3924,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3917,11 +3941,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -3933,14 +3957,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3950,14 +3974,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -3966,14 +3990,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -3983,14 +4007,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3999,14 +4023,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>237</v>
+        <v>29</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4016,49 +4040,148 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q87" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>238</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>40</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>24</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>239</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>240</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>241</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>18</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>24</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>242</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>243</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>244</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>245</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>24</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>242</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q90" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="88" ht="24.75" customHeight="1">
-      <c r="P88" s="13">
-        <v>3519.9949999999999</v>
-      </c>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" ht="16.5" customHeight="1">
-      <c t="s" r="A89" s="14">
-        <v>238</v>
-      </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c t="s" r="G89" s="15">
-        <v>239</v>
-      </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="16"/>
-      <c t="s" r="K89" s="17">
-        <v>240</v>
-      </c>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="P91" s="13">
+        <v>3881.9949999999999</v>
+      </c>
+      <c r="Q91" s="13"/>
+    </row>
+    <row r="92" ht="16.5" customHeight="1">
+      <c t="s" r="A92" s="14">
+        <v>246</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c t="s" r="G92" s="15">
+        <v>247</v>
+      </c>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16"/>
+      <c t="s" r="K92" s="17">
+        <v>248</v>
+      </c>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="417">
+  <mergeCells count="432">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4472,10 +4595,25 @@
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="K92:Q92"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -368,15 +368,6 @@
     <t>26.0000</t>
   </si>
   <si>
-    <t>FLAGYL 500MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
     <t>FLAVICEF 100MG/5ML PD. FOR ORAL SUSP. 30ML</t>
   </si>
   <si>
@@ -749,7 +740,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 5:22 PM</t>
+    <t>Thursday, 14 August, 2025 5:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2413,7 +2404,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2430,7 +2421,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2446,7 +2437,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2479,7 +2470,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2489,11 +2480,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2505,7 +2496,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2522,11 +2513,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2578,7 +2569,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2644,7 +2635,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2654,11 +2645,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2670,14 +2661,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2687,11 +2678,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2703,14 +2694,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2720,14 +2711,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>92</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2736,14 +2727,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2753,11 +2744,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2776,7 +2767,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2809,7 +2800,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2819,14 +2810,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>41</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2835,14 +2826,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2852,11 +2843,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2868,14 +2859,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2885,11 +2876,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2901,14 +2892,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>152</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2918,14 +2909,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>64</v>
+        <v>153</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2934,14 +2925,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>155</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2958,7 +2949,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>104</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2974,7 +2965,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2984,11 +2975,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -3000,14 +2991,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>162</v>
+        <v>33</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3017,14 +3008,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3033,7 +3024,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3046,15 +3037,15 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3066,28 +3057,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>52</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3106,7 +3097,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3116,14 +3107,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>169</v>
+        <v>60</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3132,14 +3123,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3149,7 +3140,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>60</v>
+        <v>171</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3172,7 +3163,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3182,11 +3173,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>174</v>
+        <v>41</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>175</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3198,14 +3189,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3215,11 +3206,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3231,14 +3222,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3248,11 +3239,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>82</v>
+        <v>176</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>83</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3271,7 +3262,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>50</v>
+        <v>179</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3281,14 +3272,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>179</v>
+        <v>25</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>180</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3304,7 +3295,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3314,14 +3305,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>25</v>
+        <v>182</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>183</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3337,7 +3328,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3347,14 +3338,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>185</v>
+        <v>60</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3363,14 +3354,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3380,14 +3371,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>188</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>104</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3396,14 +3387,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3429,7 +3420,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3446,14 +3437,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3462,7 +3453,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3479,14 +3470,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>42</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3495,14 +3486,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3512,7 +3503,7 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>85</v>
+        <v>192</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
@@ -3535,7 +3526,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>159</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3545,11 +3536,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>195</v>
+        <v>117</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>196</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3561,14 +3552,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3578,14 +3569,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>117</v>
+        <v>196</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>118</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3601,7 +3592,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3611,14 +3602,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>202</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3627,14 +3618,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>202</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3644,14 +3635,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>203</v>
+        <v>92</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>204</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>205</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3660,14 +3651,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3681,10 +3672,10 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3693,28 +3684,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>29</v>
+        <v>208</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>92</v>
+        <v>209</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3726,14 +3717,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3743,11 +3734,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3759,14 +3750,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3776,11 +3767,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>217</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -3792,14 +3783,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3809,11 +3800,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>159</v>
+        <v>219</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -3825,14 +3816,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>221</v>
+        <v>29</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3842,14 +3833,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>159</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3858,7 +3849,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3875,14 +3866,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>162</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3898,7 +3889,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3908,14 +3899,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3924,14 +3915,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>229</v>
+        <v>29</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3964,7 +3955,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3974,14 +3965,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>233</v>
+        <v>30</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -3990,14 +3981,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4007,14 +3998,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4023,14 +4014,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4040,14 +4031,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4063,7 +4054,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4080,7 +4071,7 @@
         <v>240</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4096,7 +4087,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4106,82 +4097,49 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
+        <v>206</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="P90" s="13">
+        <v>3864.9949999999999</v>
+      </c>
+      <c r="Q90" s="13"/>
+    </row>
+    <row r="91" ht="16.5" customHeight="1">
+      <c t="s" r="A91" s="14">
         <v>243</v>
       </c>
-      <c t="s" r="Q89" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="90" ht="24.75" customHeight="1">
-      <c r="A90" s="7">
-        <v>84</v>
-      </c>
-      <c r="B90" s="7"/>
-      <c t="s" r="C90" s="8">
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c t="s" r="G91" s="15">
         <v>244</v>
       </c>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c t="s" r="H90" s="9">
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="16"/>
+      <c t="s" r="K91" s="17">
         <v>245</v>
       </c>
-      <c r="I90" s="9"/>
-      <c r="J90" s="9"/>
-      <c r="K90" s="9"/>
-      <c t="s" r="L90" s="10">
-        <v>24</v>
-      </c>
-      <c r="M90" s="10"/>
-      <c t="s" r="N90" s="8">
-        <v>242</v>
-      </c>
-      <c r="O90" s="8"/>
-      <c t="s" r="P90" s="11">
-        <v>209</v>
-      </c>
-      <c t="s" r="Q90" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="91" ht="25.5" customHeight="1">
-      <c r="P91" s="13">
-        <v>3881.9949999999999</v>
-      </c>
-      <c r="Q91" s="13"/>
-    </row>
-    <row r="92" ht="16.5" customHeight="1">
-      <c t="s" r="A92" s="14">
-        <v>246</v>
-      </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c t="s" r="G92" s="15">
-        <v>247</v>
-      </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="16"/>
-      <c t="s" r="K92" s="17">
-        <v>248</v>
-      </c>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="432">
+  <mergeCells count="427">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4605,15 +4563,10 @@
     <mergeCell ref="H89:K89"/>
     <mergeCell ref="L89:M89"/>
     <mergeCell ref="N89:O89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:G90"/>
-    <mergeCell ref="H90:K90"/>
-    <mergeCell ref="L90:M90"/>
-    <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="K92:Q92"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="K91:Q91"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -740,7 +740,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 5:34 PM</t>
+    <t>Thursday, 14 August, 2025 5:37 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -284,159 +284,162 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>5:3</t>
+    <t>10:2</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>ELBAVIT WITH IRON SYRUP 60 ML</t>
+  </si>
+  <si>
+    <t>EMPIR G CAPS</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>109.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>23.0400</t>
+  </si>
+  <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>FEBURIC 80MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>139.50</t>
+  </si>
+  <si>
+    <t>46.0350</t>
+  </si>
+  <si>
+    <t>FERROTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>91.0800</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>FLAVICEF 100MG/5ML PD. FOR ORAL SUSP. 30ML</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>GLIMEPIRIDE PLUS 4/30 MG 30 SCORED TAB.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>123.0000</t>
+  </si>
+  <si>
+    <t>HERO BABY 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>256.00</t>
+  </si>
+  <si>
+    <t>256.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC N 457MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>HIDERM TOPICAL LOTION 100ML</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
     <t>15.8400</t>
   </si>
   <si>
-    <t>ELBAVIT WITH IRON SYRUP 60 ML</t>
-  </si>
-  <si>
-    <t>EMPIR G CAPS</t>
-  </si>
-  <si>
-    <t>109.00</t>
-  </si>
-  <si>
-    <t>109.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>EREC 100MG 12 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>23.0400</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>FEBURIC 80MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>139.50</t>
-  </si>
-  <si>
-    <t>46.0350</t>
-  </si>
-  <si>
-    <t>FERROTRON 30 CAPS</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>91.0800</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>FLAVICEF 100MG/5ML PD. FOR ORAL SUSP. 30ML</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>GLIMEPIRIDE PLUS 4/30 MG 30 SCORED TAB.</t>
-  </si>
-  <si>
-    <t>123.00</t>
-  </si>
-  <si>
-    <t>123.0000</t>
-  </si>
-  <si>
-    <t>HERO BABY 2 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>256.00</t>
-  </si>
-  <si>
-    <t>256.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC N 457MG/5ML SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>92.0000</t>
-  </si>
-  <si>
-    <t>HIDERM TOPICAL LOTION 100ML</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
     <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
   </si>
   <si>
@@ -485,6 +488,15 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
     <t>OTAL EAR DROPS 5 ML</t>
   </si>
   <si>
@@ -632,6 +644,15 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -740,7 +761,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 5:37 PM</t>
+    <t>Thursday, 14 August, 2025 5:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2124,7 +2145,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2133,7 +2154,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2166,7 +2187,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2183,11 +2204,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2199,7 +2220,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2216,11 +2237,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2232,7 +2253,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2249,14 +2270,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2272,7 +2293,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2289,7 +2310,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2355,7 +2376,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2715,7 +2736,7 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2727,7 +2748,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2744,11 +2765,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2760,14 +2781,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2777,11 +2798,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2793,7 +2814,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2826,7 +2847,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2859,7 +2880,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2892,14 +2913,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2909,14 +2930,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2925,7 +2946,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2942,11 +2963,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -2958,14 +2979,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2975,14 +2996,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2998,7 +3019,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3008,14 +3029,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3024,7 +3045,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3037,15 +3058,15 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3057,28 +3078,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>167</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3090,14 +3111,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3107,14 +3128,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3123,14 +3144,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3140,11 +3161,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3156,14 +3177,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3173,11 +3194,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>42</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3189,14 +3210,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3206,11 +3227,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3222,14 +3243,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3239,11 +3260,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>176</v>
+        <v>82</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>177</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3255,14 +3276,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>179</v>
+        <v>50</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3272,14 +3293,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3288,14 +3309,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>183</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3305,14 +3326,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>182</v>
+        <v>25</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3321,14 +3342,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3338,14 +3359,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>60</v>
+        <v>186</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>104</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3354,14 +3375,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>116</v>
+        <v>29</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3371,14 +3392,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>68</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>94</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3387,14 +3408,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3420,7 +3441,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3437,14 +3458,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3453,14 +3474,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3470,14 +3491,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>190</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3486,14 +3507,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3503,11 +3524,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>192</v>
+        <v>85</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3519,14 +3540,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3536,11 +3557,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>117</v>
+        <v>196</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>118</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3552,14 +3573,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3569,14 +3590,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>196</v>
+        <v>117</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>197</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3585,14 +3606,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3609,7 +3630,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>202</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3618,14 +3639,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>203</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3635,14 +3656,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>92</v>
+        <v>204</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>18</v>
+        <v>206</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3651,14 +3672,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3672,10 +3693,10 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3684,24 +3705,24 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>208</v>
+        <v>29</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>209</v>
+        <v>92</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
@@ -3724,21 +3745,21 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3750,14 +3771,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3767,11 +3788,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>156</v>
+        <v>216</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>157</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -3783,14 +3804,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3800,11 +3821,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -3816,14 +3837,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>29</v>
+        <v>223</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3833,14 +3854,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>220</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>159</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3849,14 +3870,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>29</v>
+        <v>225</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3866,14 +3887,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3882,14 +3903,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>226</v>
+        <v>29</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3899,14 +3920,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>163</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3939,7 +3960,7 @@
         <v>231</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3955,7 +3976,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>21</v>
+        <v>233</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3965,14 +3986,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>30</v>
+        <v>234</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -3981,7 +4002,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -3998,11 +4019,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4014,14 +4035,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4031,14 +4052,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>236</v>
+        <v>30</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4047,14 +4068,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4064,11 +4085,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4080,14 +4101,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>242</v>
+        <v>40</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4097,49 +4118,115 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>206</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q89" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>245</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>18</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>24</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>246</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>247</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>248</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>249</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>24</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>246</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>210</v>
+      </c>
+      <c t="s" r="Q91" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="90" ht="24.75" customHeight="1">
-      <c r="P90" s="13">
-        <v>3864.9949999999999</v>
-      </c>
-      <c r="Q90" s="13"/>
-    </row>
-    <row r="91" ht="16.5" customHeight="1">
-      <c t="s" r="A91" s="14">
-        <v>243</v>
-      </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c t="s" r="G91" s="15">
-        <v>244</v>
-      </c>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="16"/>
-      <c t="s" r="K91" s="17">
-        <v>245</v>
-      </c>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="P92" s="13">
+        <v>3984.835</v>
+      </c>
+      <c r="Q92" s="13"/>
+    </row>
+    <row r="93" ht="16.5" customHeight="1">
+      <c t="s" r="A93" s="14">
+        <v>250</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c t="s" r="G93" s="15">
+        <v>251</v>
+      </c>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c t="s" r="K93" s="17">
+        <v>252</v>
+      </c>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="427">
+  <mergeCells count="437">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4563,10 +4650,20 @@
     <mergeCell ref="H89:K89"/>
     <mergeCell ref="L89:M89"/>
     <mergeCell ref="N89:O89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="K91:Q91"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="K93:Q93"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -761,7 +761,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 5:48 PM</t>
+    <t>Thursday, 14 August, 2025 5:52 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -188,6 +188,15 @@
     <t>19.2000</t>
   </si>
   <si>
+    <t>CERELAC قمح وتفاح بدون لبن</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>CETAFEN PLUS 30 TAB.</t>
   </si>
   <si>
@@ -227,12 +236,6 @@
     <t>COLI-URINAL EFF. GR. 60 GM</t>
   </si>
   <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
     <t>COLONA 30 F.C.TAB</t>
   </si>
   <si>
@@ -263,6 +266,9 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
     <t>DIOSED-C 20 TABS.</t>
   </si>
   <si>
@@ -695,6 +701,12 @@
     <t>10.0000</t>
   </si>
   <si>
+    <t>رباط ضغط 10سم</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -761,7 +773,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 5:52 PM</t>
+    <t>Thursday, 14 August, 2025 6:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1798,13 +1810,13 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1815,7 +1827,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1831,7 +1843,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1841,14 +1853,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1857,14 +1869,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1897,7 +1909,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1907,14 +1919,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1923,14 +1935,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1940,14 +1952,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1963,7 +1975,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1973,14 +1985,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1989,14 +2001,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2006,11 +2018,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2022,14 +2034,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2039,14 +2051,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2055,14 +2067,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2072,14 +2084,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2088,14 +2100,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2105,11 +2117,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2121,14 +2133,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2138,14 +2150,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2154,14 +2166,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2171,14 +2183,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2187,31 +2199,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2220,14 +2232,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2237,11 +2249,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2253,31 +2265,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>94</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2286,31 +2298,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>94</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2319,14 +2331,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2336,14 +2348,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2352,31 +2364,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2385,14 +2397,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2402,14 +2414,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2418,14 +2430,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2435,14 +2447,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2451,14 +2463,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2468,11 +2480,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2484,14 +2496,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2501,11 +2513,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2517,14 +2529,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2534,11 +2546,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2550,7 +2562,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2567,11 +2579,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2583,14 +2595,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2600,11 +2612,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2616,14 +2628,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2633,11 +2645,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2649,14 +2661,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2666,11 +2678,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2682,7 +2694,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2699,11 +2711,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2715,14 +2727,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2732,14 +2744,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2748,7 +2760,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2765,14 +2777,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2781,14 +2793,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2798,11 +2810,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>94</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2814,14 +2826,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2831,14 +2843,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2847,14 +2859,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2864,14 +2876,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2887,7 +2899,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2897,11 +2909,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2920,7 +2932,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>153</v>
+        <v>29</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2930,14 +2942,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>154</v>
+        <v>44</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>155</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>94</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2946,7 +2958,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2963,11 +2975,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>157</v>
+        <v>67</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -2979,14 +2991,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2996,14 +3008,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3012,14 +3024,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>163</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3029,11 +3041,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3045,14 +3057,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3062,14 +3074,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>65</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3078,31 +3090,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>52</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3111,14 +3123,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3128,11 +3140,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3144,31 +3156,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>173</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3177,14 +3189,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3194,14 +3206,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3210,14 +3222,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3227,11 +3239,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>42</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3243,14 +3255,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3260,11 +3272,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>82</v>
+        <v>177</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>83</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3283,7 +3295,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3293,11 +3305,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>180</v>
+        <v>41</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>181</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3309,14 +3321,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3326,14 +3338,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>184</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3342,7 +3354,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3359,11 +3371,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3375,14 +3387,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>29</v>
+        <v>185</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3392,14 +3404,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3408,14 +3420,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3425,11 +3437,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>67</v>
+        <v>188</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>68</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3441,7 +3453,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3458,14 +3470,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>68</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>96</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3481,7 +3493,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3491,14 +3503,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3524,11 +3536,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>194</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3540,14 +3552,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3557,14 +3569,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>196</v>
+        <v>14</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>197</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3573,14 +3585,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>163</v>
+        <v>29</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3590,11 +3602,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>118</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3606,14 +3618,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>183</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3623,14 +3635,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3639,14 +3651,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>203</v>
+        <v>165</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3656,14 +3668,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>204</v>
+        <v>119</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>205</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>206</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3672,14 +3684,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>185</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3689,14 +3701,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>92</v>
+        <v>202</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3705,14 +3717,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>29</v>
+        <v>205</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3722,14 +3734,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>92</v>
+        <v>206</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>208</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3738,14 +3750,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>206</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3755,14 +3767,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>212</v>
+        <v>94</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3771,28 +3783,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>215</v>
+        <v>29</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -3804,28 +3816,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -3837,14 +3849,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3854,11 +3866,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>157</v>
+        <v>218</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -3870,14 +3882,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3887,11 +3899,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -3903,14 +3915,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>29</v>
+        <v>225</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3920,14 +3932,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>227</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>163</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3936,14 +3948,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>29</v>
+        <v>227</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3953,14 +3965,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3969,14 +3981,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>233</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3986,11 +3998,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>235</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4002,7 +4014,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4019,14 +4031,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>208</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4035,14 +4047,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4052,14 +4064,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>30</v>
+        <v>234</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4068,14 +4080,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>29</v>
+        <v>237</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4085,11 +4097,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4101,14 +4113,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4118,14 +4130,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4134,14 +4146,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4151,14 +4163,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>246</v>
+        <v>30</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4167,14 +4179,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>249</v>
+        <v>29</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4184,49 +4196,148 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q91" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>246</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>40</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>24</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>247</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>248</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>249</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>18</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>24</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>250</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>251</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>252</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>253</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>24</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>250</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>212</v>
+      </c>
+      <c t="s" r="Q94" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="92" ht="25.5" customHeight="1">
-      <c r="P92" s="13">
-        <v>3984.835</v>
-      </c>
-      <c r="Q92" s="13"/>
-    </row>
-    <row r="93" ht="16.5" customHeight="1">
-      <c t="s" r="A93" s="14">
-        <v>250</v>
-      </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c t="s" r="G93" s="15">
-        <v>251</v>
-      </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="16"/>
-      <c t="s" r="K93" s="17">
-        <v>252</v>
-      </c>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="P95" s="13">
+        <v>4063.7150000000001</v>
+      </c>
+      <c r="Q95" s="13"/>
+    </row>
+    <row r="96" ht="16.5" customHeight="1">
+      <c t="s" r="A96" s="14">
+        <v>254</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c t="s" r="G96" s="15">
+        <v>255</v>
+      </c>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c t="s" r="K96" s="17">
+        <v>256</v>
+      </c>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="437">
+  <mergeCells count="452">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4660,10 +4771,25 @@
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L91:M91"/>
     <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="K93:Q93"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="K96:Q96"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -773,7 +773,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 6:08 PM</t>
+    <t>Thursday, 14 August, 2025 6:11 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -77,6 +77,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>AMRIZOLE 500 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>12.5000</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANTODINE20    6 AMP</t>
   </si>
   <si>
@@ -131,426 +143,435 @@
     <t>BETADERM 0.1% CREAM 15 GM</t>
   </si>
   <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>BETADINE ANTISEPTIC SOLN. 10% 60 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>BETASERC 16MG 60 TAB</t>
+  </si>
+  <si>
+    <t>219.00</t>
+  </si>
+  <si>
+    <t>72.2700</t>
+  </si>
+  <si>
+    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>CALAMYL LOTION 100 ML</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>19.2000</t>
+  </si>
+  <si>
+    <t>CERELAC قمح وتفاح بدون لبن</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>CETAFEN PLUS 30 TAB.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>COBAL F 500/200MCG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>COLI-URINAL EFF. GR. 60 GM</t>
+  </si>
+  <si>
+    <t>COLONA 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>DIOSED-C 20 TABS.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>DOGMATIL 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>10:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>ELBAVIT WITH IRON SYRUP 60 ML</t>
+  </si>
+  <si>
+    <t>EMPIR G CAPS</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>109.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>23.0400</t>
+  </si>
+  <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>FEBURIC 80MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>139.50</t>
+  </si>
+  <si>
+    <t>46.0350</t>
+  </si>
+  <si>
+    <t>FERROTRON 30 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>91.0800</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>FLAVICEF 100MG/5ML PD. FOR ORAL SUSP. 30ML</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>GLIMEPIRIDE PLUS 4/30 MG 30 SCORED TAB.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>123.0000</t>
+  </si>
+  <si>
+    <t>HERO BABY 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>256.00</t>
+  </si>
+  <si>
+    <t>256.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC N 457MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>HIDERM TOPICAL LOTION 100ML</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>72.5000</t>
+  </si>
+  <si>
+    <t>MELOCAM 15MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>34.50</t>
+  </si>
+  <si>
+    <t>11.3850</t>
+  </si>
+  <si>
+    <t>MINALAX 10 TABLETS</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>MOMENTA CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>MOOV MASSAGE CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>NEUROVIT 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>OTAL EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>PK-MERZ 100MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
+    <t>RAMIXOLE 1 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>159.0000</t>
+  </si>
+  <si>
+    <t>RHINEX 0.05% INFANTILE NASAL DROPS 10 ML</t>
+  </si>
+  <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>BETADINE ANTISEPTIC SOLN. 10% 60 ML</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>BETASERC 16MG 60 TAB</t>
-  </si>
-  <si>
-    <t>219.00</t>
-  </si>
-  <si>
-    <t>72.2700</t>
-  </si>
-  <si>
-    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>CALAMYL LOTION 100 ML</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>19.2000</t>
-  </si>
-  <si>
-    <t>CERELAC قمح وتفاح بدون لبن</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>CETAFEN PLUS 30 TAB.</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
-    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>CETAL 250MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>COBAL F 500/200MCG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>COLI-URINAL EFF. GR. 60 GM</t>
-  </si>
-  <si>
-    <t>COLONA 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t>CONGESTAL 20 TABS</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>DIOSED-C 20 TABS.</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>DOGMATIL 50MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>10:2</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>ELBAVIT WITH IRON SYRUP 60 ML</t>
-  </si>
-  <si>
-    <t>EMPIR G CAPS</t>
-  </si>
-  <si>
-    <t>109.00</t>
-  </si>
-  <si>
-    <t>109.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>EREC 100MG 12 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>23.0400</t>
-  </si>
-  <si>
-    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>FEBURIC 80MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>139.50</t>
-  </si>
-  <si>
-    <t>46.0350</t>
-  </si>
-  <si>
-    <t>FERROTRON 30 CAPS</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>91.0800</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>FLAVICEF 100MG/5ML PD. FOR ORAL SUSP. 30ML</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>GLIMEPIRIDE PLUS 4/30 MG 30 SCORED TAB.</t>
-  </si>
-  <si>
-    <t>123.00</t>
-  </si>
-  <si>
-    <t>123.0000</t>
-  </si>
-  <si>
-    <t>HERO BABY 2 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>256.00</t>
-  </si>
-  <si>
-    <t>256.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC N 457MG/5ML SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>92.0000</t>
-  </si>
-  <si>
-    <t>HIDERM TOPICAL LOTION 100ML</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
-  </si>
-  <si>
-    <t>145.00</t>
-  </si>
-  <si>
-    <t>72.5000</t>
-  </si>
-  <si>
-    <t>MELOCAM 15MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>34.50</t>
-  </si>
-  <si>
-    <t>11.3850</t>
-  </si>
-  <si>
-    <t>MINALAX 10 TABLETS</t>
-  </si>
-  <si>
-    <t>MOMENTA CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>MOOV MASSAGE CREAM 40 GM</t>
-  </si>
-  <si>
-    <t>NEUROVIT 6 I.M. AMPS</t>
-  </si>
-  <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>21.7800</t>
-  </si>
-  <si>
-    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>ORS 10 SACHET</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>OTAL EAR DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>19.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>PK-MERZ 100MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>81.0000</t>
-  </si>
-  <si>
-    <t>RAMIXOLE 1 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>159.00</t>
-  </si>
-  <si>
-    <t>159.0000</t>
-  </si>
-  <si>
-    <t>RHINEX 0.05% INFANTILE NASAL DROPS 10 ML</t>
-  </si>
-  <si>
     <t>RISPADEX 1MG/ML SYRUP 100ML</t>
   </si>
   <si>
@@ -578,7 +599,7 @@
     <t>136.50</t>
   </si>
   <si>
-    <t>136.5000</t>
+    <t>181.5450</t>
   </si>
   <si>
     <t>TEKLO 30 TABS.</t>
@@ -704,9 +725,6 @@
     <t>رباط ضغط 10سم</t>
   </si>
   <si>
-    <t>25.00</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -773,7 +791,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 6:11 PM</t>
+    <t>Thursday, 14 August, 2025 6:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1486,18 +1504,18 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1506,31 +1524,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>31</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1579,7 +1597,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1589,14 +1607,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1605,14 +1623,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1629,7 +1647,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1645,7 +1663,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1662,7 +1680,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1678,7 +1696,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1695,7 +1713,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1711,7 +1729,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1721,11 +1739,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1737,14 +1755,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1754,14 +1772,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1770,14 +1788,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1787,14 +1805,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1810,24 +1828,24 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1836,7 +1854,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1849,18 +1867,18 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1869,14 +1887,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1886,14 +1904,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1902,14 +1920,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1919,11 +1937,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1935,14 +1953,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1952,14 +1970,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1975,7 +1993,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1985,14 +2003,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2001,14 +2019,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2018,14 +2036,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2034,14 +2052,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2051,11 +2069,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2067,14 +2085,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2084,14 +2102,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2100,14 +2118,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2117,14 +2135,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2133,14 +2151,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2150,11 +2168,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2166,14 +2184,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2183,11 +2201,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2199,14 +2217,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2216,14 +2234,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2232,14 +2250,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2249,14 +2267,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2265,20 +2283,20 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2289,7 +2307,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2298,14 +2316,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2315,11 +2333,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2331,31 +2349,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>96</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2364,31 +2382,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>96</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2397,14 +2415,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2414,14 +2432,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2430,31 +2448,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2463,14 +2481,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2480,14 +2498,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2496,14 +2514,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2513,14 +2531,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2529,14 +2547,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2546,11 +2564,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2562,14 +2580,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2579,11 +2597,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2595,14 +2613,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2612,11 +2630,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2628,14 +2646,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2645,11 +2663,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2661,14 +2679,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2678,11 +2696,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2694,14 +2712,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2711,11 +2729,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2727,14 +2745,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2744,11 +2762,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2760,7 +2778,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2777,11 +2795,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2793,14 +2811,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2810,14 +2828,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2826,7 +2844,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2843,14 +2861,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2866,7 +2884,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2876,11 +2894,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2892,14 +2910,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2909,14 +2927,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2925,14 +2943,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2942,14 +2960,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>44</v>
+        <v>154</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2958,14 +2976,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2975,11 +2993,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>68</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -2991,14 +3009,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>155</v>
+        <v>33</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3008,14 +3026,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>156</v>
+        <v>47</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>157</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>96</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3024,7 +3042,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3041,11 +3059,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>159</v>
+        <v>69</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3057,14 +3075,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3074,14 +3092,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>60</v>
+        <v>162</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>163</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3097,7 +3115,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>165</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3107,11 +3125,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3123,14 +3141,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>33</v>
+        <v>168</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3140,14 +3158,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>138</v>
+        <v>62</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3156,31 +3174,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>33</v>
+        <v>171</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>52</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3189,14 +3207,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3206,11 +3224,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>173</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3222,31 +3240,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>63</v>
+        <v>176</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>175</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3255,14 +3273,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3272,14 +3290,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3288,14 +3306,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3305,11 +3323,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>42</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3321,14 +3339,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3338,11 +3356,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>83</v>
+        <v>183</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3354,14 +3372,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>50</v>
+        <v>186</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3371,11 +3389,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>182</v>
+        <v>44</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3387,14 +3405,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>185</v>
+        <v>33</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3404,14 +3422,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>186</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3420,14 +3438,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3437,11 +3455,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3453,14 +3471,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>29</v>
+        <v>192</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3470,14 +3488,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3486,14 +3504,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3503,14 +3521,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>70</v>
+        <v>195</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>71</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3519,14 +3537,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3536,14 +3554,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>71</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>101</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3552,14 +3570,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3569,14 +3587,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3585,14 +3603,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3602,11 +3620,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>196</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3618,14 +3636,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3635,14 +3653,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>198</v>
+        <v>14</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3651,14 +3669,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>165</v>
+        <v>33</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3668,11 +3686,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>120</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3684,14 +3702,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>185</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3701,14 +3719,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3717,14 +3735,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>205</v>
+        <v>171</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3734,14 +3752,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>206</v>
+        <v>124</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>207</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>208</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3750,14 +3768,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3767,14 +3785,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>94</v>
+        <v>209</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>210</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3790,7 +3808,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>29</v>
+        <v>212</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3800,14 +3818,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>94</v>
+        <v>213</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>215</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3816,14 +3834,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>208</v>
+        <v>18</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3833,14 +3851,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>214</v>
+        <v>99</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3849,24 +3867,24 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>217</v>
+        <v>33</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>218</v>
+        <v>99</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
@@ -3889,21 +3907,21 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -3915,28 +3933,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>159</v>
+        <v>225</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -3948,28 +3966,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -3981,28 +3999,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>232</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>231</v>
+        <v>165</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4014,31 +4032,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>29</v>
+        <v>234</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>208</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4047,31 +4065,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>234</v>
+        <v>24</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>235</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4080,31 +4098,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>237</v>
+        <v>33</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>215</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4113,31 +4131,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4146,31 +4164,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>21</v>
+        <v>243</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>30</v>
+        <v>244</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4179,28 +4197,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4212,31 +4230,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>247</v>
+        <v>34</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4245,28 +4263,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4285,59 +4303,125 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>253</v>
+        <v>186</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>212</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q94" s="12">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>255</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>18</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>28</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>256</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>257</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>258</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>259</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>28</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>256</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>219</v>
+      </c>
+      <c t="s" r="Q96" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="95" ht="24.75" customHeight="1">
-      <c r="P95" s="13">
-        <v>4063.7150000000001</v>
-      </c>
-      <c r="Q95" s="13"/>
-    </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c t="s" r="A96" s="14">
-        <v>254</v>
-      </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c t="s" r="G96" s="15">
-        <v>255</v>
-      </c>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="16"/>
-      <c t="s" r="K96" s="17">
-        <v>256</v>
-      </c>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="P97" s="13">
+        <v>4205.2600000000002</v>
+      </c>
+      <c r="Q97" s="13"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="1">
+      <c t="s" r="A98" s="14">
+        <v>260</v>
+      </c>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c t="s" r="G98" s="15">
+        <v>261</v>
+      </c>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c t="s" r="K98" s="17">
+        <v>262</v>
+      </c>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="452">
+  <mergeCells count="462">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4786,10 +4870,20 @@
     <mergeCell ref="H94:K94"/>
     <mergeCell ref="L94:M94"/>
     <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="K96:Q96"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="K98:Q98"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -791,7 +791,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 6:18 PM</t>
+    <t>Thursday, 14 August, 2025 6:19 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -398,6 +398,15 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -506,12 +515,6 @@
     <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>ORS 10 SACHET</t>
   </si>
   <si>
@@ -764,6 +767,9 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t>فلامنجو شفرات للنساء</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -791,7 +797,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 6:19 PM</t>
+    <t>Thursday, 14 August, 2025 6:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2620,7 +2626,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2653,7 +2659,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2663,11 +2669,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2679,7 +2685,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2696,11 +2702,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2752,7 +2758,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2818,7 +2824,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2828,11 +2834,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>48</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2844,14 +2850,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2861,11 +2867,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>47</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2877,14 +2883,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2894,14 +2900,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>99</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2910,14 +2916,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2927,7 +2933,7 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -2950,7 +2956,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2983,7 +2989,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2993,14 +2999,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3009,14 +3015,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>33</v>
+        <v>123</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3026,11 +3032,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>48</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -3042,14 +3048,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3059,11 +3065,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3075,14 +3081,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>161</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3092,14 +3098,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>162</v>
+        <v>69</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>163</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>101</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3108,14 +3114,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>164</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3132,7 +3138,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3148,7 +3154,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3158,14 +3164,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>101</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3174,14 +3180,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3191,14 +3197,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>172</v>
+        <v>62</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3207,14 +3213,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3224,14 +3230,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>143</v>
+        <v>173</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>70</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3247,24 +3253,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3273,28 +3279,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>179</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3306,14 +3312,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3323,14 +3329,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>65</v>
+        <v>179</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3339,14 +3345,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3356,11 +3362,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>183</v>
+        <v>65</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3372,14 +3378,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>186</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3389,11 +3395,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>44</v>
+        <v>184</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3405,14 +3411,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>33</v>
+        <v>187</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3422,11 +3428,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>86</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3445,7 +3451,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3455,11 +3461,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>189</v>
+        <v>85</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>190</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3471,14 +3477,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>192</v>
+        <v>23</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3488,14 +3494,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>29</v>
+        <v>190</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3504,14 +3510,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>193</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3521,14 +3527,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>195</v>
+        <v>29</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3537,14 +3543,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3554,14 +3560,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>65</v>
+        <v>196</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>101</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3570,14 +3576,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3587,14 +3593,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>73</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3610,7 +3616,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>33</v>
+        <v>123</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3643,7 +3649,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3653,14 +3659,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3676,7 +3682,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3686,14 +3692,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>203</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3702,14 +3708,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3719,11 +3725,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>205</v>
+        <v>92</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3735,14 +3741,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>171</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3752,11 +3758,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>124</v>
+        <v>206</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>125</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3775,7 +3781,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3785,14 +3791,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>209</v>
+        <v>124</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>210</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3801,14 +3807,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3818,14 +3824,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>215</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3834,14 +3840,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>18</v>
+        <v>213</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3851,14 +3857,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>99</v>
+        <v>214</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>18</v>
+        <v>216</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3867,14 +3873,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3888,10 +3894,10 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3900,14 +3906,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>215</v>
+        <v>33</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3917,11 +3923,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>221</v>
+        <v>99</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -3933,28 +3939,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -3966,14 +3972,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3983,11 +3989,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -3999,14 +4005,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4016,11 +4022,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>165</v>
+        <v>230</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>166</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4032,14 +4038,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4049,11 +4055,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>235</v>
+        <v>130</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>236</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4065,14 +4071,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>235</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4082,11 +4088,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>24</v>
+        <v>236</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>82</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4105,7 +4111,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4115,14 +4121,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>213</v>
+        <v>24</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>214</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>215</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4148,14 +4154,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>18</v>
+        <v>216</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4164,14 +4170,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>243</v>
+        <v>33</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4181,14 +4187,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4197,14 +4203,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>33</v>
+        <v>244</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4214,11 +4220,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4230,14 +4236,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4247,14 +4253,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>34</v>
+        <v>248</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4263,14 +4269,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4280,14 +4286,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>225</v>
+        <v>34</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4303,7 +4309,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>186</v>
+        <v>18</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4313,14 +4319,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>253</v>
+        <v>62</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>254</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>186</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4329,14 +4335,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4346,11 +4352,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4362,14 +4368,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>259</v>
+        <v>187</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4379,49 +4385,115 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>219</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q96" s="12">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>257</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>18</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>28</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>258</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>259</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>260</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>261</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>28</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>258</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>220</v>
+      </c>
+      <c t="s" r="Q98" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="97" ht="25.5" customHeight="1">
-      <c r="P97" s="13">
-        <v>4205.2600000000002</v>
-      </c>
-      <c r="Q97" s="13"/>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c t="s" r="A98" s="14">
-        <v>260</v>
-      </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c t="s" r="G98" s="15">
-        <v>261</v>
-      </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="16"/>
-      <c t="s" r="K98" s="17">
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="P99" s="13">
+        <v>4328.2600000000002</v>
+      </c>
+      <c r="Q99" s="13"/>
+    </row>
+    <row r="100" ht="16.5" customHeight="1">
+      <c t="s" r="A100" s="14">
         <v>262</v>
       </c>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c t="s" r="G100" s="15">
+        <v>263</v>
+      </c>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c t="s" r="K100" s="17">
+        <v>264</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="462">
+  <mergeCells count="472">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4880,10 +4952,20 @@
     <mergeCell ref="H96:K96"/>
     <mergeCell ref="L96:M96"/>
     <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="K98:Q98"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="K100:Q100"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -518,10 +518,7 @@
     <t>ORS 10 SACHET</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>8.0000</t>
+    <t>48.0000</t>
   </si>
   <si>
     <t>OTAL EAR DROPS 5 ML</t>
@@ -669,9 +666,6 @@
   </si>
   <si>
     <t>ZIAWET SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>48.0000</t>
   </si>
   <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
@@ -3187,7 +3181,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3201,10 +3195,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>101</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3213,14 +3207,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3230,11 +3224,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3246,7 +3240,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3279,7 +3273,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3296,7 +3290,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3312,7 +3306,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3329,11 +3323,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3345,7 +3339,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3366,7 +3360,7 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3378,7 +3372,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3395,11 +3389,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3411,14 +3405,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3444,7 +3438,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3477,7 +3471,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3494,11 +3488,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3510,14 +3504,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3531,7 +3525,7 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3543,7 +3537,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3560,11 +3554,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>23</v>
@@ -3576,7 +3570,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3597,7 +3591,7 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>101</v>
@@ -3609,7 +3603,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3642,7 +3636,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3675,7 +3669,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3708,7 +3702,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3729,7 +3723,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3741,7 +3735,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3758,11 +3752,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3774,14 +3768,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3807,14 +3801,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3824,11 +3818,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3840,14 +3834,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3857,14 +3851,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
+        <v>214</v>
+      </c>
+      <c t="s" r="Q80" s="12">
         <v>215</v>
-      </c>
-      <c t="s" r="Q80" s="12">
-        <v>216</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3873,7 +3867,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3894,7 +3888,7 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>18</v>
@@ -3906,7 +3900,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3927,7 +3921,7 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -3939,14 +3933,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3956,11 +3950,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -3972,14 +3966,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3989,11 +3983,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -4005,14 +3999,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4022,11 +4016,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4038,14 +4032,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4071,14 +4065,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4088,11 +4082,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4104,7 +4098,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4137,7 +4131,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4154,14 +4148,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
+        <v>214</v>
+      </c>
+      <c t="s" r="Q89" s="12">
         <v>215</v>
-      </c>
-      <c t="s" r="Q89" s="12">
-        <v>216</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4170,7 +4164,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4187,11 +4181,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>18</v>
@@ -4203,14 +4197,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4220,11 +4214,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4236,7 +4230,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4253,11 +4247,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>21</v>
@@ -4269,7 +4263,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4290,7 +4284,7 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4302,7 +4296,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4335,7 +4329,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4352,11 +4346,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4368,14 +4362,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4385,14 +4379,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4401,7 +4395,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4418,11 +4412,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>21</v>
@@ -4434,14 +4428,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4451,11 +4445,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4463,13 +4457,13 @@
     </row>
     <row r="99" ht="25.5" customHeight="1">
       <c r="P99" s="13">
-        <v>4328.2600000000002</v>
+        <v>4368.2600000000002</v>
       </c>
       <c r="Q99" s="13"/>
     </row>
     <row r="100" ht="16.5" customHeight="1">
       <c t="s" r="A100" s="14">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B100" s="14"/>
       <c r="C100" s="14"/>
@@ -4477,13 +4471,13 @@
       <c r="E100" s="14"/>
       <c r="F100" s="14"/>
       <c t="s" r="G100" s="15">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H100" s="15"/>
       <c r="I100" s="15"/>
       <c r="J100" s="16"/>
       <c t="s" r="K100" s="17">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L100" s="17"/>
       <c r="M100" s="17"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -791,7 +791,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 6:21 PM</t>
+    <t>Thursday, 14 August, 2025 6:22 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -131,6 +131,15 @@
     <t>120.0000</t>
   </si>
   <si>
+    <t>AZHA ROLL ON</t>
+  </si>
+  <si>
+    <t>189.00</t>
+  </si>
+  <si>
+    <t>189.0000</t>
+  </si>
+  <si>
     <t>BEPRA 20MG 14 F.C. TAB.</t>
   </si>
   <si>
@@ -272,9 +281,33 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
     <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
   </si>
   <si>
@@ -314,12 +347,21 @@
     <t>31.6800</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>ELBAVIT WITH IRON SYRUP 60 ML</t>
   </si>
   <si>
+    <t>EMEREST 4MG/2ML 5 AMPOULES</t>
+  </si>
+  <si>
+    <t>112.50</t>
+  </si>
+  <si>
+    <t>-22.5000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>EMPIR G CAPS</t>
   </si>
   <si>
@@ -398,6 +440,15 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t>FLUCAMOX 1GM VIAL</t>
+  </si>
+  <si>
+    <t>16.50</t>
+  </si>
+  <si>
+    <t>29.7000</t>
+  </si>
+  <si>
     <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
   </si>
   <si>
@@ -458,12 +509,15 @@
     <t>HIDERM TOPICAL LOTION 100ML</t>
   </si>
   <si>
+    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
     <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
   </si>
   <si>
-    <t>39.00</t>
-  </si>
-  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -518,156 +572,159 @@
     <t>ORS 10 SACHET</t>
   </si>
   <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>OTAL EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>PK-MERZ 100MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
+    <t>RAMIXOLE 1 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>159.0000</t>
+  </si>
+  <si>
+    <t>RHINEX 0.05% INFANTILE NASAL DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>RISPADEX 1MG/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>SINEMET 25/250 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>181.5450</t>
+  </si>
+  <si>
+    <t>TEKLO 30 TABS.</t>
+  </si>
+  <si>
+    <t>53.4600</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>VAPOZOL SOL. FOR INH. 30 ML</t>
+  </si>
+  <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>VECOVARTEC PLUS 40/12.5MG 21 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>VIBRAMYCIN 100MG 10 CAPS.</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8399:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>XORIN 1GM VIAL</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>ZIAWET SYRUP 120ML</t>
+  </si>
+  <si>
     <t>48.0000</t>
   </si>
   <si>
-    <t>OTAL EAR DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>19.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>PK-MERZ 100MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>81.0000</t>
-  </si>
-  <si>
-    <t>RAMIXOLE 1 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>159.00</t>
-  </si>
-  <si>
-    <t>159.0000</t>
-  </si>
-  <si>
-    <t>RHINEX 0.05% INFANTILE NASAL DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>RISPADEX 1MG/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>SINEMET 25/250 MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t>SPASMO-DIGESTIN 30 TABS.</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>136.50</t>
-  </si>
-  <si>
-    <t>181.5450</t>
-  </si>
-  <si>
-    <t>TEKLO 30 TABS.</t>
-  </si>
-  <si>
-    <t>53.4600</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>VAPOZOL SOL. FOR INH. 30 ML</t>
-  </si>
-  <si>
-    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
-  </si>
-  <si>
-    <t>VECOVARTEC PLUS 40/12.5MG 21 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>VIBRAMYCIN 100MG 10 CAPS.</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8399:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>XORIN 1GM VIAL</t>
-  </si>
-  <si>
-    <t>144.0000</t>
-  </si>
-  <si>
-    <t>ZIAWET SYRUP 120ML</t>
-  </si>
-  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -725,13 +782,22 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>17.6000</t>
+  </si>
+  <si>
+    <t>8:1</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
     <t>3.00</t>
   </si>
   <si>
-    <t>9.0000</t>
+    <t>17.4000</t>
+  </si>
+  <si>
+    <t>5:1</t>
   </si>
   <si>
     <t>سرنجات انسولين</t>
@@ -767,6 +833,12 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>مجموعه برد</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
     <t>محلول جلوكوز 5%</t>
   </si>
   <si>
@@ -791,7 +863,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 6:22 PM</t>
+    <t>Thursday, 14 August, 2025 6:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1630,13 +1702,13 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1647,7 +1719,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1663,7 +1735,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1680,7 +1752,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1696,7 +1768,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1713,7 +1785,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1729,7 +1801,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1746,7 +1818,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1762,7 +1834,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1795,7 +1867,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1805,14 +1877,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1821,14 +1893,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1838,14 +1910,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1854,31 +1926,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1894,13 +1966,13 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1911,7 +1983,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1927,7 +1999,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1937,14 +2009,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1953,14 +2025,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1993,7 +2065,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2003,14 +2075,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2019,14 +2091,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2036,14 +2108,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2052,14 +2124,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2069,14 +2141,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2092,7 +2164,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2125,7 +2197,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2135,14 +2207,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2151,14 +2223,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2168,14 +2240,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2184,14 +2256,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2201,11 +2273,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2217,14 +2289,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2234,14 +2306,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2250,14 +2322,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2267,11 +2339,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2283,14 +2355,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2300,14 +2372,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>101</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2323,7 +2395,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2333,14 +2405,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2349,7 +2421,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2362,18 +2434,18 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2382,14 +2454,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2399,14 +2471,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2415,14 +2487,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2432,14 +2504,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>101</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2448,31 +2520,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>101</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2481,31 +2553,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2514,14 +2586,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2531,14 +2603,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>101</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2547,14 +2619,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2571,7 +2643,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2587,13 +2659,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2604,7 +2676,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2620,7 +2692,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2630,14 +2702,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2646,14 +2718,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2663,14 +2735,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2679,14 +2751,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>33</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2696,11 +2768,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2712,14 +2784,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2729,11 +2801,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2745,14 +2817,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>33</v>
+        <v>137</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2762,14 +2834,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2778,14 +2850,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2795,11 +2867,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2811,14 +2883,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2828,11 +2900,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2844,7 +2916,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2861,11 +2933,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>48</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2877,14 +2949,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2894,11 +2966,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>30</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2910,14 +2982,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2927,14 +2999,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>99</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2943,7 +3015,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2960,14 +3032,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2976,14 +3048,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2993,14 +3065,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3009,14 +3081,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3026,11 +3098,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>160</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -3042,14 +3114,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3059,11 +3131,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>47</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3075,7 +3147,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3092,11 +3164,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>69</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3108,14 +3180,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>164</v>
+        <v>27</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3125,14 +3197,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>165</v>
+        <v>110</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>101</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3141,7 +3213,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3158,14 +3230,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>130</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3174,14 +3246,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3191,14 +3263,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>62</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>116</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3207,14 +3279,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3224,11 +3296,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>172</v>
+        <v>47</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3240,14 +3312,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3257,14 +3329,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>101</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3273,31 +3345,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>176</v>
+        <v>72</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3306,14 +3378,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>23</v>
+        <v>182</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3323,14 +3395,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3339,7 +3411,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3356,11 +3428,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>65</v>
+        <v>147</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3372,14 +3444,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3389,14 +3461,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>183</v>
+        <v>65</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3405,14 +3477,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3422,11 +3494,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>44</v>
+        <v>191</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3438,14 +3510,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3455,14 +3527,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>85</v>
+        <v>163</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3471,31 +3543,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>190</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3504,14 +3576,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>192</v>
+        <v>23</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3521,11 +3593,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>29</v>
+        <v>197</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3537,7 +3609,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3554,14 +3626,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>195</v>
+        <v>68</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3570,14 +3642,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3587,14 +3659,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>65</v>
+        <v>202</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>101</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3603,14 +3675,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>123</v>
+        <v>205</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3620,11 +3692,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>73</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3636,7 +3708,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3653,11 +3725,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3669,14 +3741,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3686,14 +3758,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>14</v>
+        <v>208</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>160</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3702,14 +3774,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>33</v>
+        <v>211</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3719,14 +3791,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3735,14 +3807,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3752,14 +3824,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3768,14 +3840,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>171</v>
+        <v>33</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3785,14 +3857,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>125</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3801,14 +3873,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>192</v>
+        <v>137</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3818,14 +3890,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>209</v>
+        <v>75</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3834,14 +3906,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>212</v>
+        <v>33</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3851,14 +3923,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>213</v>
+        <v>75</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>214</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>215</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3867,14 +3939,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3884,14 +3956,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3900,7 +3972,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3917,11 +3989,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>169</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -3933,14 +4005,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>215</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3950,11 +4022,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -3966,28 +4038,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>224</v>
+        <v>138</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>225</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -3999,20 +4071,20 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
@@ -4023,7 +4095,7 @@
         <v>229</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4045,18 +4117,18 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>130</v>
+        <v>232</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>131</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>94</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4065,31 +4137,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>233</v>
+        <v>18</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>234</v>
+        <v>110</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>235</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4105,21 +4177,21 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>82</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4131,31 +4203,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>215</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4164,14 +4236,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>33</v>
+        <v>242</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4181,14 +4253,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4197,14 +4269,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4214,11 +4286,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4230,14 +4302,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>33</v>
+        <v>250</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4247,11 +4319,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>246</v>
+        <v>147</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>247</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>21</v>
@@ -4263,14 +4335,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>21</v>
+        <v>252</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4280,14 +4352,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>34</v>
+        <v>253</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4296,7 +4368,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4313,14 +4385,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4329,7 +4401,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4346,14 +4418,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>258</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4362,14 +4434,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>186</v>
+        <v>33</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4379,14 +4451,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>186</v>
+        <v>262</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4395,14 +4467,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>18</v>
+        <v>264</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4412,11 +4484,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>21</v>
@@ -4428,14 +4500,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>259</v>
+        <v>33</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4445,49 +4517,280 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>169</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q98" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>270</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>21</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>28</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>34</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>271</v>
+      </c>
+      <c t="s" r="Q99" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="99" ht="25.5" customHeight="1">
-      <c r="P99" s="13">
-        <v>4368.2600000000002</v>
-      </c>
-      <c r="Q99" s="13"/>
-    </row>
-    <row r="100" ht="16.5" customHeight="1">
-      <c t="s" r="A100" s="14">
-        <v>260</v>
-      </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c t="s" r="G100" s="15">
-        <v>261</v>
-      </c>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="16"/>
-      <c t="s" r="K100" s="17">
-        <v>262</v>
-      </c>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>272</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>18</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>28</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>65</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>273</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>33</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>28</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>243</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>244</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>274</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>33</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>28</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>275</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>188</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>276</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>205</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>28</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>277</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>278</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>279</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>18</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>28</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>280</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>281</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>282</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>283</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>28</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>280</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>237</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="P106" s="13">
+        <v>4636.4449999999997</v>
+      </c>
+      <c r="Q106" s="13"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c t="s" r="A107" s="14">
+        <v>284</v>
+      </c>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c t="s" r="G107" s="15">
+        <v>285</v>
+      </c>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="16"/>
+      <c t="s" r="K107" s="17">
+        <v>286</v>
+      </c>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="472">
+  <mergeCells count="507">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4956,10 +5259,45 @@
     <mergeCell ref="H98:K98"/>
     <mergeCell ref="L98:M98"/>
     <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="K100:Q100"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="K107:Q107"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -863,7 +863,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 6:39 PM</t>
+    <t>Thursday, 14 August, 2025 6:40 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -863,7 +863,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 6:40 PM</t>
+    <t>Thursday, 14 August, 2025 6:43 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -398,6 +398,15 @@
     <t>47.5200</t>
   </si>
   <si>
+    <t>FAYCID HAIR OIL 60 ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>FEBURIC 80MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -776,6 +785,9 @@
     <t>10.0000</t>
   </si>
   <si>
+    <t>راجون اخضر 250مل</t>
+  </si>
+  <si>
     <t>رباط ضغط 10سم</t>
   </si>
   <si>
@@ -863,7 +875,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 6:43 PM</t>
+    <t>Thursday, 14 August, 2025 6:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2692,7 +2704,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2702,14 +2714,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2718,14 +2730,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2742,7 +2754,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2758,7 +2770,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2768,14 +2780,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2784,14 +2796,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2824,7 +2836,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>137</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2841,7 +2853,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2857,7 +2869,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2874,7 +2886,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2890,7 +2902,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2923,7 +2935,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2933,11 +2945,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2949,7 +2961,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2966,11 +2978,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -3022,7 +3034,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3088,7 +3100,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3098,11 +3110,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>50</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>51</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -3114,14 +3126,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3131,11 +3143,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>50</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3147,7 +3159,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3164,7 +3176,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3180,14 +3192,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3197,14 +3209,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>170</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3213,14 +3225,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3230,7 +3242,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>110</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3253,7 +3265,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3286,7 +3298,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3296,14 +3308,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3312,14 +3324,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>33</v>
+        <v>140</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3329,11 +3341,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>51</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3345,14 +3357,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3362,11 +3374,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3378,14 +3390,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>182</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3395,14 +3407,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>183</v>
+        <v>72</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>184</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>96</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3411,14 +3423,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>185</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3428,14 +3440,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3444,14 +3456,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>187</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3461,14 +3473,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>96</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3494,14 +3506,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>191</v>
+        <v>65</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3510,14 +3522,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>130</v>
+        <v>193</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3527,14 +3539,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>20</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>96</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3543,31 +3555,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3576,28 +3588,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>198</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3616,7 +3628,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3626,14 +3638,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>68</v>
+        <v>200</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3642,14 +3654,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3659,7 +3671,7 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>202</v>
+        <v>68</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
@@ -3682,7 +3694,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>205</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3692,11 +3704,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>47</v>
+        <v>205</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3708,14 +3720,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>33</v>
+        <v>208</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3725,11 +3737,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>89</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3741,14 +3753,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3758,11 +3770,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>208</v>
+        <v>88</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>209</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3781,7 +3793,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>211</v>
+        <v>23</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3791,14 +3803,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>29</v>
+        <v>211</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>212</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3814,7 +3826,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3824,14 +3836,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>214</v>
+        <v>29</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>215</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3847,7 +3859,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3857,14 +3869,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>68</v>
+        <v>217</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>96</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3873,14 +3885,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3890,14 +3902,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>76</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3906,14 +3918,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>33</v>
+        <v>140</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3939,14 +3951,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3956,14 +3968,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3972,14 +3984,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3989,14 +4001,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>222</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4005,14 +4017,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4022,7 +4034,7 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>224</v>
+        <v>103</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
@@ -4045,7 +4057,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>190</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4055,11 +4067,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>138</v>
+        <v>227</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>139</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -4071,14 +4083,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4088,14 +4100,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>228</v>
+        <v>141</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>229</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4111,7 +4123,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4121,14 +4133,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4137,14 +4149,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>18</v>
+        <v>234</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4154,14 +4166,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>110</v>
+        <v>235</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>18</v>
+        <v>94</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4170,14 +4182,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4191,10 +4203,10 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4203,14 +4215,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4220,7 +4232,7 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>239</v>
+        <v>110</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
@@ -4243,21 +4255,21 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>242</v>
+        <v>94</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>21</v>
@@ -4269,14 +4281,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4286,11 +4298,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4302,14 +4314,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4319,11 +4331,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>147</v>
+        <v>250</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>148</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>21</v>
@@ -4335,14 +4347,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4352,11 +4364,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>253</v>
+        <v>150</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>254</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4368,14 +4380,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>18</v>
+        <v>255</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4385,11 +4397,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>24</v>
+        <v>256</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>85</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
@@ -4401,14 +4413,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4418,14 +4430,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>232</v>
+        <v>34</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>257</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>258</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4441,7 +4453,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4451,14 +4463,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>260</v>
+        <v>24</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>261</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>262</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4467,14 +4479,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>264</v>
+        <v>33</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4484,14 +4496,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>262</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4500,7 +4512,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4517,14 +4529,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>21</v>
+        <v>266</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4533,14 +4545,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>21</v>
+        <v>268</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4550,14 +4562,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>34</v>
+        <v>269</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4566,14 +4578,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4583,14 +4595,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>65</v>
+        <v>272</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>161</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4599,14 +4611,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4616,14 +4628,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>243</v>
+        <v>34</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4632,14 +4644,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4649,14 +4661,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>275</v>
+        <v>65</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4665,14 +4677,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>205</v>
+        <v>33</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4682,14 +4694,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>205</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4698,14 +4710,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4715,11 +4727,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>281</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>21</v>
@@ -4731,14 +4743,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>283</v>
+        <v>208</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4748,49 +4760,115 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>237</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q105" s="12">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>283</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>18</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>28</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>284</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>285</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>286</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>287</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>28</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>284</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>240</v>
+      </c>
+      <c t="s" r="Q107" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="106" ht="25.5" customHeight="1">
-      <c r="P106" s="13">
-        <v>4636.4449999999997</v>
-      </c>
-      <c r="Q106" s="13"/>
-    </row>
-    <row r="107" ht="16.5" customHeight="1">
-      <c t="s" r="A107" s="14">
-        <v>284</v>
-      </c>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c t="s" r="G107" s="15">
-        <v>285</v>
-      </c>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="16"/>
-      <c t="s" r="K107" s="17">
-        <v>286</v>
-      </c>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
-      <c r="Q107" s="17"/>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="P108" s="13">
+        <v>4701.4449999999997</v>
+      </c>
+      <c r="Q108" s="13"/>
+    </row>
+    <row r="109" ht="16.5" customHeight="1">
+      <c t="s" r="A109" s="14">
+        <v>288</v>
+      </c>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c t="s" r="G109" s="15">
+        <v>289</v>
+      </c>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="16"/>
+      <c t="s" r="K109" s="17">
+        <v>290</v>
+      </c>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="17"/>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="507">
+  <mergeCells count="517">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5294,10 +5372,20 @@
     <mergeCell ref="H105:K105"/>
     <mergeCell ref="L105:M105"/>
     <mergeCell ref="N105:O105"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="K107:Q107"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="P108:Q108"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="K109:Q109"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -875,7 +875,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 6:49 PM</t>
+    <t>Thursday, 14 August, 2025 6:55 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -608,6 +608,9 @@
     <t>108.00</t>
   </si>
   <si>
+    <t>54.0000</t>
+  </si>
+  <si>
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
@@ -617,6 +620,15 @@
     <t>51.0000</t>
   </si>
   <si>
+    <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>PK-MERZ 100MG 30 F.C. TAB</t>
   </si>
   <si>
@@ -863,19 +875,13 @@
     <t>محلول رينجر</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
     <t>15:0</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 6:55 PM</t>
+    <t>Thursday, 14 August, 2025 7:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3595,7 +3601,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3609,10 +3615,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>57</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3621,7 +3627,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3638,11 +3644,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3654,14 +3660,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3671,11 +3677,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>68</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3687,14 +3693,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3704,11 +3710,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>205</v>
+        <v>68</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3720,14 +3726,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>208</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3737,11 +3743,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>47</v>
+        <v>209</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3753,14 +3759,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>33</v>
+        <v>212</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3770,11 +3776,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>89</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3786,14 +3792,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3803,11 +3809,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>211</v>
+        <v>88</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>212</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3819,14 +3825,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>214</v>
+        <v>23</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3836,14 +3842,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>29</v>
+        <v>215</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3852,14 +3858,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>21</v>
+        <v>218</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3869,14 +3875,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>217</v>
+        <v>29</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3885,14 +3891,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3902,14 +3908,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>68</v>
+        <v>221</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>96</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3918,14 +3924,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>140</v>
+        <v>33</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3935,14 +3941,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3951,14 +3957,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>33</v>
+        <v>140</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3984,14 +3990,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4001,14 +4007,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>181</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4017,14 +4023,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4034,14 +4040,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>225</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4050,14 +4056,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4067,11 +4073,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>227</v>
+        <v>103</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -4083,14 +4089,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4100,11 +4106,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>141</v>
+        <v>231</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>142</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4116,14 +4122,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4133,14 +4139,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>231</v>
+        <v>141</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>232</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4149,14 +4155,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4173,7 +4179,7 @@
         <v>236</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4189,7 +4195,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4199,14 +4205,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>110</v>
+        <v>239</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>18</v>
+        <v>94</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4215,14 +4221,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4236,10 +4242,10 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4248,14 +4254,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4265,11 +4271,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>242</v>
+        <v>110</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>21</v>
@@ -4281,20 +4287,20 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>245</v>
+        <v>94</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
@@ -4364,11 +4370,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>150</v>
+        <v>254</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>151</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4380,14 +4386,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4397,11 +4403,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>256</v>
+        <v>150</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>257</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
@@ -4420,7 +4426,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>259</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4430,11 +4436,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>34</v>
+        <v>260</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>35</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4446,14 +4452,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4463,11 +4469,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4479,14 +4485,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4496,14 +4502,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>235</v>
+        <v>24</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>261</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>262</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4512,7 +4518,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4529,7 +4535,7 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
@@ -4552,7 +4558,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>268</v>
+        <v>33</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4562,14 +4568,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
+        <v>269</v>
+      </c>
+      <c t="s" r="Q99" s="12">
         <v>270</v>
-      </c>
-      <c t="s" r="Q99" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4585,7 +4591,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>33</v>
+        <v>272</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4595,11 +4601,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>21</v>
@@ -4611,14 +4617,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4628,14 +4634,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>34</v>
+        <v>276</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4644,14 +4650,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4661,11 +4667,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>164</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4677,14 +4683,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4694,14 +4700,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>246</v>
+        <v>65</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>247</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4710,7 +4716,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4727,11 +4733,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>191</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>21</v>
@@ -4743,14 +4749,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>208</v>
+        <v>33</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4760,14 +4766,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>282</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>208</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4776,14 +4782,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>18</v>
+        <v>212</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4793,14 +4799,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>21</v>
+        <v>212</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4809,14 +4815,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>287</v>
+        <v>18</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4826,49 +4832,82 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>284</v>
+        <v>204</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q107" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>288</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>289</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>28</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>204</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>244</v>
+      </c>
+      <c t="s" r="Q108" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="108" ht="24.75" customHeight="1">
-      <c r="P108" s="13">
-        <v>4701.4449999999997</v>
-      </c>
-      <c r="Q108" s="13"/>
-    </row>
-    <row r="109" ht="16.5" customHeight="1">
-      <c t="s" r="A109" s="14">
-        <v>288</v>
-      </c>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c t="s" r="G109" s="15">
-        <v>289</v>
-      </c>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="16"/>
-      <c t="s" r="K109" s="17">
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="P109" s="13">
+        <v>4752.4449999999997</v>
+      </c>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="14">
         <v>290</v>
       </c>
-      <c r="L109" s="17"/>
-      <c r="M109" s="17"/>
-      <c r="N109" s="17"/>
-      <c r="O109" s="17"/>
-      <c r="P109" s="17"/>
-      <c r="Q109" s="17"/>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c t="s" r="G110" s="15">
+        <v>291</v>
+      </c>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c t="s" r="K110" s="17">
+        <v>292</v>
+      </c>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="517">
+  <mergeCells count="522">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5382,10 +5421,15 @@
     <mergeCell ref="H107:K107"/>
     <mergeCell ref="L107:M107"/>
     <mergeCell ref="N107:O107"/>
-    <mergeCell ref="P108:Q108"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="K109:Q109"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="K110:Q110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -233,6 +233,18 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -293,9 +305,6 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>23.7600</t>
   </si>
   <si>
@@ -473,12 +482,15 @@
     <t>22.00</t>
   </si>
   <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
     <t>22.0000</t>
   </si>
   <si>
-    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
-  </si>
-  <si>
     <t>GLIMEPIRIDE PLUS 4/30 MG 30 SCORED TAB.</t>
   </si>
   <si>
@@ -524,6 +536,12 @@
     <t>39.00</t>
   </si>
   <si>
+    <t>HYDROFERRIN 50MG/ML ORAL DROPS 30 ML</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
     <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
   </si>
   <si>
@@ -542,6 +560,15 @@
     <t>72.5000</t>
   </si>
   <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
     <t>MELOCAM 15MG 30 TAB.</t>
   </si>
   <si>
@@ -806,10 +833,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>17.6000</t>
-  </si>
-  <si>
-    <t>8:1</t>
+    <t>21.6000</t>
+  </si>
+  <si>
+    <t>10:1</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -881,7 +908,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 7:05 PM</t>
+    <t>Thursday, 14 August, 2025 7:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2083,7 +2110,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2093,11 +2120,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -2109,14 +2136,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2126,14 +2153,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2142,14 +2169,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2159,14 +2186,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2175,14 +2202,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2192,14 +2219,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2208,14 +2235,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2225,11 +2252,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2241,14 +2268,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2265,7 +2292,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2281,7 +2308,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2291,14 +2318,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2307,14 +2334,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2324,14 +2351,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2347,7 +2374,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2361,10 +2388,10 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2373,14 +2400,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2390,11 +2417,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2413,7 +2440,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2446,7 +2473,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2479,7 +2506,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2489,14 +2516,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2505,14 +2532,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2522,14 +2549,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2538,14 +2565,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2555,14 +2582,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>116</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2571,31 +2598,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q39" s="12">
         <v>119</v>
-      </c>
-      <c t="s" r="Q39" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2611,13 +2638,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2644,7 +2671,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2661,7 +2688,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>96</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2677,13 +2704,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2694,7 +2721,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2710,13 +2737,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2727,7 +2754,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2743,7 +2770,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2753,14 +2780,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2769,14 +2796,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>33</v>
+        <v>136</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2793,7 +2820,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2809,7 +2836,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>33</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2819,14 +2846,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2835,14 +2862,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2875,7 +2902,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2892,7 +2919,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2908,7 +2935,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2925,7 +2952,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2941,7 +2968,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2974,7 +3001,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2984,14 +3011,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3000,7 +3027,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3017,11 +3044,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -3033,7 +3060,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3050,11 +3077,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -3066,14 +3093,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3083,11 +3110,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -3099,7 +3126,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3116,11 +3143,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -3132,14 +3159,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3149,11 +3176,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>51</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3165,14 +3192,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3182,11 +3209,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3198,7 +3225,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3215,7 +3242,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3231,14 +3258,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3248,14 +3275,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>110</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3264,7 +3291,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3281,14 +3308,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3297,14 +3324,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3314,7 +3341,7 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>113</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3337,7 +3364,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3347,14 +3374,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>47</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3363,14 +3390,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3380,11 +3407,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>50</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>51</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3396,14 +3423,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3413,14 +3440,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>72</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>73</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3429,14 +3456,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3446,14 +3473,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>186</v>
+        <v>47</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>96</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3462,14 +3489,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3479,11 +3506,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3495,14 +3522,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>190</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3512,14 +3539,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>191</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>96</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3528,14 +3555,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3545,14 +3572,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3561,14 +3588,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3578,14 +3605,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>96</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3594,31 +3621,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>198</v>
+        <v>65</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3627,14 +3654,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>23</v>
+        <v>202</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3644,14 +3671,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3660,14 +3687,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3677,14 +3704,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3700,24 +3727,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>21</v>
+        <v>199</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>68</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3726,14 +3753,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3743,14 +3770,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3759,14 +3786,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3776,11 +3803,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>47</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3792,14 +3819,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3809,11 +3836,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>89</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3825,14 +3852,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3842,11 +3869,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3858,14 +3885,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3875,14 +3902,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3891,14 +3918,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3908,14 +3935,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>221</v>
+        <v>92</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>222</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3931,7 +3958,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3941,14 +3968,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>68</v>
+        <v>224</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>96</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3957,14 +3984,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>140</v>
+        <v>227</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3974,14 +4001,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3990,14 +4017,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4007,14 +4034,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>75</v>
+        <v>230</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>76</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4023,14 +4050,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4040,14 +4067,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>181</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4056,14 +4083,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>33</v>
+        <v>143</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4073,11 +4100,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -4089,14 +4116,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4106,11 +4133,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>231</v>
+        <v>79</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>232</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4122,14 +4149,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>193</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4139,14 +4166,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4155,14 +4182,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>218</v>
+        <v>33</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4172,14 +4199,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>235</v>
+        <v>106</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4188,14 +4215,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>238</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4205,14 +4232,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>94</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4221,14 +4248,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>202</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4238,14 +4265,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>242</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4261,7 +4288,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>33</v>
+        <v>227</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4271,14 +4298,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>110</v>
+        <v>244</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4287,14 +4314,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>94</v>
+        <v>247</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4304,14 +4331,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>75</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4320,31 +4347,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>249</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>250</v>
+        <v>113</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>251</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4360,21 +4387,21 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>253</v>
+        <v>33</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>254</v>
+        <v>113</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4386,28 +4413,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>257</v>
+        <v>75</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>150</v>
+        <v>255</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>151</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
@@ -4419,14 +4446,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4436,11 +4463,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4452,14 +4479,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4469,11 +4496,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>34</v>
+        <v>263</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>35</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4485,14 +4512,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>18</v>
+        <v>266</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4502,11 +4529,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>24</v>
+        <v>153</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>85</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>21</v>
@@ -4518,14 +4545,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>33</v>
+        <v>268</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4535,14 +4562,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>266</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4551,14 +4578,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4568,14 +4595,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>268</v>
+        <v>34</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>269</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>270</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4584,14 +4611,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>272</v>
+        <v>18</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4601,11 +4628,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>273</v>
+        <v>24</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>274</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>21</v>
@@ -4617,7 +4644,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4634,14 +4661,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>276</v>
+        <v>248</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>21</v>
+        <v>275</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4650,14 +4677,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4667,14 +4694,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>34</v>
+        <v>277</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
+        <v>278</v>
+      </c>
+      <c t="s" r="Q102" s="12">
         <v>279</v>
-      </c>
-      <c t="s" r="Q102" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4690,7 +4717,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>18</v>
+        <v>281</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4700,14 +4727,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>65</v>
+        <v>282</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>164</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4716,7 +4743,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4733,11 +4760,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>21</v>
@@ -4749,14 +4776,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4766,14 +4793,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>283</v>
+        <v>34</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>191</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4782,14 +4809,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>212</v>
+        <v>18</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4799,14 +4826,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>285</v>
+        <v>65</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>286</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>212</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4815,14 +4842,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4832,11 +4859,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>204</v>
+        <v>259</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>205</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>21</v>
@@ -4848,14 +4875,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>289</v>
+        <v>33</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4865,49 +4892,148 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>204</v>
+        <v>292</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>244</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q108" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>293</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>221</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>28</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>294</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>295</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>296</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>18</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>28</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>213</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>214</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>297</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>298</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>28</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>213</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>253</v>
+      </c>
+      <c t="s" r="Q111" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="109" ht="25.5" customHeight="1">
-      <c r="P109" s="13">
-        <v>4752.4449999999997</v>
-      </c>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" ht="16.5" customHeight="1">
-      <c t="s" r="A110" s="14">
-        <v>290</v>
-      </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c t="s" r="G110" s="15">
-        <v>291</v>
-      </c>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="16"/>
-      <c t="s" r="K110" s="17">
-        <v>292</v>
-      </c>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="P112" s="13">
+        <v>4892.4449999999997</v>
+      </c>
+      <c r="Q112" s="13"/>
+    </row>
+    <row r="113" ht="16.5" customHeight="1">
+      <c t="s" r="A113" s="14">
+        <v>299</v>
+      </c>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c t="s" r="G113" s="15">
+        <v>300</v>
+      </c>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="16"/>
+      <c t="s" r="K113" s="17">
+        <v>301</v>
+      </c>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17"/>
+      <c r="O113" s="17"/>
+      <c r="P113" s="17"/>
+      <c r="Q113" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="522">
+  <mergeCells count="537">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5426,10 +5552,25 @@
     <mergeCell ref="H108:K108"/>
     <mergeCell ref="L108:M108"/>
     <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="K110:Q110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="K113:Q113"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -440,306 +440,312 @@
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>FLAVICEF 100MG/5ML PD. FOR ORAL SUSP. 30ML</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>FLUCAMOX 1GM VIAL</t>
+  </si>
+  <si>
     <t>7:0</t>
   </si>
   <si>
-    <t>26.00</t>
+    <t>16.50</t>
+  </si>
+  <si>
+    <t>29.7000</t>
+  </si>
+  <si>
+    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GLIMEPIRIDE PLUS 4/30 MG 30 SCORED TAB.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>123.0000</t>
+  </si>
+  <si>
+    <t>HERO BABY 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>256.00</t>
+  </si>
+  <si>
+    <t>256.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC N 457MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>HIDERM TOPICAL LOTION 100ML</t>
+  </si>
+  <si>
+    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>HYDROFERRIN 50MG/ML ORAL DROPS 30 ML</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>72.5000</t>
+  </si>
+  <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>MELOCAM 15MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>34.50</t>
+  </si>
+  <si>
+    <t>11.3850</t>
+  </si>
+  <si>
+    <t>MINALAX 10 TABLETS</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>MOMENTA CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>MOOV MASSAGE CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>NEUROVIT 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>OTAL EAR DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>PK-MERZ 100MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
+  </si>
+  <si>
+    <t>RAMIXOLE 1 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>159.00</t>
+  </si>
+  <si>
+    <t>159.0000</t>
+  </si>
+  <si>
+    <t>RHINEX 0.05% INFANTILE NASAL DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>RISPADEX 1MG/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>SINEMET 25/250 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>181.5450</t>
+  </si>
+  <si>
+    <t>TEKLO 30 TABS.</t>
+  </si>
+  <si>
+    <t>53.4600</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>VAPOZOL SOL. FOR INH. 30 ML</t>
+  </si>
+  <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>VECOVARTEC PLUS 40/12.5MG 21 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>VIBRAMYCIN 100MG 10 CAPS.</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
     <t>26.0000</t>
   </si>
   <si>
-    <t>FLAVICEF 100MG/5ML PD. FOR ORAL SUSP. 30ML</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>FLUCAMOX 1GM VIAL</t>
-  </si>
-  <si>
-    <t>16.50</t>
-  </si>
-  <si>
-    <t>29.7000</t>
-  </si>
-  <si>
-    <t>FOLIC ACID (MEPACO) 500 MCG 20 TABS</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GLIMEPIRIDE PLUS 4/30 MG 30 SCORED TAB.</t>
-  </si>
-  <si>
-    <t>123.00</t>
-  </si>
-  <si>
-    <t>123.0000</t>
-  </si>
-  <si>
-    <t>HERO BABY 2 MILK 400 GM</t>
-  </si>
-  <si>
-    <t>256.00</t>
-  </si>
-  <si>
-    <t>256.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC N 457MG/5ML SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>92.0000</t>
-  </si>
-  <si>
-    <t>HIDERM TOPICAL LOTION 100ML</t>
-  </si>
-  <si>
-    <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>HYDROFERRIN 50MG/ML ORAL DROPS 30 ML</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
-  </si>
-  <si>
-    <t>145.00</t>
-  </si>
-  <si>
-    <t>72.5000</t>
-  </si>
-  <si>
-    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>MELOCAM 15MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>34.50</t>
-  </si>
-  <si>
-    <t>11.3850</t>
-  </si>
-  <si>
-    <t>MINALAX 10 TABLETS</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>MOMENTA CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>MOOV MASSAGE CREAM 40 GM</t>
-  </si>
-  <si>
-    <t>NEUROVIT 6 I.M. AMPS</t>
-  </si>
-  <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>21.7800</t>
-  </si>
-  <si>
-    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
-  </si>
-  <si>
-    <t>ORS 10 SACHET</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>OTAL EAR DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>19.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>PK-MERZ 100MG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>81.0000</t>
-  </si>
-  <si>
-    <t>RAMIXOLE 1 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>159.00</t>
-  </si>
-  <si>
-    <t>159.0000</t>
-  </si>
-  <si>
-    <t>RHINEX 0.05% INFANTILE NASAL DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>RISPADEX 1MG/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>SINEMET 25/250 MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t>SPASMO-DIGESTIN 30 TABS.</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>136.50</t>
-  </si>
-  <si>
-    <t>181.5450</t>
-  </si>
-  <si>
-    <t>TEKLO 30 TABS.</t>
-  </si>
-  <si>
-    <t>53.4600</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>VAPOZOL SOL. FOR INH. 30 ML</t>
-  </si>
-  <si>
-    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
-  </si>
-  <si>
-    <t>VECOVARTEC PLUS 40/12.5MG 21 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>VIBRAMYCIN 100MG 10 CAPS.</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -908,7 +914,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 7:06 PM</t>
+    <t>Thursday, 14 August, 2025 7:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2869,7 +2875,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2879,14 +2885,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2895,7 +2901,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2912,11 +2918,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2928,14 +2934,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3463,7 +3469,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3859,21 +3865,21 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3885,14 +3891,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>221</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3902,11 +3908,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>47</v>
+        <v>219</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3918,14 +3924,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>33</v>
+        <v>222</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3935,11 +3941,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>93</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -3958,7 +3964,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3968,11 +3974,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>224</v>
+        <v>92</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -3984,14 +3990,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>227</v>
+        <v>23</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4001,14 +4007,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>29</v>
+        <v>225</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4017,14 +4023,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>21</v>
+        <v>228</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4034,14 +4040,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>230</v>
+        <v>29</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4050,14 +4056,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4067,14 +4073,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>68</v>
+        <v>231</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>99</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4083,14 +4089,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>143</v>
+        <v>33</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4100,14 +4106,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>80</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4123,7 +4129,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>33</v>
+        <v>149</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4156,7 +4162,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4166,14 +4172,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4189,7 +4195,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4199,14 +4205,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>238</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4215,14 +4221,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4232,11 +4238,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>240</v>
+        <v>106</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4248,14 +4254,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>202</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4265,11 +4271,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>144</v>
+        <v>241</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>145</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4288,7 +4294,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4298,14 +4304,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>244</v>
+        <v>143</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4314,14 +4320,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4331,14 +4337,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4347,14 +4353,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>18</v>
+        <v>249</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4364,14 +4370,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>113</v>
+        <v>250</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>251</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>18</v>
+        <v>75</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4387,7 +4393,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4404,7 +4410,7 @@
         <v>253</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4420,7 +4426,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4430,11 +4436,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>255</v>
+        <v>113</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
@@ -4446,28 +4452,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>258</v>
+        <v>75</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4479,14 +4485,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4496,11 +4502,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4512,14 +4518,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4529,11 +4535,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>153</v>
+        <v>265</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>154</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>21</v>
@@ -4562,11 +4568,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>269</v>
+        <v>153</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>270</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>21</v>
@@ -4578,14 +4584,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>270</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4595,11 +4601,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>34</v>
+        <v>271</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>35</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>21</v>
@@ -4611,14 +4617,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4628,11 +4634,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>21</v>
@@ -4644,14 +4650,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4661,14 +4667,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>248</v>
+        <v>24</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>274</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>275</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4677,7 +4683,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4694,14 +4700,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4710,14 +4716,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>281</v>
+        <v>33</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4727,14 +4733,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>21</v>
+        <v>281</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4743,14 +4749,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>33</v>
+        <v>283</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4760,11 +4766,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>21</v>
@@ -4776,14 +4782,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4793,14 +4799,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>34</v>
+        <v>287</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
         <v>288</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4816,7 +4822,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4826,11 +4832,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>168</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4842,14 +4848,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4859,14 +4865,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>259</v>
+        <v>65</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>260</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4875,7 +4881,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4892,11 +4898,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>200</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>21</v>
@@ -4915,7 +4921,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>221</v>
+        <v>33</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4929,10 +4935,10 @@
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>295</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>221</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4941,14 +4947,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>18</v>
+        <v>222</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4958,14 +4964,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>213</v>
+        <v>296</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>214</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>21</v>
+        <v>222</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -4974,14 +4980,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>298</v>
+        <v>18</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -4995,45 +5001,78 @@
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q111" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>299</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>300</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>28</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>213</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>255</v>
+      </c>
+      <c t="s" r="Q112" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="112" ht="25.5" customHeight="1">
-      <c r="P112" s="13">
-        <v>4892.4449999999997</v>
-      </c>
-      <c r="Q112" s="13"/>
-    </row>
-    <row r="113" ht="16.5" customHeight="1">
-      <c t="s" r="A113" s="14">
-        <v>299</v>
-      </c>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c t="s" r="G113" s="15">
-        <v>300</v>
-      </c>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
-      <c r="J113" s="16"/>
-      <c t="s" r="K113" s="17">
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="P113" s="13">
+        <v>4975.4449999999997</v>
+      </c>
+      <c r="Q113" s="13"/>
+    </row>
+    <row r="114" ht="16.5" customHeight="1">
+      <c t="s" r="A114" s="14">
         <v>301</v>
       </c>
-      <c r="L113" s="17"/>
-      <c r="M113" s="17"/>
-      <c r="N113" s="17"/>
-      <c r="O113" s="17"/>
-      <c r="P113" s="17"/>
-      <c r="Q113" s="17"/>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c t="s" r="G114" s="15">
+        <v>302</v>
+      </c>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="16"/>
+      <c t="s" r="K114" s="17">
+        <v>303</v>
+      </c>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="537">
+  <mergeCells count="542">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5567,10 +5606,15 @@
     <mergeCell ref="H111:K111"/>
     <mergeCell ref="L111:M111"/>
     <mergeCell ref="N111:O111"/>
-    <mergeCell ref="P112:Q112"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="K113:Q113"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="K114:Q114"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -818,6 +818,15 @@
     <t>51:0</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
     <t>حلمة ببرونه</t>
   </si>
   <si>
@@ -848,9 +857,6 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>3.00</t>
-  </si>
-  <si>
     <t>17.4000</t>
   </si>
   <si>
@@ -914,7 +920,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 7:10 PM</t>
+    <t>Thursday, 14 August, 2025 7:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4591,7 +4597,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>270</v>
+        <v>33</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4601,14 +4607,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4617,14 +4623,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>273</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4634,11 +4640,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>34</v>
+        <v>274</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>35</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>21</v>
@@ -4650,14 +4656,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4667,11 +4673,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>21</v>
@@ -4683,14 +4689,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4700,14 +4706,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>250</v>
+        <v>24</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>276</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>277</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4733,14 +4739,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
+        <v>279</v>
+      </c>
+      <c t="s" r="Q103" s="12">
         <v>280</v>
-      </c>
-      <c t="s" r="Q103" s="12">
-        <v>281</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4749,14 +4755,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>283</v>
+        <v>33</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4766,14 +4772,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>21</v>
+        <v>283</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4782,14 +4788,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>33</v>
+        <v>285</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4799,11 +4805,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>21</v>
@@ -4815,14 +4821,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4832,14 +4838,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>34</v>
+        <v>289</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
         <v>290</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4855,7 +4861,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4865,11 +4871,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>168</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4881,14 +4887,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4898,14 +4904,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>261</v>
+        <v>65</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>262</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4914,7 +4920,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4931,11 +4937,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>200</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>21</v>
@@ -4954,7 +4960,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>222</v>
+        <v>33</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4968,10 +4974,10 @@
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>297</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>222</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -4980,14 +4986,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>18</v>
+        <v>222</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -4997,14 +5003,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>213</v>
+        <v>298</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>214</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>21</v>
+        <v>222</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5013,14 +5019,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>300</v>
+        <v>18</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5034,45 +5040,78 @@
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
+        <v>214</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>301</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>302</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>28</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>213</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
         <v>255</v>
       </c>
-      <c t="s" r="Q112" s="12">
+      <c t="s" r="Q113" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="113" ht="24.75" customHeight="1">
-      <c r="P113" s="13">
-        <v>4975.4449999999997</v>
-      </c>
-      <c r="Q113" s="13"/>
-    </row>
-    <row r="114" ht="16.5" customHeight="1">
-      <c t="s" r="A114" s="14">
-        <v>301</v>
-      </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c t="s" r="G114" s="15">
-        <v>302</v>
-      </c>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="16"/>
-      <c t="s" r="K114" s="17">
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="P114" s="13">
+        <v>5021.4449999999997</v>
+      </c>
+      <c r="Q114" s="13"/>
+    </row>
+    <row r="115" ht="16.5" customHeight="1">
+      <c t="s" r="A115" s="14">
         <v>303</v>
       </c>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="17"/>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c t="s" r="G115" s="15">
+        <v>304</v>
+      </c>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="16"/>
+      <c t="s" r="K115" s="17">
+        <v>305</v>
+      </c>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="17"/>
+      <c r="P115" s="17"/>
+      <c r="Q115" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="542">
+  <mergeCells count="547">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5611,10 +5650,15 @@
     <mergeCell ref="H112:K112"/>
     <mergeCell ref="L112:M112"/>
     <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="K114:Q114"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="K115:Q115"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>1 2 3 (ONE TWO THREE) SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ADOLOR 30 MG 3 AMPS.</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>36.00</t>
   </si>
   <si>
@@ -74,9 +86,6 @@
     <t>46.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>AMRIZOLE 500 MG 20 TABS.</t>
   </si>
   <si>
@@ -293,6 +302,15 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>COUGHSED PARACETAMOL CHILDREN 12 SUPP</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
@@ -746,6 +764,15 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>VIVIDOL HAIR OIL 120 ML</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -920,7 +947,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 7:45 PM</t>
+    <t>Thursday, 14 August, 2025 7:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1594,7 +1621,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1604,14 +1631,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1620,14 +1647,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1637,11 +1664,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -1653,31 +1680,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1686,31 +1713,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1719,14 +1746,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1736,14 +1763,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1752,20 +1779,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1776,7 +1803,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1792,13 +1819,13 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1825,7 +1852,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1842,7 +1869,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1858,7 +1885,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1875,7 +1902,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1891,7 +1918,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1924,7 +1951,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1941,7 +1968,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1957,7 +1984,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1967,14 +1994,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1983,14 +2010,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2000,11 +2027,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -2016,31 +2043,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2056,13 +2083,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -2089,7 +2116,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2099,14 +2126,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2115,14 +2142,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2132,14 +2159,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2148,14 +2175,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2172,7 +2199,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2188,7 +2215,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2198,11 +2225,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2214,14 +2241,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2231,14 +2258,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2247,14 +2274,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2264,11 +2291,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2287,7 +2314,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2304,7 +2331,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2320,7 +2347,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2330,14 +2357,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2346,14 +2373,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2386,7 +2413,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2396,14 +2423,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>99</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2419,7 +2446,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2429,14 +2456,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2445,14 +2472,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2462,14 +2489,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2478,14 +2505,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2495,14 +2522,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2518,7 +2545,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2535,7 +2562,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2551,7 +2578,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2561,14 +2588,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>99</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2577,14 +2604,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2594,14 +2621,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2610,14 +2637,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2627,14 +2654,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2643,31 +2670,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2676,14 +2703,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2693,14 +2720,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>125</v>
-      </c>
-      <c t="s" r="Q41" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2716,13 +2743,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2733,7 +2760,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2749,13 +2776,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2766,7 +2793,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2782,7 +2809,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2799,7 +2826,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2815,24 +2842,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2841,14 +2868,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2858,14 +2885,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2874,14 +2901,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2898,7 +2925,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2914,7 +2941,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2931,7 +2958,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2947,7 +2974,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2957,14 +2984,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2973,14 +3000,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2990,14 +3017,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3006,14 +3033,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3030,7 +3057,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3046,7 +3073,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3056,14 +3083,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3072,14 +3099,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3089,14 +3116,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3105,14 +3132,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3122,14 +3149,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3145,7 +3172,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3162,7 +3189,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3178,7 +3205,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3195,7 +3222,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3211,7 +3238,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3221,14 +3248,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>50</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>51</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3237,14 +3264,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3254,14 +3281,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>30</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3270,14 +3297,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3287,14 +3314,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>53</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>157</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3303,14 +3330,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3320,14 +3347,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3336,14 +3363,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3353,11 +3380,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>113</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3369,14 +3396,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3386,11 +3413,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3402,14 +3429,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3419,14 +3446,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>119</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3442,7 +3469,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3459,7 +3486,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3475,7 +3502,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3485,14 +3512,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3501,14 +3528,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3518,14 +3545,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>50</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>51</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3534,14 +3561,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>155</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3551,14 +3578,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>73</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3567,14 +3594,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>194</v>
+        <v>36</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3584,14 +3611,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>53</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3600,14 +3627,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3617,14 +3644,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3633,14 +3660,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3650,14 +3677,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>65</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3666,14 +3693,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>202</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3683,14 +3710,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3699,14 +3726,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>136</v>
+        <v>205</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3716,14 +3743,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>170</v>
+        <v>68</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>20</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3732,31 +3759,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3765,14 +3792,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3782,14 +3809,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3805,13 +3832,13 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>205</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3822,7 +3849,7 @@
         <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>105</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3838,7 +3865,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3848,14 +3875,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>68</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3864,7 +3891,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3877,18 +3904,18 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3897,7 +3924,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3914,14 +3941,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>219</v>
+        <v>71</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3930,31 +3957,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>222</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3963,14 +3990,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3980,14 +4007,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>92</v>
+        <v>225</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>93</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3996,14 +4023,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>23</v>
+        <v>228</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4013,14 +4040,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>225</v>
+        <v>50</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4029,14 +4056,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>228</v>
+        <v>36</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4046,11 +4073,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>229</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4069,7 +4096,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4086,7 +4113,7 @@
         <v>232</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4102,7 +4129,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4112,14 +4139,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>99</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4128,14 +4155,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4145,14 +4172,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>79</v>
+        <v>237</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>80</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4161,14 +4188,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4178,14 +4205,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4194,14 +4221,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4211,11 +4238,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>190</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4227,14 +4254,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4244,14 +4271,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>239</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4260,14 +4287,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4277,14 +4304,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>241</v>
+        <v>18</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>242</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4293,14 +4320,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>202</v>
+        <v>36</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4310,14 +4337,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4326,14 +4353,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>228</v>
+        <v>20</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4343,11 +4370,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4359,14 +4386,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4376,14 +4403,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>250</v>
+        <v>149</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>75</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4392,14 +4419,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4409,14 +4436,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>113</v>
+        <v>252</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
         <v>253</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4432,7 +4459,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4442,14 +4469,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>113</v>
+        <v>255</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4458,14 +4485,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>75</v>
+        <v>258</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4475,14 +4502,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>78</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4491,31 +4518,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>260</v>
+        <v>22</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>261</v>
+        <v>119</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>262</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4531,24 +4558,24 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>264</v>
+        <v>36</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>265</v>
+        <v>119</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4557,31 +4584,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>268</v>
+        <v>78</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>153</v>
+        <v>266</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>154</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4590,20 +4617,20 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>33</v>
+        <v>269</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
@@ -4614,7 +4641,7 @@
         <v>271</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4636,7 +4663,7 @@
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
@@ -4647,7 +4674,7 @@
         <v>275</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4663,24 +4690,24 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>277</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>34</v>
+        <v>159</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4689,31 +4716,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>24</v>
+        <v>279</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>89</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4722,31 +4749,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>33</v>
+        <v>282</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>280</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4755,31 +4782,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>270</v>
+        <v>37</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>282</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>283</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4788,31 +4815,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>285</v>
+        <v>22</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>286</v>
+        <v>27</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>287</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4821,31 +4848,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>21</v>
+        <v>289</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4854,31 +4881,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>34</v>
+        <v>279</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
+        <v>291</v>
+      </c>
+      <c t="s" r="Q107" s="12">
         <v>292</v>
-      </c>
-      <c t="s" r="Q107" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4894,24 +4921,24 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>294</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>65</v>
+        <v>295</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>39</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4920,31 +4947,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>261</v>
+        <v>298</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4953,31 +4980,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>296</v>
+        <v>37</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>200</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -4986,31 +5013,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>222</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>298</v>
+        <v>68</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>299</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>222</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5019,31 +5046,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>213</v>
+        <v>270</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>214</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5052,66 +5079,165 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>302</v>
+        <v>36</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>213</v>
+        <v>305</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>255</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q113" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>306</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>228</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>31</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>307</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>308</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>309</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>22</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>31</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>219</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>220</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>310</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>311</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>31</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>219</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>264</v>
+      </c>
+      <c t="s" r="Q116" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="114" ht="25.5" customHeight="1">
-      <c r="P114" s="13">
-        <v>5021.4449999999997</v>
-      </c>
-      <c r="Q114" s="13"/>
-    </row>
-    <row r="115" ht="16.5" customHeight="1">
-      <c t="s" r="A115" s="14">
-        <v>303</v>
-      </c>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c t="s" r="G115" s="15">
-        <v>304</v>
-      </c>
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
-      <c r="J115" s="16"/>
-      <c t="s" r="K115" s="17">
-        <v>305</v>
-      </c>
-      <c r="L115" s="17"/>
-      <c r="M115" s="17"/>
-      <c r="N115" s="17"/>
-      <c r="O115" s="17"/>
-      <c r="P115" s="17"/>
-      <c r="Q115" s="17"/>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="P117" s="13">
+        <v>5222.4449999999997</v>
+      </c>
+      <c r="Q117" s="13"/>
+    </row>
+    <row r="118" ht="16.5" customHeight="1">
+      <c t="s" r="A118" s="14">
+        <v>312</v>
+      </c>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c t="s" r="G118" s="15">
+        <v>313</v>
+      </c>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="16"/>
+      <c t="s" r="K118" s="17">
+        <v>314</v>
+      </c>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="17"/>
+      <c r="P118" s="17"/>
+      <c r="Q118" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="547">
+  <mergeCells count="562">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5655,10 +5781,25 @@
     <mergeCell ref="H113:K113"/>
     <mergeCell ref="L113:M113"/>
     <mergeCell ref="N113:O113"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="G115:I115"/>
-    <mergeCell ref="K115:Q115"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="K118:Q118"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -206,6 +206,15 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>CALDIN C 30 TABS.</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -377,6 +386,18 @@
     <t>ELBAVIT WITH IRON SYRUP 60 ML</t>
   </si>
   <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>EMEREST 4MG/2ML 5 AMPOULES</t>
   </si>
   <si>
@@ -461,9 +482,6 @@
     <t>26.00</t>
   </si>
   <si>
-    <t>52.0000</t>
-  </si>
-  <si>
     <t>FLAVICEF 100MG/5ML PD. FOR ORAL SUSP. 30ML</t>
   </si>
   <si>
@@ -635,9 +653,6 @@
     <t>OTAL EAR DROPS 5 ML</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>19.00</t>
   </si>
   <si>
@@ -680,6 +695,15 @@
     <t>81.0000</t>
   </si>
   <si>
+    <t>PRAVOTIN 100MG 30 SACHETS</t>
+  </si>
+  <si>
+    <t>360.00</t>
+  </si>
+  <si>
+    <t>360.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
   </si>
   <si>
@@ -947,7 +971,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 7:48 PM</t>
+    <t>Thursday, 14 August, 2025 7:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2050,7 +2074,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2060,14 +2084,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2076,31 +2100,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2116,13 +2140,13 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -2133,7 +2157,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2149,7 +2173,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2159,14 +2183,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2175,14 +2199,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2192,11 +2216,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2208,14 +2232,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2248,7 +2272,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2258,14 +2282,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2274,14 +2298,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2291,14 +2315,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2307,14 +2331,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2324,14 +2348,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2347,7 +2371,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2380,7 +2404,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2390,14 +2414,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2406,14 +2430,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2430,7 +2454,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2446,7 +2470,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2479,7 +2503,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2489,14 +2513,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2512,7 +2536,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2526,10 +2550,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2538,14 +2562,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2555,11 +2579,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2578,7 +2602,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2611,7 +2635,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2644,7 +2668,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2654,14 +2678,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2670,14 +2694,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2687,14 +2711,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2703,14 +2727,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2720,14 +2744,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>125</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2736,20 +2760,20 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2776,7 +2800,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2793,7 +2817,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2802,31 +2826,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2835,31 +2859,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2868,14 +2892,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2885,14 +2909,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2901,20 +2925,20 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2925,7 +2949,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2941,7 +2965,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2958,7 +2982,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2974,7 +2998,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2984,14 +3008,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3000,14 +3024,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3017,14 +3041,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3033,14 +3057,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3054,10 +3078,10 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3066,14 +3090,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3083,11 +3107,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3099,14 +3123,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3123,7 +3147,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3139,7 +3163,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3149,11 +3173,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3165,14 +3189,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3182,14 +3206,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3198,7 +3222,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3215,7 +3239,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -3238,7 +3262,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3271,7 +3295,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3304,7 +3328,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3314,11 +3338,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>53</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>54</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3330,7 +3354,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3347,11 +3371,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>33</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3363,14 +3387,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3380,11 +3404,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>53</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>163</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3396,7 +3420,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3413,7 +3437,7 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3429,14 +3453,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3446,14 +3470,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>119</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3462,7 +3486,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3479,14 +3503,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3495,14 +3519,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3512,14 +3536,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3535,7 +3559,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3568,7 +3592,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3578,11 +3602,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>50</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3594,14 +3618,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3611,14 +3635,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>53</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>54</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3627,14 +3651,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>161</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3644,11 +3668,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>76</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3660,14 +3684,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>200</v>
+        <v>36</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3677,14 +3701,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>53</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3693,7 +3717,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3710,11 +3734,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3726,14 +3750,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3743,14 +3767,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>68</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3759,14 +3783,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>208</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3776,11 +3800,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>165</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3792,14 +3816,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>142</v>
+        <v>211</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3809,14 +3833,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>176</v>
+        <v>71</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>24</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3825,31 +3849,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>205</v>
+        <v>126</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3858,14 +3882,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>26</v>
+        <v>149</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3875,14 +3899,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3891,31 +3915,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>211</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3924,14 +3948,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3941,14 +3965,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>71</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3970,15 +3994,15 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3990,14 +4014,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4007,11 +4031,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>225</v>
+        <v>74</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4023,14 +4047,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>228</v>
+        <v>36</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4040,11 +4064,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>50</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4056,28 +4080,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>95</v>
+        <v>196</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>96</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4089,14 +4113,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4106,11 +4130,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4122,14 +4146,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4139,14 +4163,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4155,14 +4179,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4172,14 +4196,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>237</v>
+        <v>98</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4188,14 +4212,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4205,14 +4229,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>71</v>
+        <v>239</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4228,7 +4252,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>155</v>
+        <v>242</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4238,14 +4262,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>83</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4254,14 +4278,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4271,14 +4295,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>82</v>
+        <v>245</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>83</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4287,14 +4311,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4304,14 +4328,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>196</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>20</v>
+        <v>108</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4320,14 +4344,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4337,11 +4361,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>245</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4353,14 +4377,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4370,11 +4394,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>247</v>
+        <v>85</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>248</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4386,14 +4410,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4403,14 +4427,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>250</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4419,7 +4443,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4436,7 +4460,7 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>252</v>
+        <v>115</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
@@ -4459,7 +4483,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>234</v>
+        <v>20</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4476,7 +4500,7 @@
         <v>256</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4492,7 +4516,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>258</v>
+        <v>126</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4502,14 +4526,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>259</v>
+        <v>156</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4518,14 +4542,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4535,14 +4559,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4551,14 +4575,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>36</v>
+        <v>242</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4568,14 +4592,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>119</v>
+        <v>263</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
         <v>264</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4591,7 +4615,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>78</v>
+        <v>266</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4601,14 +4625,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4617,31 +4641,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>269</v>
+        <v>22</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>270</v>
+        <v>122</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4650,28 +4674,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>273</v>
+        <v>36</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>274</v>
+        <v>122</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4683,28 +4707,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>277</v>
+        <v>81</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>159</v>
+        <v>274</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>160</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4716,14 +4740,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>36</v>
+        <v>277</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4733,14 +4757,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4749,14 +4773,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4766,11 +4790,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4782,14 +4806,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>285</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4799,11 +4823,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>37</v>
+        <v>165</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4822,7 +4846,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4832,14 +4856,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>27</v>
+        <v>287</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>92</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4848,14 +4872,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>36</v>
+        <v>290</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4865,14 +4889,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>289</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4881,14 +4905,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4898,14 +4922,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>279</v>
+        <v>37</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>291</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>292</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4914,14 +4938,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>294</v>
+        <v>22</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4931,11 +4955,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>295</v>
+        <v>27</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>296</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4947,7 +4971,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -4964,14 +4988,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>297</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4980,14 +5004,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4997,14 +5021,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>37</v>
+        <v>287</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>12</v>
+        <v>300</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5013,14 +5037,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>302</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5030,14 +5054,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>68</v>
+        <v>303</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>42</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5046,7 +5070,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5063,11 +5087,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>271</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5079,14 +5103,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5096,14 +5120,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>305</v>
+        <v>37</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>206</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5112,14 +5136,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>228</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5129,14 +5153,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>307</v>
+        <v>71</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>308</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>228</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5145,14 +5169,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5162,11 +5186,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>219</v>
+        <v>278</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>220</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5178,14 +5202,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>311</v>
+        <v>36</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5195,49 +5219,148 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>219</v>
+        <v>313</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>264</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q116" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>314</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>236</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>31</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>315</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>316</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>317</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>22</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>31</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>224</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>225</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>318</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>319</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>31</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>224</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>272</v>
+      </c>
+      <c t="s" r="Q119" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="117" ht="25.5" customHeight="1">
-      <c r="P117" s="13">
-        <v>5222.4449999999997</v>
-      </c>
-      <c r="Q117" s="13"/>
-    </row>
-    <row r="118" ht="16.5" customHeight="1">
-      <c t="s" r="A118" s="14">
-        <v>312</v>
-      </c>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c t="s" r="G118" s="15">
-        <v>313</v>
-      </c>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="16"/>
-      <c t="s" r="K118" s="17">
-        <v>314</v>
-      </c>
-      <c r="L118" s="17"/>
-      <c r="M118" s="17"/>
-      <c r="N118" s="17"/>
-      <c r="O118" s="17"/>
-      <c r="P118" s="17"/>
-      <c r="Q118" s="17"/>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="P120" s="13">
+        <v>5729.4449999999997</v>
+      </c>
+      <c r="Q120" s="13"/>
+    </row>
+    <row r="121" ht="16.5" customHeight="1">
+      <c t="s" r="A121" s="14">
+        <v>320</v>
+      </c>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c t="s" r="G121" s="15">
+        <v>321</v>
+      </c>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="16"/>
+      <c t="s" r="K121" s="17">
+        <v>322</v>
+      </c>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
+      <c r="N121" s="17"/>
+      <c r="O121" s="17"/>
+      <c r="P121" s="17"/>
+      <c r="Q121" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="562">
+  <mergeCells count="577">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5796,10 +5919,25 @@
     <mergeCell ref="H116:K116"/>
     <mergeCell ref="L116:M116"/>
     <mergeCell ref="N116:O116"/>
-    <mergeCell ref="P117:Q117"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="G118:I118"/>
-    <mergeCell ref="K118:Q118"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="K121:Q121"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -620,6 +620,15 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
     <t>MOMENTA CREAM 30 GM</t>
   </si>
   <si>
@@ -737,9 +746,6 @@
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
-    <t>3:1</t>
-  </si>
-  <si>
     <t>25.7400</t>
   </si>
   <si>
@@ -899,10 +905,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>21.6000</t>
-  </si>
-  <si>
-    <t>10:1</t>
+    <t>23.6000</t>
+  </si>
+  <si>
+    <t>11:1</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -971,7 +977,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 7:54 PM</t>
+    <t>Thursday, 14 August, 2025 7:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3691,7 +3697,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>36</v>
+        <v>204</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3701,14 +3707,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>53</v>
+        <v>186</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>54</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3717,14 +3723,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3734,11 +3740,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3750,14 +3756,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>206</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3767,14 +3773,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>78</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3783,14 +3789,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3800,14 +3806,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>166</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3816,14 +3822,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>211</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3833,14 +3839,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3856,7 +3862,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>126</v>
+        <v>214</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3866,14 +3872,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>71</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3889,7 +3895,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3899,14 +3905,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>182</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>24</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3915,28 +3921,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>218</v>
+        <v>182</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>108</v>
@@ -3955,13 +3961,13 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>26</v>
+        <v>214</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
@@ -3972,7 +3978,7 @@
         <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>108</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3988,7 +3994,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4005,7 +4011,7 @@
         <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4021,7 +4027,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4031,11 +4037,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>74</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4047,14 +4053,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4064,7 +4070,7 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>74</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
@@ -4087,21 +4093,21 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>196</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4113,28 +4119,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4153,7 +4159,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>236</v>
+        <v>20</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4163,11 +4169,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>50</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4179,14 +4185,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>36</v>
+        <v>239</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4196,11 +4202,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>99</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4212,14 +4218,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4229,11 +4235,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>239</v>
+        <v>98</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>240</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4252,7 +4258,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>242</v>
+        <v>26</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4262,14 +4268,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>32</v>
+        <v>242</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4285,7 +4291,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>204</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4295,14 +4301,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>245</v>
+        <v>32</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4311,14 +4317,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4328,14 +4334,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>74</v>
+        <v>247</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>248</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>108</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4351,7 +4357,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>161</v>
+        <v>36</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4361,14 +4367,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>86</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4377,14 +4383,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4410,14 +4416,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4427,14 +4433,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>202</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4443,14 +4449,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4460,14 +4466,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>253</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4483,7 +4489,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4493,11 +4499,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>255</v>
+        <v>115</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4509,14 +4515,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>126</v>
+        <v>20</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4526,7 +4532,7 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>156</v>
+        <v>257</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
@@ -4549,7 +4555,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>36</v>
+        <v>126</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4559,11 +4565,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>260</v>
+        <v>156</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4575,14 +4581,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>242</v>
+        <v>36</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4592,14 +4598,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4608,14 +4614,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>266</v>
+        <v>204</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4625,14 +4631,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>81</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4641,14 +4647,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>22</v>
+        <v>268</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4658,14 +4664,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>122</v>
+        <v>269</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
         <v>270</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>22</v>
+        <v>81</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4681,7 +4687,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4698,7 +4704,7 @@
         <v>272</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4714,7 +4720,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4724,11 +4730,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>274</v>
+        <v>122</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4740,28 +4746,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>277</v>
+        <v>81</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4773,14 +4779,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4790,11 +4796,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4806,14 +4812,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4823,11 +4829,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>165</v>
+        <v>284</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>166</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4846,7 +4852,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>36</v>
+        <v>287</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4856,14 +4862,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>288</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4872,14 +4878,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>290</v>
+        <v>36</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4889,14 +4895,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4905,14 +4911,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>292</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4922,11 +4928,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>37</v>
+        <v>293</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>38</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4938,14 +4944,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4955,11 +4961,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4971,14 +4977,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4988,14 +4994,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>267</v>
+        <v>27</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>296</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>297</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5004,7 +5010,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5021,14 +5027,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
+        <v>298</v>
+      </c>
+      <c t="s" r="Q110" s="12">
         <v>299</v>
-      </c>
-      <c t="s" r="Q110" s="12">
-        <v>300</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5037,14 +5043,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>302</v>
+        <v>36</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5054,14 +5060,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>302</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5070,14 +5076,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>36</v>
+        <v>304</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5087,11 +5093,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5103,14 +5109,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5120,14 +5126,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>37</v>
+        <v>308</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
         <v>309</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5143,7 +5149,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5153,14 +5159,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>42</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5169,14 +5175,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5186,14 +5192,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>278</v>
+        <v>71</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>279</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5202,7 +5208,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5219,11 +5225,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>313</v>
+        <v>280</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>212</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5242,7 +5248,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>236</v>
+        <v>36</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5256,10 +5262,10 @@
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>316</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>236</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5268,14 +5274,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>22</v>
+        <v>239</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5285,14 +5291,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>224</v>
+        <v>317</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>225</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>239</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5301,14 +5307,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>319</v>
+        <v>22</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5318,49 +5324,82 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>272</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q119" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>320</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>321</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>31</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>227</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>274</v>
+      </c>
+      <c t="s" r="Q120" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="120" ht="24.75" customHeight="1">
-      <c r="P120" s="13">
-        <v>5729.4449999999997</v>
-      </c>
-      <c r="Q120" s="13"/>
-    </row>
-    <row r="121" ht="16.5" customHeight="1">
-      <c t="s" r="A121" s="14">
-        <v>320</v>
-      </c>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c t="s" r="G121" s="15">
-        <v>321</v>
-      </c>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="16"/>
-      <c t="s" r="K121" s="17">
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="P121" s="13">
+        <v>5744.3149999999996</v>
+      </c>
+      <c r="Q121" s="13"/>
+    </row>
+    <row r="122" ht="16.5" customHeight="1">
+      <c t="s" r="A122" s="14">
         <v>322</v>
       </c>
-      <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-      <c r="N121" s="17"/>
-      <c r="O121" s="17"/>
-      <c r="P121" s="17"/>
-      <c r="Q121" s="17"/>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c t="s" r="G122" s="15">
+        <v>323</v>
+      </c>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="16"/>
+      <c t="s" r="K122" s="17">
+        <v>324</v>
+      </c>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+      <c r="N122" s="17"/>
+      <c r="O122" s="17"/>
+      <c r="P122" s="17"/>
+      <c r="Q122" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="577">
+  <mergeCells count="582">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5934,10 +5973,15 @@
     <mergeCell ref="H119:K119"/>
     <mergeCell ref="L119:M119"/>
     <mergeCell ref="N119:O119"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="K121:Q121"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="K122:Q122"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -977,7 +977,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 7:55 PM</t>
+    <t>Thursday, 14 August, 2025 8:12 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -881,9 +881,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>6.0000</t>
-  </si>
-  <si>
     <t>حلمة ببرونه</t>
   </si>
   <si>
@@ -977,7 +974,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 8:12 PM</t>
+    <t>Thursday, 14 August, 2025 8:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4899,10 +4896,10 @@
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>239</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4911,14 +4908,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4928,11 +4925,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4944,7 +4941,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4977,7 +4974,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5010,7 +5007,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5031,10 +5028,10 @@
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
+        <v>297</v>
+      </c>
+      <c t="s" r="Q110" s="12">
         <v>298</v>
-      </c>
-      <c t="s" r="Q110" s="12">
-        <v>299</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5043,7 +5040,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5064,10 +5061,10 @@
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
+        <v>300</v>
+      </c>
+      <c t="s" r="Q111" s="12">
         <v>301</v>
-      </c>
-      <c t="s" r="Q111" s="12">
-        <v>302</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5076,14 +5073,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5093,11 +5090,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5109,7 +5106,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5126,11 +5123,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5142,7 +5139,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5163,7 +5160,7 @@
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5175,7 +5172,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5208,7 +5205,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5241,7 +5238,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5258,7 +5255,7 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
@@ -5274,7 +5271,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5291,11 +5288,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>239</v>
@@ -5307,7 +5304,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5340,14 +5337,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5369,13 +5366,13 @@
     </row>
     <row r="121" ht="25.5" customHeight="1">
       <c r="P121" s="13">
-        <v>5744.3149999999996</v>
+        <v>5750.3149999999996</v>
       </c>
       <c r="Q121" s="13"/>
     </row>
     <row r="122" ht="16.5" customHeight="1">
       <c t="s" r="A122" s="14">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B122" s="14"/>
       <c r="C122" s="14"/>
@@ -5383,13 +5380,13 @@
       <c r="E122" s="14"/>
       <c r="F122" s="14"/>
       <c t="s" r="G122" s="15">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H122" s="15"/>
       <c r="I122" s="15"/>
       <c r="J122" s="16"/>
       <c t="s" r="K122" s="17">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L122" s="17"/>
       <c r="M122" s="17"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -149,6 +149,18 @@
     <t>189.0000</t>
   </si>
   <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>7.6800</t>
+  </si>
+  <si>
     <t>BEPRA 20MG 14 F.C. TAB.</t>
   </si>
   <si>
@@ -194,6 +206,33 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>BUDELIZER 400MCG 60 INH. CAPS. +INHALER DEVICE</t>
+  </si>
+  <si>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>255.00</t>
+  </si>
+  <si>
+    <t>84.1500</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>BUSCOPAN 20MG/ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>8.1600</t>
+  </si>
+  <si>
     <t>CALAMYL LOTION 100 ML</t>
   </si>
   <si>
@@ -335,9 +374,6 @@
     <t>23.7600</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -377,9 +413,6 @@
     <t>10:2</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>31.6800</t>
   </si>
   <si>
@@ -578,6 +611,18 @@
     <t>44.00</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
   </si>
   <si>
@@ -806,9 +851,6 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>51.00</t>
-  </si>
-  <si>
     <t>16.8300</t>
   </si>
   <si>
@@ -821,9 +863,6 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>12.0000</t>
-  </si>
-  <si>
     <t>XORIN 1GM VIAL</t>
   </si>
   <si>
@@ -848,15 +887,12 @@
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
-    <t>31:0</t>
+    <t>30:0</t>
   </si>
   <si>
     <t>15.00</t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>بودره نلج اكياس</t>
   </si>
   <si>
@@ -872,7 +908,7 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>51:0</t>
+    <t>50:0</t>
   </si>
   <si>
     <t>حبايه</t>
@@ -911,10 +947,7 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>17.4000</t>
-  </si>
-  <si>
-    <t>5:1</t>
+    <t>20.4000</t>
   </si>
   <si>
     <t>سرنجات انسولين</t>
@@ -962,7 +995,7 @@
     <t>27.00</t>
   </si>
   <si>
-    <t>108.0000</t>
+    <t>135.0000</t>
   </si>
   <si>
     <t>محلول رينجر</t>
@@ -974,7 +1007,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 8:17 PM</t>
+    <t>Thursday, 14 August, 2025 8:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1879,7 +1912,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1889,11 +1922,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>20</v>
@@ -1905,14 +1938,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1922,14 +1955,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1938,14 +1971,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1955,14 +1988,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1971,14 +2004,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1988,14 +2021,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2004,14 +2037,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2021,11 +2054,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>20</v>
@@ -2037,14 +2070,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2061,7 +2094,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2077,7 +2110,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2087,14 +2120,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2103,14 +2136,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2120,11 +2153,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>20</v>
@@ -2136,28 +2169,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -2169,14 +2202,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2186,14 +2219,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2202,14 +2235,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2219,14 +2252,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2235,28 +2268,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2268,14 +2301,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2285,14 +2318,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2301,14 +2334,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2318,14 +2351,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2334,14 +2367,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2351,11 +2384,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2367,14 +2400,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2384,14 +2417,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2400,14 +2433,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2417,11 +2450,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>20</v>
@@ -2433,14 +2466,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2450,11 +2483,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2466,7 +2499,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2483,11 +2516,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -2499,14 +2532,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2516,11 +2549,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2532,14 +2565,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2549,14 +2582,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2565,14 +2598,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2582,11 +2615,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2598,14 +2631,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2615,11 +2648,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>20</v>
@@ -2631,14 +2664,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2648,14 +2681,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2664,14 +2697,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2681,11 +2714,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2697,14 +2730,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2714,14 +2747,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>108</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2730,14 +2763,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2747,14 +2780,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2763,14 +2796,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2780,14 +2813,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2796,14 +2829,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2813,14 +2846,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>132</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2829,28 +2862,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2869,7 +2902,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2879,11 +2912,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2895,14 +2928,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2912,14 +2945,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>108</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2928,14 +2961,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2945,14 +2978,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2961,14 +2994,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2978,11 +3011,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2994,14 +3027,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3011,14 +3044,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3027,31 +3060,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>108</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3060,14 +3093,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3077,14 +3110,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3093,14 +3126,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3110,14 +3143,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3126,14 +3159,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>36</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3143,14 +3176,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>26</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3159,14 +3192,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3176,14 +3209,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3192,7 +3225,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3209,14 +3242,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3225,14 +3258,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>36</v>
+        <v>172</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3242,14 +3275,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3258,14 +3291,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3275,11 +3308,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3291,14 +3324,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3308,14 +3341,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3324,14 +3357,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3345,7 +3378,7 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3357,14 +3390,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3374,11 +3407,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3390,7 +3423,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3407,11 +3440,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>54</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3423,7 +3456,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3440,11 +3473,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>33</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3456,7 +3489,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3473,11 +3506,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3489,14 +3522,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3506,11 +3539,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>57</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3522,14 +3555,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3539,14 +3572,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>122</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3555,7 +3588,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3572,14 +3605,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3588,14 +3621,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>201</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3605,14 +3638,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3621,14 +3654,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3638,14 +3671,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3654,14 +3687,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>161</v>
+        <v>30</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3671,14 +3704,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3687,14 +3720,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>204</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3704,11 +3737,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -3720,14 +3753,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3737,11 +3770,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>53</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>54</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3753,14 +3786,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3770,14 +3803,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>78</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3786,14 +3819,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3803,14 +3836,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>54</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3819,14 +3852,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>219</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3836,14 +3869,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3852,14 +3885,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>214</v>
+        <v>36</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3869,14 +3902,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3885,14 +3918,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3902,11 +3935,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>91</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3918,14 +3951,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>149</v>
+        <v>224</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3935,14 +3968,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>182</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>24</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>108</v>
+        <v>69</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3951,31 +3984,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>214</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>176</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3984,14 +4017,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4001,14 +4034,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>84</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4017,14 +4050,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4034,11 +4067,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4050,14 +4083,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4067,14 +4100,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>74</v>
+        <v>193</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4083,31 +4116,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>36</v>
+        <v>229</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4116,31 +4149,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>196</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>197</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4149,14 +4182,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4166,11 +4199,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4182,14 +4215,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>239</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4199,11 +4232,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>202</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4215,7 +4248,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4232,11 +4265,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>98</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>99</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4248,28 +4281,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4281,14 +4314,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>204</v>
+        <v>20</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4298,14 +4331,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>32</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4314,14 +4347,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>254</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4331,14 +4364,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>247</v>
+        <v>54</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4347,7 +4380,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4364,14 +4397,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>250</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4380,14 +4413,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>161</v>
+        <v>26</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4397,11 +4430,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>85</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>86</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4413,14 +4446,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>36</v>
+        <v>219</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4430,14 +4463,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>86</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4446,14 +4479,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4463,14 +4496,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>18</v>
+        <v>262</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>202</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4479,7 +4512,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4496,14 +4529,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4512,14 +4545,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4529,11 +4562,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>257</v>
+        <v>98</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>258</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4545,14 +4578,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4562,11 +4595,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>260</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4578,14 +4611,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4595,14 +4628,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>262</v>
+        <v>18</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>263</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4611,14 +4644,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4628,14 +4661,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>265</v>
+        <v>127</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4644,14 +4677,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>268</v>
+        <v>20</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4661,14 +4694,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>81</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4677,14 +4710,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4694,14 +4727,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>122</v>
+        <v>167</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4710,7 +4743,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4727,11 +4760,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>122</v>
+        <v>277</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4743,14 +4776,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>81</v>
+        <v>219</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4760,14 +4793,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>276</v>
+        <v>72</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4776,31 +4809,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>281</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4809,31 +4842,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>283</v>
+        <v>22</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>284</v>
+        <v>48</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
         <v>285</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4849,21 +4882,21 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>287</v>
+        <v>36</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>165</v>
+        <v>48</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>166</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4882,13 +4915,13 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
@@ -4896,10 +4929,10 @@
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>239</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4908,14 +4941,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4925,14 +4958,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>293</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4948,7 +4981,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>295</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4958,11 +4991,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>37</v>
+        <v>296</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>38</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4974,14 +5007,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>22</v>
+        <v>299</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4991,14 +5024,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>27</v>
+        <v>176</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5007,7 +5040,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5024,14 +5057,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>297</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>298</v>
+        <v>254</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5040,14 +5073,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>36</v>
+        <v>303</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5057,14 +5090,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>301</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5073,14 +5106,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>303</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5090,11 +5123,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>304</v>
+        <v>37</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>305</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5106,14 +5139,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5123,11 +5156,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>307</v>
+        <v>27</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>308</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5139,14 +5172,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5156,14 +5189,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>37</v>
+        <v>283</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
+        <v>309</v>
+      </c>
+      <c t="s" r="Q114" s="12">
         <v>310</v>
-      </c>
-      <c t="s" r="Q114" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5179,7 +5212,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5189,14 +5222,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>71</v>
+        <v>301</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>42</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5205,14 +5238,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>36</v>
+        <v>314</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5222,11 +5255,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5238,7 +5271,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5255,11 +5288,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>215</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5271,14 +5304,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>239</v>
+        <v>16</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5288,14 +5321,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>316</v>
+        <v>37</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>239</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5304,14 +5337,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5321,14 +5354,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>227</v>
+        <v>84</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>228</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5337,14 +5370,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>320</v>
+        <v>36</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5354,49 +5387,181 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>227</v>
+        <v>293</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>274</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
-      <c r="P121" s="13">
-        <v>5750.3149999999996</v>
-      </c>
-      <c r="Q121" s="13"/>
-    </row>
-    <row r="122" ht="16.5" customHeight="1">
-      <c t="s" r="A122" s="14">
-        <v>321</v>
-      </c>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c t="s" r="G122" s="15">
-        <v>322</v>
-      </c>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="16"/>
-      <c t="s" r="K122" s="17">
-        <v>323</v>
-      </c>
-      <c r="L122" s="17"/>
-      <c r="M122" s="17"/>
-      <c r="N122" s="17"/>
-      <c r="O122" s="17"/>
-      <c r="P122" s="17"/>
-      <c r="Q122" s="17"/>
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>324</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>36</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>31</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>325</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>230</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>326</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>22</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>31</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>327</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>328</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>329</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>22</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>31</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>242</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>243</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>330</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>331</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>31</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>242</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>287</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="P125" s="13">
+        <v>5942.3050000000003</v>
+      </c>
+      <c r="Q125" s="13"/>
+    </row>
+    <row r="126" ht="16.5" customHeight="1">
+      <c t="s" r="A126" s="14">
+        <v>332</v>
+      </c>
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c t="s" r="G126" s="15">
+        <v>333</v>
+      </c>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="16"/>
+      <c t="s" r="K126" s="17">
+        <v>334</v>
+      </c>
+      <c r="L126" s="17"/>
+      <c r="M126" s="17"/>
+      <c r="N126" s="17"/>
+      <c r="O126" s="17"/>
+      <c r="P126" s="17"/>
+      <c r="Q126" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="582">
+  <mergeCells count="602">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5975,10 +6140,30 @@
     <mergeCell ref="H120:K120"/>
     <mergeCell ref="L120:M120"/>
     <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="K122:Q122"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="P125:Q125"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="K126:Q126"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -470,6 +470,15 @@
     <t>23.0400</t>
   </si>
   <si>
+    <t>ESMORAP 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
     <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
   </si>
   <si>
@@ -503,9 +512,6 @@
     <t>FERROTRON 30 CAPS</t>
   </si>
   <si>
-    <t>138.00</t>
-  </si>
-  <si>
     <t>91.0800</t>
   </si>
   <si>
@@ -1007,7 +1013,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 8:20 PM</t>
+    <t>Thursday, 14 August, 2025 8:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3067,13 +3073,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -3084,7 +3090,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3100,13 +3106,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -3117,7 +3123,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3133,7 +3139,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>160</v>
+        <v>22</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3143,14 +3149,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3159,14 +3165,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>36</v>
+        <v>163</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3183,7 +3189,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3199,7 +3205,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3209,14 +3215,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3232,7 +3238,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3246,10 +3252,10 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3258,14 +3264,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>172</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3275,14 +3281,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3291,14 +3297,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>75</v>
+        <v>174</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3308,14 +3314,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3324,14 +3330,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3341,14 +3347,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3357,14 +3363,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3374,14 +3380,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3407,11 +3413,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3423,7 +3429,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3440,11 +3446,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3456,14 +3462,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3473,11 +3479,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3489,7 +3495,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3506,11 +3512,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3522,14 +3528,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3539,11 +3545,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>57</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>58</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3555,14 +3561,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3572,11 +3578,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>57</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3609,7 +3615,7 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>180</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3628,7 +3634,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>201</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3638,14 +3644,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3654,14 +3660,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>203</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3671,14 +3677,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>33</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3687,14 +3693,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3704,14 +3710,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>48</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3727,7 +3733,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3737,11 +3743,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>48</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -3753,14 +3759,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3770,14 +3776,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3786,14 +3792,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3803,14 +3809,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3819,14 +3825,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>172</v>
+        <v>69</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3836,14 +3842,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>54</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3859,7 +3865,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3869,14 +3875,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>197</v>
+        <v>54</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3885,14 +3891,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>36</v>
+        <v>221</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3902,14 +3908,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>57</v>
+        <v>199</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>58</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3918,14 +3924,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3935,11 +3941,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3951,14 +3957,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>224</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3968,14 +3974,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>91</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3984,14 +3990,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>226</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4001,14 +4007,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>177</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4017,14 +4023,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>229</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4034,14 +4040,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>84</v>
+        <v>178</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4050,14 +4056,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>137</v>
+        <v>231</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4067,14 +4073,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>84</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4083,14 +4089,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4100,14 +4106,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>193</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>24</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4116,28 +4122,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>229</v>
+        <v>163</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>195</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>69</v>
@@ -4149,31 +4155,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>26</v>
+        <v>231</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4182,14 +4188,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4199,14 +4205,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4215,14 +4221,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4232,7 +4238,7 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>87</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
@@ -4255,7 +4261,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4265,11 +4271,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>87</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4281,28 +4287,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>211</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>212</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4314,28 +4320,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4347,14 +4353,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>254</v>
+        <v>20</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4364,11 +4370,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>54</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>217</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4387,7 +4393,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>36</v>
+        <v>256</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4397,11 +4403,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>112</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4413,14 +4419,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4430,11 +4436,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>257</v>
+        <v>111</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4446,14 +4452,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>219</v>
+        <v>26</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4463,14 +4469,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>32</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4486,7 +4492,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>221</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4496,14 +4502,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>262</v>
+        <v>32</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4512,14 +4518,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4529,14 +4535,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>87</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
         <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>69</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4552,7 +4558,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4562,14 +4568,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>99</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4578,14 +4584,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>36</v>
+        <v>174</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4611,14 +4617,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4628,14 +4634,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>217</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4644,14 +4650,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4661,14 +4667,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>270</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4684,7 +4690,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4694,11 +4700,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>272</v>
+        <v>127</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4710,14 +4716,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4727,7 +4733,7 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>167</v>
+        <v>274</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
@@ -4750,7 +4756,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4760,11 +4766,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>277</v>
+        <v>169</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4776,14 +4782,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>219</v>
+        <v>36</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4793,14 +4799,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>72</v>
+        <v>279</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
         <v>280</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4816,7 +4822,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>282</v>
+        <v>221</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4826,14 +4832,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>283</v>
+        <v>72</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>203</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>94</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4842,14 +4848,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>22</v>
+        <v>284</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4859,14 +4865,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>48</v>
+        <v>285</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>285</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>22</v>
+        <v>94</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4882,7 +4888,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4899,7 +4905,7 @@
         <v>287</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4915,7 +4921,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4925,11 +4931,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>289</v>
+        <v>48</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4941,31 +4947,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>292</v>
+        <v>94</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>158</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4974,14 +4980,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4991,14 +4997,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>297</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5007,14 +5013,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5024,14 +5030,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>176</v>
+        <v>298</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>85</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5047,7 +5053,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>36</v>
+        <v>301</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5057,14 +5063,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>301</v>
+        <v>178</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>203</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>254</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5080,7 +5086,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>303</v>
+        <v>36</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5090,14 +5096,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>305</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>256</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5106,14 +5112,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>305</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5123,11 +5129,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>37</v>
+        <v>306</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>38</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5139,14 +5145,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5156,11 +5162,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5172,14 +5178,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5189,14 +5195,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>283</v>
+        <v>27</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>309</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>310</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5205,7 +5211,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5222,14 +5228,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
+        <v>311</v>
+      </c>
+      <c t="s" r="Q115" s="12">
         <v>312</v>
-      </c>
-      <c t="s" r="Q115" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5245,7 +5251,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>314</v>
+        <v>36</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5255,14 +5261,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5271,14 +5277,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>36</v>
+        <v>316</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5288,11 +5294,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5304,14 +5310,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5321,14 +5327,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>37</v>
+        <v>320</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
         <v>321</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5344,7 +5350,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5354,14 +5360,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>42</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5370,14 +5376,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5387,14 +5393,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>293</v>
+        <v>84</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>158</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5403,7 +5409,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5420,14 +5426,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>230</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5443,7 +5449,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5457,10 +5463,10 @@
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>328</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>137</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5469,7 +5475,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5486,14 +5492,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>242</v>
+        <v>329</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>243</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>16</v>
+        <v>137</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5502,14 +5508,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>331</v>
+        <v>22</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5519,49 +5525,82 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>287</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q124" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>332</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>333</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>31</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>244</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>289</v>
+      </c>
+      <c t="s" r="Q125" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="125" ht="24.75" customHeight="1">
-      <c r="P125" s="13">
-        <v>5942.3050000000003</v>
-      </c>
-      <c r="Q125" s="13"/>
-    </row>
-    <row r="126" ht="16.5" customHeight="1">
-      <c t="s" r="A126" s="14">
-        <v>332</v>
-      </c>
-      <c r="B126" s="14"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
-      <c t="s" r="G126" s="15">
-        <v>333</v>
-      </c>
-      <c r="H126" s="15"/>
-      <c r="I126" s="15"/>
-      <c r="J126" s="16"/>
-      <c t="s" r="K126" s="17">
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="P126" s="13">
+        <v>6011.3050000000003</v>
+      </c>
+      <c r="Q126" s="13"/>
+    </row>
+    <row r="127" ht="16.5" customHeight="1">
+      <c t="s" r="A127" s="14">
         <v>334</v>
       </c>
-      <c r="L126" s="17"/>
-      <c r="M126" s="17"/>
-      <c r="N126" s="17"/>
-      <c r="O126" s="17"/>
-      <c r="P126" s="17"/>
-      <c r="Q126" s="17"/>
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c t="s" r="G127" s="15">
+        <v>335</v>
+      </c>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="16"/>
+      <c t="s" r="K127" s="17">
+        <v>336</v>
+      </c>
+      <c r="L127" s="17"/>
+      <c r="M127" s="17"/>
+      <c r="N127" s="17"/>
+      <c r="O127" s="17"/>
+      <c r="P127" s="17"/>
+      <c r="Q127" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="602">
+  <mergeCells count="607">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6160,10 +6199,15 @@
     <mergeCell ref="H124:K124"/>
     <mergeCell ref="L124:M124"/>
     <mergeCell ref="N124:O124"/>
-    <mergeCell ref="P125:Q125"/>
-    <mergeCell ref="A126:F126"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="K126:Q126"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="P126:Q126"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="G127:I127"/>
+    <mergeCell ref="K127:Q127"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -1013,7 +1013,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 8:21 PM</t>
+    <t>Thursday, 14 August, 2025 8:22 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -86,6 +86,21 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>AMARYL 4 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>179.2800</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
     <t>AMRIZOLE 500 MG 20 TABS.</t>
   </si>
   <si>
@@ -440,9 +455,6 @@
     <t>-22.5000</t>
   </si>
   <si>
-    <t>0:-1</t>
-  </si>
-  <si>
     <t>EMPIR G CAPS</t>
   </si>
   <si>
@@ -500,9 +512,6 @@
     <t>FEBURIC 80MG 30 F.C. TABLETS</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>139.50</t>
   </si>
   <si>
@@ -725,9 +734,6 @@
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
-    <t>108.00</t>
-  </si>
-  <si>
     <t>54.0000</t>
   </si>
   <si>
@@ -1013,7 +1019,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 8:22 PM</t>
+    <t>Thursday, 14 August, 2025 8:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1770,7 +1776,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1779,20 +1785,20 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -1803,7 +1809,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1812,20 +1818,20 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1836,7 +1842,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1845,14 +1851,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1862,11 +1868,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1878,28 +1884,28 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1911,31 +1917,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1944,14 +1950,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1961,11 +1967,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>20</v>
@@ -1977,14 +1983,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1994,14 +2000,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2010,14 +2016,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2027,14 +2033,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2043,14 +2049,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2060,14 +2066,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2076,14 +2082,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2093,11 +2099,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>20</v>
@@ -2109,14 +2115,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2126,14 +2132,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2166,7 +2172,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2175,14 +2181,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2192,14 +2198,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2208,14 +2214,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2225,11 +2231,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -2241,14 +2247,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2258,14 +2264,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2274,31 +2280,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2307,31 +2313,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2340,14 +2346,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2357,14 +2363,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2373,14 +2379,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2390,11 +2396,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2406,14 +2412,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2423,11 +2429,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2439,14 +2445,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2456,14 +2462,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2472,14 +2478,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2489,14 +2495,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2505,14 +2511,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2522,14 +2528,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2538,14 +2544,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2555,11 +2561,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2571,14 +2577,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2588,14 +2594,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2604,14 +2610,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2621,14 +2627,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2637,14 +2643,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2654,11 +2660,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>20</v>
@@ -2670,14 +2676,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2687,14 +2693,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2703,14 +2709,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2724,10 +2730,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2736,14 +2742,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2753,11 +2759,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2769,14 +2775,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2786,11 +2792,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2802,14 +2808,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2819,11 +2825,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
@@ -2835,14 +2841,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2852,14 +2858,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>48</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2868,14 +2874,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2885,14 +2891,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2901,14 +2907,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2918,11 +2924,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2934,14 +2940,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>69</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2951,14 +2957,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>143</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2967,31 +2973,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3000,28 +3006,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -3033,14 +3039,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3050,14 +3056,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3066,14 +3072,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3083,14 +3089,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3099,31 +3105,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3132,31 +3138,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3165,14 +3171,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>163</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3189,7 +3195,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3205,7 +3211,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3215,14 +3221,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3231,14 +3237,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3248,14 +3254,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3264,14 +3270,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3281,14 +3287,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3304,7 +3310,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>174</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3314,14 +3320,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3330,14 +3336,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3354,7 +3360,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3370,7 +3376,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3387,7 +3393,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3403,7 +3409,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3413,14 +3419,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3429,14 +3435,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3446,7 +3452,7 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3469,7 +3475,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3502,7 +3508,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3568,7 +3574,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3578,11 +3584,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>57</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>58</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3594,14 +3600,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3611,11 +3617,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>62</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3627,7 +3633,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3644,11 +3650,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>182</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3660,14 +3666,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>203</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3681,10 +3687,10 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3693,14 +3699,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>206</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3710,14 +3716,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>33</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3726,14 +3732,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3743,14 +3749,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>48</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3759,14 +3765,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3776,7 +3782,7 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>53</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
@@ -3799,7 +3805,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3816,7 +3822,7 @@
         <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3832,7 +3838,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3849,7 +3855,7 @@
         <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3865,7 +3871,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>174</v>
+        <v>74</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3875,14 +3881,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>54</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3891,14 +3897,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3908,14 +3914,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>199</v>
+        <v>59</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3931,7 +3937,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>36</v>
+        <v>224</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3941,14 +3947,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>57</v>
+        <v>202</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>58</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3957,14 +3963,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3974,11 +3980,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3990,14 +3996,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>226</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4007,14 +4013,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>96</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4023,14 +4029,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>229</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4040,14 +4046,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>178</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>179</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4056,14 +4062,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>231</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4073,14 +4079,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>84</v>
+        <v>181</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4096,7 +4102,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>137</v>
+        <v>234</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4106,14 +4112,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>89</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4129,7 +4135,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4139,14 +4145,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>195</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>24</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4155,31 +4161,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>231</v>
+        <v>29</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>198</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4195,24 +4201,24 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>26</v>
+        <v>234</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>27</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>20</v>
+        <v>74</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4221,14 +4227,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4238,14 +4244,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4254,14 +4260,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4271,7 +4277,7 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>87</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
@@ -4294,7 +4300,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4304,11 +4310,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>92</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4320,28 +4326,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>213</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4353,28 +4359,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>216</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4386,14 +4392,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>256</v>
+        <v>20</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4403,11 +4409,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>54</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>219</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4426,7 +4432,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>36</v>
+        <v>258</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4436,11 +4442,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>112</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4452,14 +4458,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4469,11 +4475,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>116</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>260</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4485,14 +4491,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>221</v>
+        <v>31</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4502,14 +4508,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>32</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
         <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4525,7 +4531,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>224</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4535,14 +4541,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>37</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4551,14 +4557,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4568,14 +4574,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>87</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>69</v>
+        <v>31</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4591,7 +4597,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>174</v>
+        <v>41</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4601,14 +4607,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>99</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4617,14 +4623,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>36</v>
+        <v>177</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4634,11 +4640,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4650,14 +4656,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4667,14 +4673,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>219</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4683,14 +4689,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4700,14 +4706,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4723,7 +4729,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4733,11 +4739,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>274</v>
+        <v>132</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4749,14 +4755,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4766,7 +4772,7 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>169</v>
+        <v>276</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
@@ -4789,7 +4795,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4799,11 +4805,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>279</v>
+        <v>172</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4815,14 +4821,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>221</v>
+        <v>41</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4832,14 +4838,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>72</v>
+        <v>281</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
         <v>282</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4855,7 +4861,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>284</v>
+        <v>224</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4865,14 +4871,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>285</v>
+        <v>77</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>205</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>94</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4881,14 +4887,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>22</v>
+        <v>286</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4898,14 +4904,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>48</v>
+        <v>287</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>287</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4921,7 +4927,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4931,14 +4937,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
         <v>289</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4954,7 +4960,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4964,11 +4970,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>291</v>
+        <v>53</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4980,31 +4986,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>294</v>
+        <v>99</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>161</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5013,31 +5019,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>299</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5046,31 +5052,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>178</v>
+        <v>300</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>85</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5086,24 +5092,24 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>36</v>
+        <v>303</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>303</v>
+        <v>181</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>205</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>256</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5119,24 +5125,24 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>305</v>
+        <v>41</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>307</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>258</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5145,28 +5151,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>37</v>
+        <v>308</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>38</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5178,28 +5184,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5211,31 +5217,31 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>285</v>
+        <v>32</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>311</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>312</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5244,31 +5250,31 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
+        <v>313</v>
+      </c>
+      <c t="s" r="Q116" s="12">
         <v>314</v>
-      </c>
-      <c t="s" r="Q116" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5284,24 +5290,24 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>316</v>
+        <v>41</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5310,28 +5316,28 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>36</v>
+        <v>318</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5343,31 +5349,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>37</v>
+        <v>322</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
         <v>323</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5383,24 +5389,24 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>42</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5409,31 +5415,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>295</v>
+        <v>89</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>161</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5442,31 +5448,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>232</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5482,13 +5488,13 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
@@ -5496,10 +5502,10 @@
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>330</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>137</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5508,7 +5514,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5521,18 +5527,18 @@
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>244</v>
+        <v>331</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>245</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>16</v>
+        <v>142</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5541,66 +5547,99 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>333</v>
+        <v>22</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>289</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q125" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>334</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>335</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>36</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>246</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>291</v>
+      </c>
+      <c t="s" r="Q126" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="126" ht="25.5" customHeight="1">
-      <c r="P126" s="13">
-        <v>6011.3050000000003</v>
-      </c>
-      <c r="Q126" s="13"/>
-    </row>
-    <row r="127" ht="16.5" customHeight="1">
-      <c t="s" r="A127" s="14">
-        <v>334</v>
-      </c>
-      <c r="B127" s="14"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
-      <c t="s" r="G127" s="15">
-        <v>335</v>
-      </c>
-      <c r="H127" s="15"/>
-      <c r="I127" s="15"/>
-      <c r="J127" s="16"/>
-      <c t="s" r="K127" s="17">
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="P127" s="13">
+        <v>6190.585</v>
+      </c>
+      <c r="Q127" s="13"/>
+    </row>
+    <row r="128" ht="16.5" customHeight="1">
+      <c t="s" r="A128" s="14">
         <v>336</v>
       </c>
-      <c r="L127" s="17"/>
-      <c r="M127" s="17"/>
-      <c r="N127" s="17"/>
-      <c r="O127" s="17"/>
-      <c r="P127" s="17"/>
-      <c r="Q127" s="17"/>
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c t="s" r="G128" s="15">
+        <v>337</v>
+      </c>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="16"/>
+      <c t="s" r="K128" s="17">
+        <v>338</v>
+      </c>
+      <c r="L128" s="17"/>
+      <c r="M128" s="17"/>
+      <c r="N128" s="17"/>
+      <c r="O128" s="17"/>
+      <c r="P128" s="17"/>
+      <c r="Q128" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="607">
+  <mergeCells count="612">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6204,10 +6243,15 @@
     <mergeCell ref="H125:K125"/>
     <mergeCell ref="L125:M125"/>
     <mergeCell ref="N125:O125"/>
-    <mergeCell ref="P126:Q126"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="G127:I127"/>
-    <mergeCell ref="K127:Q127"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="P127:Q127"/>
+    <mergeCell ref="A128:F128"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="K128:Q128"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -89,370 +89,370 @@
     <t>AMARYL 4 MG 30 TABS</t>
   </si>
   <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>179.2800</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>AMRIZOLE 500 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>12.5000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTODINE20    6 AMP</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>ARBATEG 2% SUSP. 100ML</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>ATOMOXAPEX 18MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>AZHA ROLL ON</t>
+  </si>
+  <si>
+    <t>189.00</t>
+  </si>
+  <si>
+    <t>189.0000</t>
+  </si>
+  <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>7.6800</t>
+  </si>
+  <si>
+    <t>BEPRA 20MG 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>154.50</t>
+  </si>
+  <si>
+    <t>50.9850</t>
+  </si>
+  <si>
+    <t>BETADERM 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>BETADINE ANTISEPTIC SOLN. 10% 60 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>BETASERC 16MG 60 TAB</t>
+  </si>
+  <si>
+    <t>219.00</t>
+  </si>
+  <si>
+    <t>72.2700</t>
+  </si>
+  <si>
+    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>BUDELIZER 400MCG 60 INH. CAPS. +INHALER DEVICE</t>
+  </si>
+  <si>
+    <t>3:4</t>
+  </si>
+  <si>
+    <t>255.00</t>
+  </si>
+  <si>
+    <t>84.1500</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>BUSCOPAN 20MG/ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>8.1600</t>
+  </si>
+  <si>
+    <t>CALAMYL LOTION 100 ML</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>CALDIN C 30 TABS.</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>19.2000</t>
+  </si>
+  <si>
+    <t>CERELAC قمح وتفاح بدون لبن</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>CETAFEN PLUS 30 TAB.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>COBAL F 500/200MCG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>COLI-URINAL EFF. GR. 60 GM</t>
+  </si>
+  <si>
+    <t>COLONA 30 F.C.TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>COUGHSED PARACETAMOL CHILDREN 12 SUPP</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>DIOSED-C 20 TABS.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>DOGMATIL 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>10:2</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>ELBAVIT WITH IRON SYRUP 60 ML</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>EMEREST 4MG/2ML 5 AMPOULES</t>
+  </si>
+  <si>
+    <t>112.50</t>
+  </si>
+  <si>
+    <t>-22.5000</t>
+  </si>
+  <si>
     <t>0:-1</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>179.2800</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>AMRIZOLE 500 MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>12.5000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTODINE20    6 AMP</t>
-  </si>
-  <si>
-    <t>6:1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>ARBATEG 2% SUSP. 100ML</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>ATOMOXAPEX 18MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>AZHA ROLL ON</t>
-  </si>
-  <si>
-    <t>189.00</t>
-  </si>
-  <si>
-    <t>189.0000</t>
-  </si>
-  <si>
-    <t>B-COM I.M./I.V. 6 AMP</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>7.6800</t>
-  </si>
-  <si>
-    <t>BEPRA 20MG 14 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>154.50</t>
-  </si>
-  <si>
-    <t>50.9850</t>
-  </si>
-  <si>
-    <t>BETADERM 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>BETADINE ANTISEPTIC SOLN. 10% 60 ML</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>BETASERC 16MG 60 TAB</t>
-  </si>
-  <si>
-    <t>219.00</t>
-  </si>
-  <si>
-    <t>72.2700</t>
-  </si>
-  <si>
-    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>BUDELIZER 400MCG 60 INH. CAPS. +INHALER DEVICE</t>
-  </si>
-  <si>
-    <t>3:4</t>
-  </si>
-  <si>
-    <t>255.00</t>
-  </si>
-  <si>
-    <t>84.1500</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>BUSCOPAN 20MG/ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>8.1600</t>
-  </si>
-  <si>
-    <t>CALAMYL LOTION 100 ML</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>CALDIN C 30 TABS.</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>19.2000</t>
-  </si>
-  <si>
-    <t>CERELAC قمح وتفاح بدون لبن</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>CETAFEN PLUS 30 TAB.</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
-    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>13.00</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>CETAL 250MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>COBAL F 500/200MCG 30 F.C. TAB</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>COLI-URINAL EFF. GR. 60 GM</t>
-  </si>
-  <si>
-    <t>COLONA 30 F.C.TAB</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t>CONGESTAL 20 TABS</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>COUGHSED PARACETAMOL CHILDREN 12 SUPP</t>
-  </si>
-  <si>
-    <t>58.00</t>
-  </si>
-  <si>
-    <t>29.0000</t>
-  </si>
-  <si>
-    <t>DANSET 4MG/2ML 3 AMP</t>
-  </si>
-  <si>
-    <t>82.50</t>
-  </si>
-  <si>
-    <t>27.2250</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>DIOSED-C 20 TABS.</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>DOGMATIL 50MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>10:2</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>ELBAVIT WITH IRON SYRUP 60 ML</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>EMEREST 4MG/2ML 5 AMPOULES</t>
-  </si>
-  <si>
-    <t>112.50</t>
-  </si>
-  <si>
-    <t>-22.5000</t>
   </si>
   <si>
     <t>EMPIR G CAPS</t>
@@ -1858,7 +1858,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1868,11 +1868,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1884,14 +1884,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1901,11 +1901,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1917,14 +1917,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1934,11 +1934,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1950,14 +1950,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1967,11 +1967,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>20</v>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -2000,11 +2000,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>20</v>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -2033,11 +2033,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -2049,14 +2049,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2066,11 +2066,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -2082,7 +2082,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -2099,11 +2099,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>20</v>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -2132,11 +2132,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>20</v>
@@ -2148,14 +2148,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2165,14 +2165,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>73</v>
-      </c>
-      <c t="s" r="Q22" s="12">
-        <v>74</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2181,14 +2181,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2198,11 +2198,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -2214,14 +2214,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2231,11 +2231,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -2247,14 +2247,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2264,11 +2264,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2297,11 +2297,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>20</v>
@@ -2313,14 +2313,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2330,11 +2330,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2346,14 +2346,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2363,11 +2363,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>20</v>
@@ -2379,14 +2379,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2396,11 +2396,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2412,14 +2412,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2429,11 +2429,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2445,14 +2445,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2462,11 +2462,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2478,7 +2478,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2495,11 +2495,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>20</v>
@@ -2511,14 +2511,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2528,11 +2528,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2561,11 +2561,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2594,11 +2594,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2610,14 +2610,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2627,11 +2627,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2660,11 +2660,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>20</v>
@@ -2676,7 +2676,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2693,11 +2693,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>20</v>
@@ -2709,14 +2709,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2730,10 +2730,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2742,14 +2742,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2792,11 +2792,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2808,7 +2808,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2825,11 +2825,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
@@ -2841,14 +2841,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2858,11 +2858,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2874,14 +2874,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2891,14 +2891,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2924,11 +2924,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2940,14 +2940,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2957,11 +2957,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2973,14 +2973,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2990,14 +2990,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q47" s="12">
         <v>147</v>
-      </c>
-      <c t="s" r="Q47" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3013,7 +3013,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3096,7 +3096,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3145,7 +3145,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3162,7 +3162,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3244,7 +3244,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3261,7 +3261,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3277,7 +3277,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3291,7 +3291,7 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3376,7 +3376,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3442,7 +3442,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3475,7 +3475,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3508,7 +3508,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3607,7 +3607,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3617,11 +3617,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3782,7 +3782,7 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
@@ -3871,7 +3871,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3914,7 +3914,7 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
@@ -3970,7 +3970,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3980,11 +3980,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -4013,11 +4013,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4053,7 +4053,7 @@
         <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4112,14 +4112,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4135,7 +4135,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4185,7 +4185,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4218,7 +4218,7 @@
         <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4310,7 +4310,7 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
@@ -4333,7 +4333,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4442,7 +4442,7 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
@@ -4465,7 +4465,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4475,11 +4475,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4597,7 +4597,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4607,14 +4607,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4640,11 +4640,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4663,7 +4663,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4673,11 +4673,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4729,7 +4729,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4739,7 +4739,7 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
@@ -4795,7 +4795,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4828,7 +4828,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
@@ -4911,7 +4911,7 @@
         <v>208</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4937,7 +4937,7 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
@@ -4960,7 +4960,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4970,7 +4970,7 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
@@ -4993,7 +4993,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5106,7 +5106,7 @@
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5125,7 +5125,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5201,11 +5201,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5238,7 +5238,7 @@
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5257,7 +5257,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5290,7 +5290,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5356,7 +5356,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5399,7 +5399,7 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
@@ -5432,11 +5432,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>22</v>
@@ -5455,7 +5455,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5488,7 +5488,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5538,7 +5538,7 @@
         <v>332</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -1019,7 +1019,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 8:24 PM</t>
+    <t>Thursday, 14 August, 2025 8:30 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -218,6 +218,15 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>BRUFEN 100MG/5ML SYRUP 150ML</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>BUDELIZER 400MCG 60 INH. CAPS. +INHALER DEVICE</t>
   </si>
   <si>
@@ -371,6 +380,9 @@
     <t>29.0000</t>
   </si>
   <si>
+    <t>DALOLIFE 10 SACHET</t>
+  </si>
+  <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
@@ -401,6 +413,12 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
     <t>DIOSED-C 20 TABS.</t>
   </si>
   <si>
@@ -539,6 +557,15 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t>FLUCA EYE SUSP. DROP 5 ML</t>
+  </si>
+  <si>
+    <t>45.50</t>
+  </si>
+  <si>
+    <t>45.5000</t>
+  </si>
+  <si>
     <t>FLUCAMOX 1GM VIAL</t>
   </si>
   <si>
@@ -566,9 +593,6 @@
     <t>22.00</t>
   </si>
   <si>
-    <t>44.0000</t>
-  </si>
-  <si>
     <t>GARAMYCIN 0.1% OINT. 15 GM</t>
   </si>
   <si>
@@ -617,15 +641,9 @@
     <t>HYDRAWELL ORAL REHYDRATION SOLUTION 240 ML</t>
   </si>
   <si>
-    <t>39.00</t>
-  </si>
-  <si>
     <t>HYDROFERRIN 50MG/ML ORAL DROPS 30 ML</t>
   </si>
   <si>
-    <t>44.00</t>
-  </si>
-  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -707,6 +725,27 @@
     <t>21.7800</t>
   </si>
   <si>
+    <t>NEW-CLAV EXTRA STRENGTH 642.9MG/5ML 50ML SUSP.</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>NEXICURE 10 MG SACHET</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>79.8000</t>
+  </si>
+  <si>
+    <t>0:8</t>
+  </si>
+  <si>
     <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
   </si>
   <si>
@@ -773,6 +812,15 @@
     <t xml:space="preserve">PREDSOL 5 MG /5ML  SYRUP</t>
   </si>
   <si>
+    <t>PRIVACOND EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
     <t>RAMIXOLE 1 MG 30 TAB.</t>
   </si>
   <si>
@@ -854,9 +902,6 @@
     <t>VIVIDOL HAIR OIL 120 ML</t>
   </si>
   <si>
-    <t>140.00</t>
-  </si>
-  <si>
     <t>140.0000</t>
   </si>
   <si>
@@ -869,12 +914,15 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8399:0</t>
+    <t>8397:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
+    <t>16.0000</t>
+  </si>
+  <si>
     <t>XORIN 1GM VIAL</t>
   </si>
   <si>
@@ -1019,7 +1067,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 8:30 PM</t>
+    <t>Thursday, 14 August, 2025 8:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2155,7 +2203,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2165,14 +2213,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2181,14 +2229,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2198,14 +2246,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2214,14 +2262,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2231,14 +2279,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2247,14 +2295,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2287,7 +2335,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2297,14 +2345,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2313,31 +2361,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2353,13 +2401,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -2370,7 +2418,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2386,7 +2434,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2396,14 +2444,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2412,14 +2460,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2429,11 +2477,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2445,14 +2493,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2485,7 +2533,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2495,14 +2543,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2511,14 +2559,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2528,14 +2576,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2544,14 +2592,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2561,14 +2609,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2584,7 +2632,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2617,7 +2665,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2627,14 +2675,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2643,14 +2691,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2667,7 +2715,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2683,7 +2731,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2716,24 +2764,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2742,14 +2790,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2759,11 +2807,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>19</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2782,7 +2830,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2792,14 +2840,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2808,14 +2856,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2825,11 +2873,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>20</v>
@@ -2841,14 +2889,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2858,11 +2906,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2874,14 +2922,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2891,14 +2939,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>52</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2907,14 +2955,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2924,14 +2972,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>88</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2940,14 +2988,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2957,14 +3005,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2973,14 +3021,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2990,14 +3038,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>52</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>147</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3006,28 +3054,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -3039,14 +3087,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3056,11 +3104,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -3072,14 +3120,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3089,14 +3137,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>73</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3105,31 +3153,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3138,31 +3186,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3171,14 +3219,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3188,14 +3236,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3204,14 +3252,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3221,11 +3269,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>20</v>
@@ -3237,31 +3285,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3270,14 +3318,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3287,14 +3335,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3303,14 +3351,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3320,14 +3368,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3336,14 +3384,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3353,14 +3401,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>31</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3369,14 +3417,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3386,14 +3434,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3402,7 +3450,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3419,14 +3467,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3435,7 +3483,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3452,11 +3500,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3468,14 +3516,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>186</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3485,14 +3533,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3501,14 +3549,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3518,11 +3566,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3534,7 +3582,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3551,14 +3599,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3567,14 +3615,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3584,11 +3632,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3600,7 +3648,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3617,11 +3665,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>61</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>62</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3633,14 +3681,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3650,11 +3698,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>38</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3666,7 +3714,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3683,11 +3731,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3706,7 +3754,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>206</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3716,14 +3764,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3732,14 +3780,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3749,11 +3797,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>61</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3765,14 +3813,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3782,14 +3830,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>52</v>
+        <v>135</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3798,7 +3846,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3815,14 +3863,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>70</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3831,14 +3879,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>212</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3848,14 +3896,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3864,14 +3912,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3881,14 +3929,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>135</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3897,14 +3945,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>177</v>
+        <v>35</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3914,14 +3962,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3930,14 +3978,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>224</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3947,11 +3995,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -3963,14 +4011,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3980,11 +4028,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>61</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>62</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3996,14 +4044,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4013,14 +4061,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>95</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>96</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4029,14 +4077,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>229</v>
+        <v>186</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4046,14 +4094,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>58</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4062,14 +4110,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>230</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4079,14 +4127,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>181</v>
+        <v>135</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4095,14 +4143,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>234</v>
+        <v>26</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4112,14 +4160,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4128,14 +4176,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4145,11 +4193,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>98</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4161,14 +4209,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>29</v>
+        <v>235</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4178,14 +4226,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>24</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4194,31 +4242,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>234</v>
+        <v>26</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>27</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4227,31 +4275,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
+        <v>243</v>
+      </c>
+      <c t="s" r="Q85" s="12">
         <v>244</v>
-      </c>
-      <c t="s" r="Q85" s="12">
-        <v>20</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4267,7 +4315,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4277,11 +4325,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>190</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4293,14 +4341,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>247</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4314,10 +4362,10 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4326,14 +4374,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>26</v>
+        <v>147</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4343,11 +4391,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4359,31 +4407,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4392,31 +4440,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>20</v>
+        <v>247</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>27</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4425,14 +4473,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>258</v>
+        <v>31</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4442,14 +4490,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>58</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4458,14 +4506,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4475,11 +4523,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>115</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>116</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4491,14 +4539,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4508,7 +4556,7 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>261</v>
+        <v>94</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
@@ -4531,7 +4579,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>224</v>
+        <v>26</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4541,14 +4589,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>37</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4557,31 +4605,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4590,7 +4638,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4607,14 +4655,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>91</v>
+        <v>268</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4630,7 +4678,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>177</v>
+        <v>20</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4640,11 +4688,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>102</v>
+        <v>271</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>103</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4656,14 +4704,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>26</v>
+        <v>274</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4673,11 +4721,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>103</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4689,14 +4737,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4706,14 +4754,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>222</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4722,14 +4770,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4739,11 +4787,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>131</v>
+        <v>277</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4755,14 +4803,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>20</v>
+        <v>230</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4772,14 +4820,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>276</v>
+        <v>37</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4788,14 +4836,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4805,14 +4853,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>172</v>
+        <v>282</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4821,7 +4869,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4838,14 +4886,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>281</v>
+        <v>94</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4854,14 +4902,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>224</v>
+        <v>186</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4871,14 +4919,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>284</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4887,14 +4935,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>286</v>
+        <v>26</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4904,14 +4952,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>287</v>
+        <v>105</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>208</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4927,7 +4975,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4937,14 +4985,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>289</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4953,7 +5001,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4970,11 +5018,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4986,14 +5034,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5003,11 +5051,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5019,31 +5067,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>296</v>
+        <v>147</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>297</v>
+        <v>178</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>165</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5052,28 +5100,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>299</v>
+        <v>26</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>300</v>
+        <v>242</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5085,31 +5133,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>303</v>
+        <v>230</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>89</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5118,31 +5166,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>26</v>
+        <v>301</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>208</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>258</v>
+        <v>97</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5151,31 +5199,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>307</v>
+        <v>22</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>308</v>
+        <v>52</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5184,28 +5232,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>42</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5217,28 +5265,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>32</v>
+        <v>309</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>112</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5250,14 +5298,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>26</v>
+        <v>312</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5267,14 +5315,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>313</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>314</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5283,14 +5331,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>26</v>
+        <v>315</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5300,14 +5348,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5316,14 +5364,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5333,14 +5381,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>319</v>
+        <v>190</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>320</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5349,7 +5397,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5366,14 +5414,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>323</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>274</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5382,14 +5430,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>16</v>
+        <v>323</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5399,14 +5447,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>41</v>
+        <v>324</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
         <v>325</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5432,14 +5480,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5455,7 +5503,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5465,14 +5513,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>297</v>
+        <v>32</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5498,14 +5546,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>235</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>16</v>
+        <v>330</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5514,14 +5562,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5531,14 +5579,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
         <v>332</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>141</v>
+        <v>35</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5554,7 +5602,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>22</v>
+        <v>334</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5564,11 +5612,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>246</v>
+        <v>335</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>247</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5580,14 +5628,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>335</v>
+        <v>26</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5597,49 +5645,280 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>246</v>
+        <v>338</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>291</v>
+        <v>339</v>
       </c>
       <c t="s" r="Q126" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>340</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>16</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>36</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>41</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>341</v>
+      </c>
+      <c t="s" r="Q127" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="127" ht="25.5" customHeight="1">
-      <c r="P127" s="13">
-        <v>6190.585</v>
-      </c>
-      <c r="Q127" s="13"/>
-    </row>
-    <row r="128" ht="16.5" customHeight="1">
-      <c t="s" r="A128" s="14">
-        <v>336</v>
-      </c>
-      <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c t="s" r="G128" s="15">
-        <v>337</v>
-      </c>
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
-      <c r="J128" s="16"/>
-      <c t="s" r="K128" s="17">
-        <v>338</v>
-      </c>
-      <c r="L128" s="17"/>
-      <c r="M128" s="17"/>
-      <c r="N128" s="17"/>
-      <c r="O128" s="17"/>
-      <c r="P128" s="17"/>
-      <c r="Q128" s="17"/>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>342</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>12</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>36</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>91</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>343</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>26</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>36</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>313</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>171</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>344</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>26</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>36</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>345</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>248</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>346</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>22</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>36</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>347</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>348</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
+        <v>349</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>22</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>36</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>259</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>260</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
+        <v>350</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>351</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>36</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>259</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>307</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="P134" s="13">
+        <v>6654.8850000000002</v>
+      </c>
+      <c r="Q134" s="13"/>
+    </row>
+    <row r="135" ht="16.5" customHeight="1">
+      <c t="s" r="A135" s="14">
+        <v>352</v>
+      </c>
+      <c r="B135" s="14"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="14"/>
+      <c t="s" r="G135" s="15">
+        <v>353</v>
+      </c>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="16"/>
+      <c t="s" r="K135" s="17">
+        <v>354</v>
+      </c>
+      <c r="L135" s="17"/>
+      <c r="M135" s="17"/>
+      <c r="N135" s="17"/>
+      <c r="O135" s="17"/>
+      <c r="P135" s="17"/>
+      <c r="Q135" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="612">
+  <mergeCells count="647">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6248,10 +6527,45 @@
     <mergeCell ref="H126:K126"/>
     <mergeCell ref="L126:M126"/>
     <mergeCell ref="N126:O126"/>
-    <mergeCell ref="P127:Q127"/>
-    <mergeCell ref="A128:F128"/>
-    <mergeCell ref="G128:I128"/>
-    <mergeCell ref="K128:Q128"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="P134:Q134"/>
+    <mergeCell ref="A135:F135"/>
+    <mergeCell ref="G135:I135"/>
+    <mergeCell ref="K135:Q135"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -941,7 +941,7 @@
     <t>96.00</t>
   </si>
   <si>
-    <t>96.0000</t>
+    <t>192.0000</t>
   </si>
   <si>
     <t>بلاستر مترسيلك 2 سم</t>
@@ -5272,7 +5272,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5289,7 +5289,7 @@
         <v>310</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5888,7 +5888,7 @@
     </row>
     <row r="134" ht="25.5" customHeight="1">
       <c r="P134" s="13">
-        <v>6654.8850000000002</v>
+        <v>6750.8850000000002</v>
       </c>
       <c r="Q134" s="13"/>
     </row>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -1067,7 +1067,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 8:32 PM</t>
+    <t>Thursday, 14 August, 2025 8:36 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -275,6 +275,15 @@
     <t>95.0000</t>
   </si>
   <si>
+    <t>CAL-HEPARINE 5000 I.U. 3 AMP</t>
+  </si>
+  <si>
+    <t>198.00</t>
+  </si>
+  <si>
+    <t>198.0000</t>
+  </si>
+  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -998,10 +1007,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>23.6000</t>
-  </si>
-  <si>
-    <t>11:1</t>
+    <t>29.6000</t>
+  </si>
+  <si>
+    <t>14:1</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1043,6 +1052,12 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>مبرد اظافر</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>مجموعه برد</t>
   </si>
   <si>
@@ -1067,7 +1082,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 8:36 PM</t>
+    <t>Thursday, 14 August, 2025 8:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2368,7 +2383,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2378,14 +2393,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2394,31 +2409,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2434,13 +2449,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -2451,7 +2466,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2467,7 +2482,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2477,14 +2492,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2493,14 +2508,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2510,11 +2525,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2526,14 +2541,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2566,7 +2581,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2576,14 +2591,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2592,14 +2607,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2609,14 +2624,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2625,14 +2640,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2642,14 +2657,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2665,7 +2680,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2698,7 +2713,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2708,14 +2723,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2724,14 +2739,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2748,7 +2763,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2764,24 +2779,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2790,31 +2805,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2830,7 +2845,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2840,14 +2855,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>76</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2856,14 +2871,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2877,10 +2892,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2889,14 +2904,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2906,11 +2921,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>20</v>
@@ -2929,7 +2944,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2943,10 +2958,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2955,14 +2970,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2972,14 +2987,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2995,7 +3010,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3028,7 +3043,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3038,14 +3053,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>76</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3061,7 +3076,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3071,14 +3086,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3087,14 +3102,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3104,11 +3119,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -3120,14 +3135,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3144,7 +3159,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>153</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3153,31 +3168,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q51" s="12">
         <v>156</v>
-      </c>
-      <c t="s" r="Q51" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3193,13 +3208,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -3226,7 +3241,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3243,7 +3258,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3259,7 +3274,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3276,7 +3291,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3292,13 +3307,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -3309,7 +3324,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>76</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3325,13 +3340,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3342,7 +3357,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3358,7 +3373,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3375,7 +3390,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3391,7 +3406,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3401,14 +3416,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>76</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3417,14 +3432,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3434,14 +3449,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3450,14 +3465,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3467,14 +3482,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3490,7 +3505,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3523,7 +3538,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>186</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3533,14 +3548,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3549,14 +3564,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>82</v>
+        <v>189</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3573,7 +3588,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3589,7 +3604,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3603,10 +3618,10 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>71</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3615,14 +3630,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3632,14 +3647,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3648,7 +3663,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3665,7 +3680,7 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3721,7 +3736,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3787,7 +3802,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3797,11 +3812,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>61</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>62</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3813,14 +3828,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3830,11 +3845,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>135</v>
+        <v>61</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3846,7 +3861,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3863,11 +3878,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3879,14 +3894,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3896,14 +3911,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>70</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3912,14 +3927,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3929,14 +3944,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>135</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>38</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3945,14 +3960,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3962,14 +3977,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3978,14 +3993,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3995,7 +4010,7 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>52</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
@@ -4018,7 +4033,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4035,7 +4050,7 @@
         <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4051,7 +4066,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4068,7 +4083,7 @@
         <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4084,7 +4099,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>186</v>
+        <v>76</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4094,14 +4109,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>58</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4110,14 +4125,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>230</v>
+        <v>189</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4127,14 +4142,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4150,7 +4165,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4160,14 +4175,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>61</v>
+        <v>138</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4176,14 +4191,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4193,11 +4208,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4209,14 +4224,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>235</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4226,14 +4241,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>101</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4242,14 +4257,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>26</v>
+        <v>238</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4266,7 +4281,7 @@
         <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4282,13 +4297,13 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
@@ -4299,7 +4314,7 @@
         <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>244</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4308,7 +4323,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4321,18 +4336,18 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>190</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>191</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>247</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4341,14 +4356,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>247</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4358,14 +4373,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>91</v>
+        <v>193</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4381,7 +4396,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>147</v>
+        <v>250</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4391,14 +4406,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>94</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4414,7 +4429,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4424,14 +4439,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>206</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>24</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4440,28 +4455,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>247</v>
+        <v>29</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>27</v>
+        <v>209</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>76</v>
@@ -4473,31 +4488,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>27</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
         <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4513,7 +4528,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4530,7 +4545,7 @@
         <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4546,7 +4561,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4556,11 +4571,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>94</v>
+        <v>262</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4572,14 +4587,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4589,7 +4604,7 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>97</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
@@ -4612,21 +4627,21 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>222</v>
+        <v>267</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>223</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4638,28 +4653,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>268</v>
+        <v>225</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>269</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4678,7 +4693,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4711,7 +4726,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>274</v>
+        <v>20</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4721,11 +4736,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>58</v>
+        <v>274</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>228</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4737,14 +4752,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>26</v>
+        <v>277</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4754,11 +4769,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>119</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4770,14 +4785,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4787,11 +4802,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>277</v>
+        <v>121</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>278</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4810,7 +4825,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>230</v>
+        <v>31</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4820,14 +4835,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4836,14 +4851,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>233</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4853,14 +4868,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>282</v>
+        <v>37</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
         <v>283</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4876,7 +4891,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4886,14 +4901,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>94</v>
+        <v>285</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>76</v>
+        <v>31</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4902,14 +4917,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>186</v>
+        <v>26</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4919,14 +4934,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>106</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4935,14 +4950,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>26</v>
+        <v>189</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4952,11 +4967,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4968,14 +4983,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4985,14 +5000,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>228</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5001,14 +5016,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5018,14 +5033,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>137</v>
+        <v>18</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>290</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5034,14 +5049,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5051,7 +5066,7 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>292</v>
+        <v>140</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
@@ -5074,7 +5089,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>147</v>
+        <v>20</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5084,11 +5099,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>178</v>
+        <v>295</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5100,14 +5115,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5117,11 +5132,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>242</v>
+        <v>181</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5133,14 +5148,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>230</v>
+        <v>26</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5150,14 +5165,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>79</v>
+        <v>245</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5166,14 +5181,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>301</v>
+        <v>233</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5183,14 +5198,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>302</v>
+        <v>79</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>97</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5199,14 +5214,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>22</v>
+        <v>304</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5216,14 +5231,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>52</v>
+        <v>305</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>22</v>
+        <v>100</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5232,14 +5247,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5253,10 +5268,10 @@
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5265,14 +5280,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>147</v>
+        <v>26</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5282,14 +5297,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>309</v>
+        <v>52</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
         <v>310</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5305,21 +5320,21 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>312</v>
+        <v>150</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>171</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5352,10 +5367,10 @@
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>317</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5364,14 +5379,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5381,14 +5396,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>190</v>
+        <v>319</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>92</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5397,14 +5412,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>26</v>
+        <v>322</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5414,14 +5429,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>321</v>
+        <v>193</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>214</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>274</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5430,14 +5445,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>323</v>
+        <v>26</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5451,10 +5466,10 @@
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>325</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>277</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5463,14 +5478,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>12</v>
+        <v>326</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5480,11 +5495,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>41</v>
+        <v>327</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>42</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>16</v>
@@ -5496,14 +5511,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5513,11 +5528,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5529,14 +5544,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5546,14 +5561,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>302</v>
+        <v>32</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>329</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>330</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5579,14 +5594,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
         <v>332</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>35</v>
+        <v>333</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5595,14 +5610,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>334</v>
+        <v>26</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5612,14 +5627,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5628,14 +5643,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>26</v>
+        <v>337</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5668,7 +5683,7 @@
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5678,14 +5693,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>41</v>
+        <v>341</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5694,14 +5709,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5711,14 +5726,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>46</v>
+        <v>344</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5727,14 +5742,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5744,14 +5759,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>313</v>
+        <v>94</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>171</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5760,7 +5775,7 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
@@ -5777,14 +5792,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>248</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5793,14 +5808,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5810,14 +5825,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
         <v>348</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>147</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5833,7 +5848,7 @@
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5843,11 +5858,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>259</v>
+        <v>350</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -5859,14 +5874,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>351</v>
+        <v>22</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5876,49 +5891,115 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>259</v>
+        <v>352</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>307</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q133" s="12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
+        <v>354</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>22</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>36</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>262</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>263</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
+        <v>355</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>356</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>36</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>262</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
+        <v>310</v>
+      </c>
+      <c t="s" r="Q135" s="12">
         <v>12</v>
       </c>
     </row>
-    <row r="134" ht="25.5" customHeight="1">
-      <c r="P134" s="13">
-        <v>6750.8850000000002</v>
-      </c>
-      <c r="Q134" s="13"/>
-    </row>
-    <row r="135" ht="16.5" customHeight="1">
-      <c t="s" r="A135" s="14">
-        <v>352</v>
-      </c>
-      <c r="B135" s="14"/>
-      <c r="C135" s="14"/>
-      <c r="D135" s="14"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
-      <c t="s" r="G135" s="15">
-        <v>353</v>
-      </c>
-      <c r="H135" s="15"/>
-      <c r="I135" s="15"/>
-      <c r="J135" s="16"/>
-      <c t="s" r="K135" s="17">
-        <v>354</v>
-      </c>
-      <c r="L135" s="17"/>
-      <c r="M135" s="17"/>
-      <c r="N135" s="17"/>
-      <c r="O135" s="17"/>
-      <c r="P135" s="17"/>
-      <c r="Q135" s="17"/>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="P136" s="13">
+        <v>6969.8850000000002</v>
+      </c>
+      <c r="Q136" s="13"/>
+    </row>
+    <row r="137" ht="16.5" customHeight="1">
+      <c t="s" r="A137" s="14">
+        <v>357</v>
+      </c>
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c t="s" r="G137" s="15">
+        <v>358</v>
+      </c>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="16"/>
+      <c t="s" r="K137" s="17">
+        <v>359</v>
+      </c>
+      <c r="L137" s="17"/>
+      <c r="M137" s="17"/>
+      <c r="N137" s="17"/>
+      <c r="O137" s="17"/>
+      <c r="P137" s="17"/>
+      <c r="Q137" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="647">
+  <mergeCells count="657">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6562,10 +6643,20 @@
     <mergeCell ref="H133:K133"/>
     <mergeCell ref="L133:M133"/>
     <mergeCell ref="N133:O133"/>
-    <mergeCell ref="P134:Q134"/>
-    <mergeCell ref="A135:F135"/>
-    <mergeCell ref="G135:I135"/>
-    <mergeCell ref="K135:Q135"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="P136:Q136"/>
+    <mergeCell ref="A137:F137"/>
+    <mergeCell ref="G137:I137"/>
+    <mergeCell ref="K137:Q137"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -1082,7 +1082,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 8:37 PM</t>
+    <t>Thursday, 14 August, 2025 8:41 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-14_00-00.xlsx
+++ b/DaySale_2025-08-14_00-00.xlsx
@@ -407,6 +407,15 @@
     <t>23.7600</t>
   </si>
   <si>
+    <t>DELTAVIT B12 1MG 30 SUBLINGUAL TAB</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -491,6 +500,15 @@
     <t>109.0000</t>
   </si>
   <si>
+    <t>EPICOTIL 20MG 10 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>28.50</t>
+  </si>
+  <si>
+    <t>28.5000</t>
+  </si>
+  <si>
     <t>ERASTAPEX CO 5/20MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -1082,7 +1100,7 @@
     <t>15:0</t>
   </si>
   <si>
-    <t>Thursday, 14 August, 2025 8:41 PM</t>
+    <t>Thursday, 14 August, 2025 8:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2911,7 +2929,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2921,14 +2939,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2937,14 +2955,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2954,11 +2972,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2977,7 +2995,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2991,10 +3009,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3003,14 +3021,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3020,14 +3038,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3043,7 +3061,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3076,7 +3094,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3086,14 +3104,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>76</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3109,7 +3127,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3119,14 +3137,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3135,14 +3153,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3152,11 +3170,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3168,14 +3186,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>76</v>
+        <v>153</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3192,7 +3210,7 @@
         <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>156</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3201,31 +3219,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q52" s="12">
         <v>159</v>
-      </c>
-      <c t="s" r="Q52" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3241,13 +3259,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -3274,7 +3292,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3291,7 +3309,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3307,7 +3325,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3324,7 +3342,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3340,13 +3358,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3373,7 +3391,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3390,7 +3408,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3406,13 +3424,13 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3423,7 +3441,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3439,7 +3457,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3449,14 +3467,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3465,14 +3483,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3482,14 +3500,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3498,14 +3516,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3515,14 +3533,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3531,14 +3549,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3548,14 +3566,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3571,7 +3589,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>189</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3581,14 +3599,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3597,14 +3615,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3614,11 +3632,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3630,14 +3648,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>195</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3651,10 +3669,10 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>71</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3663,14 +3681,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3680,11 +3698,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3696,14 +3714,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3713,14 +3731,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3729,7 +3747,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3746,7 +3764,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3769,7 +3787,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3802,7 +3820,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3835,7 +3853,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3845,11 +3863,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>61</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>62</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3861,7 +3879,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3878,11 +3896,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>138</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>38</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3894,14 +3912,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3911,11 +3929,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3927,14 +3945,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>215</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3944,14 +3962,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3960,7 +3978,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3977,11 +3995,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3993,14 +4011,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>35</v>
+        <v>221</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4010,11 +4028,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>52</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>20</v>
@@ -4026,7 +4044,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -4043,14 +4061,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4059,14 +4077,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4076,14 +4094,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>52</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4099,7 +4117,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4132,7 +4150,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>189</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4142,11 +4160,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>58</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4158,14 +4176,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>233</v>
+        <v>76</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4175,11 +4193,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>138</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>20</v>
@@ -4191,14 +4209,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>26</v>
+        <v>195</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4208,11 +4226,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>62</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4224,14 +4242,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>239</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4241,14 +4259,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>102</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4257,14 +4275,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>238</v>
+        <v>26</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4274,14 +4292,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>61</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4290,14 +4308,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4307,11 +4325,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>101</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4323,20 +4341,20 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>244</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
@@ -4347,7 +4365,7 @@
         <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>247</v>
+        <v>76</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4356,14 +4374,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4373,11 +4391,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>193</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>194</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4389,31 +4407,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>250</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>94</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>76</v>
+        <v>253</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4422,14 +4440,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4439,11 +4457,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>199</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4462,7 +4480,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>29</v>
+        <v>256</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4472,11 +4490,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>209</v>
+        <v>94</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>24</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>76</v>
@@ -4488,31 +4506,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>250</v>
+        <v>153</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>27</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4521,14 +4539,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4538,14 +4556,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>215</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>260</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4554,31 +4572,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>256</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
         <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4594,7 +4612,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4604,14 +4622,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>97</v>
+        <v>265</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4620,14 +4638,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4637,11 +4655,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4653,28 +4671,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>225</v>
+        <v>97</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>226</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4686,7 +4704,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4703,11 +4721,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4719,28 +4737,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>274</v>
+        <v>231</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4759,7 +4777,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>277</v>
+        <v>26</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4769,11 +4787,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>58</v>
+        <v>277</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>231</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4785,14 +4803,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4802,11 +4820,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>122</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4818,14 +4836,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>31</v>
+        <v>283</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4835,11 +4853,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>280</v>
+        <v>58</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>281</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4851,14 +4869,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>233</v>
+        <v>26</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4868,14 +4886,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>283</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4884,14 +4902,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4901,14 +4919,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4917,14 +4935,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>26</v>
+        <v>239</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4934,14 +4952,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>76</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4950,14 +4968,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>189</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4967,14 +4985,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>108</v>
+        <v>291</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>109</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4983,7 +5001,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -5000,14 +5018,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>109</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5016,14 +5034,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5033,14 +5051,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>231</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5049,7 +5067,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5066,11 +5084,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>293</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5082,14 +5100,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5099,14 +5117,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>295</v>
+        <v>18</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>296</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5115,14 +5133,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5132,11 +5150,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>181</v>
+        <v>143</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5148,14 +5166,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5165,11 +5183,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>245</v>
+        <v>301</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5181,14 +5199,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>233</v>
+        <v>153</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5198,14 +5216,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5214,14 +5232,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>304</v>
+        <v>26</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5231,14 +5249,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>305</v>
+        <v>251</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
         <v>306</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5254,7 +5272,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>22</v>
+        <v>239</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5264,14 +5282,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
         <v>308</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5287,7 +5305,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>26</v>
+        <v>310</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5297,14 +5315,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>52</v>
+        <v>311</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5313,14 +5331,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>150</v>
+        <v>22</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5330,14 +5348,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>312</v>
+        <v>52</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5346,31 +5364,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>315</v>
+        <v>26</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>316</v>
+        <v>52</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>174</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5386,24 +5404,24 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>318</v>
+        <v>153</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5412,14 +5430,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5429,11 +5447,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>193</v>
+        <v>322</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>12</v>
@@ -5452,7 +5470,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>26</v>
+        <v>324</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5462,14 +5480,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>217</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>277</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5478,14 +5496,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5495,14 +5513,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>327</v>
+        <v>199</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>328</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5518,7 +5536,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5528,14 +5546,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>41</v>
+        <v>330</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>42</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>283</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5544,14 +5562,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>22</v>
+        <v>332</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5561,11 +5579,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>32</v>
+        <v>333</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>118</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5577,14 +5595,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5594,14 +5612,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>305</v>
+        <v>41</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>332</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>333</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5610,14 +5628,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5627,14 +5645,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>324</v>
+        <v>32</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>335</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5643,14 +5661,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>337</v>
+        <v>26</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5660,14 +5678,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>338</v>
+        <v>311</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
+        <v>338</v>
+      </c>
+      <c t="s" r="Q126" s="12">
         <v>339</v>
-      </c>
-      <c t="s" r="Q126" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5693,14 +5711,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5709,14 +5727,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>16</v>
+        <v>343</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5726,14 +5744,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>41</v>
+        <v>344</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5742,14 +5760,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5759,14 +5777,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>94</v>
+        <v>347</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>46</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5775,14 +5793,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5792,11 +5810,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>316<